--- a/data/hotels_by_city/Houston/Houston_shard_330.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_330.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="922">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56003-d6419978-Reviews-Holiday_Inn_Express_Hotel_Suites_Houston_Northwest_Brookhollow-Houston_Texas.html</t>
   </si>
   <si>
+    <t>186</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>195</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Holiday-Inn-Express-Hotel-Suites-Houston-NW-Brookhollow.h7687904.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,2658 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/10/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6419978-r599570924-Holiday_Inn_Express_Hotel_Suites_Houston_Northwest_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>6419978</t>
+  </si>
+  <si>
+    <t>599570924</t>
+  </si>
+  <si>
+    <t>07/25/2018</t>
+  </si>
+  <si>
+    <t>Loved it! Brand New.</t>
+  </si>
+  <si>
+    <t>This Holiday Inn Express is brand spankin new with all elements clean and sparkling. Great location right off of the interstate; also plenty of parking for a larger vehicle. I really like the new holiday inn designs; very modern and chic. One thing I noticed about this particular location is that the room seemed much bigger than average, also the elevator was massive too. I’ll omit the trite phrase about Texas that could go here; but it definitely holds true. Great to be back in a room with a Keurig; you don’t miss these until you don’t have one and feel like you are making coffee the way of the pioneers. Great swimming pool, workout room and continental breakfast. I also really enjoyed the decorative water wall (for lack of a better term). Holiday Inn Express is our go to standard of quality; this location nails the basics and beyond. Had a great experience here and will continue to stay when passing through Houston. Thanks team for being great hosts.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>August W, Director of Sales at Holiday Inn Express Hotel &amp; Suites Houston Northwest-Brookhollow, responded to this reviewResponded 2 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 2 weeks ago</t>
+  </si>
+  <si>
+    <t>This Holiday Inn Express is brand spankin new with all elements clean and sparkling. Great location right off of the interstate; also plenty of parking for a larger vehicle. I really like the new holiday inn designs; very modern and chic. One thing I noticed about this particular location is that the room seemed much bigger than average, also the elevator was massive too. I’ll omit the trite phrase about Texas that could go here; but it definitely holds true. Great to be back in a room with a Keurig; you don’t miss these until you don’t have one and feel like you are making coffee the way of the pioneers. Great swimming pool, workout room and continental breakfast. I also really enjoyed the decorative water wall (for lack of a better term). Holiday Inn Express is our go to standard of quality; this location nails the basics and beyond. Had a great experience here and will continue to stay when passing through Houston. Thanks team for being great hosts.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6419978-r598806328-Holiday_Inn_Express_Hotel_Suites_Houston_Northwest_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>598806328</t>
+  </si>
+  <si>
+    <t>07/23/2018</t>
+  </si>
+  <si>
+    <t>Exception service, exceptional service</t>
+  </si>
+  <si>
+    <t>What a welcoming, friendly and efficient staff!   After hard days of business related activities, we were pleasantly surprised by a very nice reception in the common area.  Rebeca invited us over to enjoy libations and snacks.  Even though we were tired, we agreed.  This was the perfect way to relax.  Thanks so much to to Rebeca and her staff.  We will be back soon!!MoreShow less</t>
+  </si>
+  <si>
+    <t>What a welcoming, friendly and efficient staff!   After hard days of business related activities, we were pleasantly surprised by a very nice reception in the common area.  Rebeca invited us over to enjoy libations and snacks.  Even though we were tired, we agreed.  This was the perfect way to relax.  Thanks so much to to Rebeca and her staff.  We will be back soon!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6419978-r591765091-Holiday_Inn_Express_Hotel_Suites_Houston_Northwest_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>591765091</t>
+  </si>
+  <si>
+    <t>06/29/2018</t>
+  </si>
+  <si>
+    <t>Nice Place for Business</t>
+  </si>
+  <si>
+    <t>I had to go to Houston on a business trip.  I do not care for Houston and the traffic.This place is right off 290 and it was close to my conference and restaurants.The staff was extremely help and polite, the rooms are clean, and the area is quiet so if you are headed to bed or getting up early you will not get disturbed.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t>Gilbert M, General Manager at Holiday Inn Express Hotel &amp; Suites Houston Northwest-Brookhollow, responded to this reviewResponded July 3, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 3, 2018</t>
+  </si>
+  <si>
+    <t>I had to go to Houston on a business trip.  I do not care for Houston and the traffic.This place is right off 290 and it was close to my conference and restaurants.The staff was extremely help and polite, the rooms are clean, and the area is quiet so if you are headed to bed or getting up early you will not get disturbed.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6419978-r582245294-Holiday_Inn_Express_Hotel_Suites_Houston_Northwest_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>582245294</t>
+  </si>
+  <si>
+    <t>05/23/2018</t>
+  </si>
+  <si>
+    <t>Fantastic</t>
+  </si>
+  <si>
+    <t>I recently stayed at this hotel and I could not have better things to say. The staff was extremely helpful with all of our questions and needs. We got in late and there was a large selection of snacks and food at the 24 hr shop in the hotel. In the morning I woke up and had a great breakfast, buscuits and gravy, eggs, pancakes, fruit, and juice. I eat a lot of continental breakfast and this is one of the best. The facilities were very clean. There is a nice pool area and also a workout room. I recommend this hotel to anyone passing through Houston.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t>Gilbert M, General Manager at Holiday Inn Express Hotel &amp; Suites Houston Northwest-Brookhollow, responded to this reviewResponded May 29, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 29, 2018</t>
+  </si>
+  <si>
+    <t>I recently stayed at this hotel and I could not have better things to say. The staff was extremely helpful with all of our questions and needs. We got in late and there was a large selection of snacks and food at the 24 hr shop in the hotel. In the morning I woke up and had a great breakfast, buscuits and gravy, eggs, pancakes, fruit, and juice. I eat a lot of continental breakfast and this is one of the best. The facilities were very clean. There is a nice pool area and also a workout room. I recommend this hotel to anyone passing through Houston.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6419978-r581055784-Holiday_Inn_Express_Hotel_Suites_Houston_Northwest_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>581055784</t>
+  </si>
+  <si>
+    <t>05/18/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clean and comfy </t>
+  </si>
+  <si>
+    <t>Recently stayed at this Holiday Inn on my last trip through Houston. The friendly staff got us into our rooms quickly. Fantastic breakfast with fresh and hot options to please the whole gang. The rooms were fresh and clean. Plenty of outlets for your gadgets. The outdoor pool was a nice refreshing change of pace from the heat. Can’t wait to come back to this Holiday Inn Express in Houston!MoreShow less</t>
+  </si>
+  <si>
+    <t>Gilbert M, General Manager at Holiday Inn Express Hotel &amp; Suites Houston Northwest-Brookhollow, responded to this reviewResponded May 21, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 21, 2018</t>
+  </si>
+  <si>
+    <t>Recently stayed at this Holiday Inn on my last trip through Houston. The friendly staff got us into our rooms quickly. Fantastic breakfast with fresh and hot options to please the whole gang. The rooms were fresh and clean. Plenty of outlets for your gadgets. The outdoor pool was a nice refreshing change of pace from the heat. Can’t wait to come back to this Holiday Inn Express in Houston!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6419978-r580668337-Holiday_Inn_Express_Hotel_Suites_Houston_Northwest_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>580668337</t>
+  </si>
+  <si>
+    <t>05/16/2018</t>
+  </si>
+  <si>
+    <t>Clean, Good food, Quiet</t>
+  </si>
+  <si>
+    <t>Great, clean hotel! Staff is great and accommodating. The cleaning is superb, which is extremely important. Breakfasts are great with an array of options and always warm. The hotel is quiet and beds are exquisite!MoreShow less</t>
+  </si>
+  <si>
+    <t>Great, clean hotel! Staff is great and accommodating. The cleaning is superb, which is extremely important. Breakfasts are great with an array of options and always warm. The hotel is quiet and beds are exquisite!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6419978-r563515554-Holiday_Inn_Express_Hotel_Suites_Houston_Northwest_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>563515554</t>
+  </si>
+  <si>
+    <t>03/01/2018</t>
+  </si>
+  <si>
+    <t>Excellent Hotel Stay</t>
+  </si>
+  <si>
+    <t>I had a great weekend stay at this hotel.  The hotel looks brand new and is well maintained. It is also one of the cleanest hotel's I have stayed in lately.  Everything in the room worked fine and there were no concerns during my entire stay.  The hotel is very quiet and a great place to have a relaxing stay.  Also, the staff is extremely friendly - especially the front desk agent Christine - who went above and beyond to make my stay enjoyable!  Thank you very much! I will return!MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Gilbert M, General Manager at Holiday Inn Express Hotel &amp; Suites Houston Northwest-Brookhollow, responded to this reviewResponded March 5, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 5, 2018</t>
+  </si>
+  <si>
+    <t>I had a great weekend stay at this hotel.  The hotel looks brand new and is well maintained. It is also one of the cleanest hotel's I have stayed in lately.  Everything in the room worked fine and there were no concerns during my entire stay.  The hotel is very quiet and a great place to have a relaxing stay.  Also, the staff is extremely friendly - especially the front desk agent Christine - who went above and beyond to make my stay enjoyable!  Thank you very much! I will return!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6419978-r557920898-Holiday_Inn_Express_Hotel_Suites_Houston_Northwest_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>557920898</t>
+  </si>
+  <si>
+    <t>02/02/2018</t>
+  </si>
+  <si>
+    <t>Solo Stay for Work</t>
+  </si>
+  <si>
+    <t>Excellent accommodations.  Staff very professional &amp; courteous.  Breakfast was nice.  They have a computer and printer avail for guests, which I did use 2 different times.  My stay was for 2 weeks.  As a solo female, I felt very safe.  the parking is well lit, and free parking accommodations.  Located near the FBI headquarters of Houston!  Manager on duty was Gilbert Mora, and he made sure my stay was an enjoyable one!  I will definitely stay here again as well as recommend this location to others.  Easy Highway access also!MoreShow less</t>
+  </si>
+  <si>
+    <t>Gilbert M, General Manager at Holiday Inn Express Hotel &amp; Suites Houston Northwest-Brookhollow, responded to this reviewResponded February 5, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 5, 2018</t>
+  </si>
+  <si>
+    <t>Excellent accommodations.  Staff very professional &amp; courteous.  Breakfast was nice.  They have a computer and printer avail for guests, which I did use 2 different times.  My stay was for 2 weeks.  As a solo female, I felt very safe.  the parking is well lit, and free parking accommodations.  Located near the FBI headquarters of Houston!  Manager on duty was Gilbert Mora, and he made sure my stay was an enjoyable one!  I will definitely stay here again as well as recommend this location to others.  Easy Highway access also!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6419978-r557589995-Holiday_Inn_Express_Hotel_Suites_Houston_Northwest_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>557589995</t>
+  </si>
+  <si>
+    <t>01/31/2018</t>
+  </si>
+  <si>
+    <t>another fine IHG property</t>
+  </si>
+  <si>
+    <t>clean, fast check in, nice sized quiet rooms. Pool and hot tub. standard IHG breakfast items. Easy to get to although the construction in Houston sucks. Close to food and entertainment. Good parking as well.Will be back next weekMoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t>Gilbert M, General Manager at Holiday Inn Express Hotel &amp; Suites Houston Northwest-Brookhollow, responded to this reviewResponded February 1, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 1, 2018</t>
+  </si>
+  <si>
+    <t>clean, fast check in, nice sized quiet rooms. Pool and hot tub. standard IHG breakfast items. Easy to get to although the construction in Houston sucks. Close to food and entertainment. Good parking as well.Will be back next weekMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6419978-r549536118-Holiday_Inn_Express_Hotel_Suites_Houston_Northwest_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>549536118</t>
+  </si>
+  <si>
+    <t>12/27/2017</t>
+  </si>
+  <si>
+    <t>Wonderful stay</t>
+  </si>
+  <si>
+    <t>We stayed and had a wonderful experience. The staff was so nice and the room was roomy and clean. They were friendly and helpful at all points of stay. Except Breakfast had things run out like pancakes and the cinnamon rolls.MoreShow less</t>
+  </si>
+  <si>
+    <t>Gilbert M, General Manager at Holiday Inn Express Hotel &amp; Suites Houston Northwest-Brookhollow, responded to this reviewResponded December 29, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 29, 2017</t>
+  </si>
+  <si>
+    <t>We stayed and had a wonderful experience. The staff was so nice and the room was roomy and clean. They were friendly and helpful at all points of stay. Except Breakfast had things run out like pancakes and the cinnamon rolls.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6419978-r548445949-Holiday_Inn_Express_Hotel_Suites_Houston_Northwest_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>548445949</t>
+  </si>
+  <si>
+    <t>12/21/2017</t>
+  </si>
+  <si>
+    <t>Quiet stay</t>
+  </si>
+  <si>
+    <t>We needed to find a hotel close to a quince we were attending on the weekend. This one had the best reviews in the area and we were not disappointed.  It was clean and in a decent location. Only thing is that there is a lot of construction on 290 but we took a lot of back roads to get around it. The beds were comfortable and it had some good amenities like the Keurig in the room. Breakfast was not too shabby and the ladies were working crazy to keep fresh food out. MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Gilbert M, General Manager at Holiday Inn Express Hotel &amp; Suites Houston Northwest-Brookhollow, responded to this reviewResponded December 22, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 22, 2017</t>
+  </si>
+  <si>
+    <t>We needed to find a hotel close to a quince we were attending on the weekend. This one had the best reviews in the area and we were not disappointed.  It was clean and in a decent location. Only thing is that there is a lot of construction on 290 but we took a lot of back roads to get around it. The beds were comfortable and it had some good amenities like the Keurig in the room. Breakfast was not too shabby and the ladies were working crazy to keep fresh food out. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6419978-r546540798-Holiday_Inn_Express_Hotel_Suites_Houston_Northwest_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>546540798</t>
+  </si>
+  <si>
+    <t>12/10/2017</t>
+  </si>
+  <si>
+    <t>More Than Satisfied!!</t>
+  </si>
+  <si>
+    <t>I can honestly say staying here has been an enjoyable and comfortable experience. It's clean, luxurious,  and the staff are great! Being on a budget, I felt we didn't belong but the staff treated us like any other. I had an attitude about my reservation not going thru but        JAY stayed professional and went out her way to accommodate me even though she probably was mad but never showe'd it. We ended up being cool.  The GM also made me feel comfortable  so I definitely recommend you to check in #zen MoreShow less</t>
+  </si>
+  <si>
+    <t>Gilbert M, General Manager at Holiday Inn Express Hotel &amp; Suites Houston Northwest-Brookhollow, responded to this reviewResponded December 13, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 13, 2017</t>
+  </si>
+  <si>
+    <t>I can honestly say staying here has been an enjoyable and comfortable experience. It's clean, luxurious,  and the staff are great! Being on a budget, I felt we didn't belong but the staff treated us like any other. I had an attitude about my reservation not going thru but        JAY stayed professional and went out her way to accommodate me even though she probably was mad but never showe'd it. We ended up being cool.  The GM also made me feel comfortable  so I definitely recommend you to check in #zen More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6419978-r529198683-Holiday_Inn_Express_Hotel_Suites_Houston_Northwest_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>529198683</t>
+  </si>
+  <si>
+    <t>10/02/2017</t>
+  </si>
+  <si>
+    <t>Average Stay for Holiday Inn Express</t>
+  </si>
+  <si>
+    <t>Construction in the area makes it hard to get in and out of. Big trucks are parked on the street and you can't see around them to pull out. Overall it was an average stay. Air conditioner worked great, breakfast was the normal items for Holiday Inn Express. Hotel was clean. I never saw anyone at the front desk other than when checking in. My room was not ready upon arrival and I did not arrive until after 4pm. The location does have lots of restaurants around so it is convenient and probably pretty safe since the FBI complex is right next door.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>Gilbert M, General Manager at Holiday Inn Express Hotel &amp; Suites Houston Northwest-Brookhollow, responded to this reviewResponded October 5, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 5, 2017</t>
+  </si>
+  <si>
+    <t>Construction in the area makes it hard to get in and out of. Big trucks are parked on the street and you can't see around them to pull out. Overall it was an average stay. Air conditioner worked great, breakfast was the normal items for Holiday Inn Express. Hotel was clean. I never saw anyone at the front desk other than when checking in. My room was not ready upon arrival and I did not arrive until after 4pm. The location does have lots of restaurants around so it is convenient and probably pretty safe since the FBI complex is right next door.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6419978-r523252009-Holiday_Inn_Express_Hotel_Suites_Houston_Northwest_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>523252009</t>
+  </si>
+  <si>
+    <t>09/10/2017</t>
+  </si>
+  <si>
+    <t>Best of my frequent business stays in this area of Houston</t>
+  </si>
+  <si>
+    <t>I do business in this area of Houston often, and am always on the lookout for a hotel that is consistent, clean, and affordable. I have found it in this little gem. The lobby is well appointed and welcoming. The front desk staff is efficient and friendly; ready to get you to where you are going-either checkin or checkout! Room was clean and sleep quality was good. It seems that the staff actually maintains the property! :)  Fitness center was average, but above average in cleanliness. The machines didn't even squeak relentlessly! Breakfast was fine. There was a choice of some healthier options (and lots of breakfast comfort food choices, as well). Will be happy to return!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>Gilbert M, General Manager at Holiday Inn Express Hotel &amp; Suites Houston Northwest-Brookhollow, responded to this reviewResponded September 11, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 11, 2017</t>
+  </si>
+  <si>
+    <t>I do business in this area of Houston often, and am always on the lookout for a hotel that is consistent, clean, and affordable. I have found it in this little gem. The lobby is well appointed and welcoming. The front desk staff is efficient and friendly; ready to get you to where you are going-either checkin or checkout! Room was clean and sleep quality was good. It seems that the staff actually maintains the property! :)  Fitness center was average, but above average in cleanliness. The machines didn't even squeak relentlessly! Breakfast was fine. There was a choice of some healthier options (and lots of breakfast comfort food choices, as well). Will be happy to return!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6419978-r520937674-Holiday_Inn_Express_Hotel_Suites_Houston_Northwest_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>520937674</t>
+  </si>
+  <si>
+    <t>09/03/2017</t>
+  </si>
+  <si>
+    <t>When I saw those green lights, it was like coming home.</t>
+  </si>
+  <si>
+    <t>This is a new looking property, well lit and great breakfast. We stayed after Harvey and saw the devastation every day. When we turned that corner and knew they had a clean room with every thing we need for us, it felt like home.MoreShow less</t>
+  </si>
+  <si>
+    <t>Gilbert M, General Manager at Holiday Inn Express Hotel &amp; Suites Houston Northwest-Brookhollow, responded to this reviewResponded September 7, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 7, 2017</t>
+  </si>
+  <si>
+    <t>This is a new looking property, well lit and great breakfast. We stayed after Harvey and saw the devastation every day. When we turned that corner and knew they had a clean room with every thing we need for us, it felt like home.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6419978-r508583456-Holiday_Inn_Express_Hotel_Suites_Houston_Northwest_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>508583456</t>
+  </si>
+  <si>
+    <t>08/03/2017</t>
+  </si>
+  <si>
+    <t>Good hotel and close to Region 4</t>
+  </si>
+  <si>
+    <t>Stayed here while at a conference at Region 4. Very nice, clean, and staff very friendly.  Breakfast is ok, and 1 social hour provided.  The largest plus was that this was the nicest hotel on the east side of the 290 which made it easier to navigate the traffic and construction. Will definitely stay again!!MoreShow less</t>
+  </si>
+  <si>
+    <t>Gilbert M, General Manager at Holiday Inn Express Hotel &amp; Suites Houston Northwest-Brookhollow, responded to this reviewResponded August 8, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 8, 2017</t>
+  </si>
+  <si>
+    <t>Stayed here while at a conference at Region 4. Very nice, clean, and staff very friendly.  Breakfast is ok, and 1 social hour provided.  The largest plus was that this was the nicest hotel on the east side of the 290 which made it easier to navigate the traffic and construction. Will definitely stay again!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6419978-r508521627-Holiday_Inn_Express_Hotel_Suites_Houston_Northwest_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>508521627</t>
+  </si>
+  <si>
+    <t>Great Customer Service</t>
+  </si>
+  <si>
+    <t>I had a wonderful experience in this hotel. The staff were very accommodating, most especially JAY of front desk. JAY was empathetic &amp; went above &amp; beyond to make my stay a very comfortable &amp; pleasant one. Superb customer service! MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>I had a wonderful experience in this hotel. The staff were very accommodating, most especially JAY of front desk. JAY was empathetic &amp; went above &amp; beyond to make my stay a very comfortable &amp; pleasant one. Superb customer service! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6419978-r507939137-Holiday_Inn_Express_Hotel_Suites_Houston_Northwest_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>507939137</t>
+  </si>
+  <si>
+    <t>08/01/2017</t>
+  </si>
+  <si>
+    <t>the best hotel in Texas that I've ever traveled to</t>
+  </si>
+  <si>
+    <t>This is one of the best hotels that I've traveled to and stayed at. I stayed here with a few adult friends and the dogs my friends had with them. Nothing to dislike about this place. i really liked to how nice and warm the pool was. I also liked to how nice the building looked from the inside and outside. MoreShow less</t>
+  </si>
+  <si>
+    <t>Gilbert M, General Manager at Holiday Inn Express Hotel &amp; Suites Houston Northwest-Brookhollow, responded to this reviewResponded August 3, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 3, 2017</t>
+  </si>
+  <si>
+    <t>This is one of the best hotels that I've traveled to and stayed at. I stayed here with a few adult friends and the dogs my friends had with them. Nothing to dislike about this place. i really liked to how nice and warm the pool was. I also liked to how nice the building looked from the inside and outside. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6419978-r500256549-Holiday_Inn_Express_Hotel_Suites_Houston_Northwest_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>500256549</t>
+  </si>
+  <si>
+    <t>07/10/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great Experience </t>
+  </si>
+  <si>
+    <t>My experience with this hotel far exceeded my expectations.  From the speedy check inn last night, to a pretty decent breakfast, to my encounter with the GM, Gilbert Mora, this morning, I have no complaints! The hotel is conveniently located and despite being so close to Hwy 290, its very quiet. The hotel itself is immaculate. There's even a really nice gym, if you're so inclined.  Every staff member has been friendly and professional.  I would definitely recommend this hotel and I will be returning! MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>Gilbert M, General Manager at Holiday Inn Express Hotel &amp; Suites Houston Northwest-Brookhollow, responded to this reviewResponded July 11, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 11, 2017</t>
+  </si>
+  <si>
+    <t>My experience with this hotel far exceeded my expectations.  From the speedy check inn last night, to a pretty decent breakfast, to my encounter with the GM, Gilbert Mora, this morning, I have no complaints! The hotel is conveniently located and despite being so close to Hwy 290, its very quiet. The hotel itself is immaculate. There's even a really nice gym, if you're so inclined.  Every staff member has been friendly and professional.  I would definitely recommend this hotel and I will be returning! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6419978-r493101641-Holiday_Inn_Express_Hotel_Suites_Houston_Northwest_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>493101641</t>
+  </si>
+  <si>
+    <t>06/14/2017</t>
+  </si>
+  <si>
+    <t>Brookhollow</t>
+  </si>
+  <si>
+    <t>I love this hotel! The staff is so friendly and helpful.  The rooms are clean, they have a microwave and mini fridge, the beds are very comfortable with your choice of firm or soft pillows and they also have a great free breakfast  with a variety of breakfast foods to choose from. I stay here every year when I come to Houston to attend my conference.  Jay at the front desk is amazing!!! Thanks Jay! MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>Gilbert M, General Manager at Holiday Inn Express Hotel &amp; Suites Houston Northwest-Brookhollow, responded to this reviewResponded June 15, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 15, 2017</t>
+  </si>
+  <si>
+    <t>I love this hotel! The staff is so friendly and helpful.  The rooms are clean, they have a microwave and mini fridge, the beds are very comfortable with your choice of firm or soft pillows and they also have a great free breakfast  with a variety of breakfast foods to choose from. I stay here every year when I come to Houston to attend my conference.  Jay at the front desk is amazing!!! Thanks Jay! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6419978-r492491680-Holiday_Inn_Express_Hotel_Suites_Houston_Northwest_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>492491680</t>
+  </si>
+  <si>
+    <t>06/12/2017</t>
+  </si>
+  <si>
+    <t>STAFF AND PROPERTY OUTSTANDING!!!</t>
+  </si>
+  <si>
+    <t>I just was so happy with the wonderful staff and accommodations at this location!! Jay at the front desk handle a situation I had and went above and beyond to make sure I had a wonderful stay.  I was amazed at how helpful everyone there was.  I would also like to thank Becky for going above and beyond also.  I will stay here anytime I am in the Houston area.  We had a downtown meeting and was very easy to get there.  The breakfast was wonderful and lucky enough to make the Tuesday night Happy Hour!!!Thank  you again for you wonderful hospitality!!MoreShow less</t>
+  </si>
+  <si>
+    <t>Gilbert M, General Manager at Holiday Inn Express Hotel &amp; Suites Houston Northwest-Brookhollow, responded to this reviewResponded June 14, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 14, 2017</t>
+  </si>
+  <si>
+    <t>I just was so happy with the wonderful staff and accommodations at this location!! Jay at the front desk handle a situation I had and went above and beyond to make sure I had a wonderful stay.  I was amazed at how helpful everyone there was.  I would also like to thank Becky for going above and beyond also.  I will stay here anytime I am in the Houston area.  We had a downtown meeting and was very easy to get there.  The breakfast was wonderful and lucky enough to make the Tuesday night Happy Hour!!!Thank  you again for you wonderful hospitality!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6419978-r485487645-Holiday_Inn_Express_Hotel_Suites_Houston_Northwest_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>485487645</t>
+  </si>
+  <si>
+    <t>05/18/2017</t>
+  </si>
+  <si>
+    <t>Excellent Service</t>
+  </si>
+  <si>
+    <t>Becky's hospitality is a 10 out of 10. She was so very friendly and helpful throughout my stay. She went above and beyond to meet the needs of myself and my team. I enjoy staying at this location because the staff are always very accommodating. MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>Gilbert M, General Manager at Holiday Inn Express Hotel &amp; Suites Houston Northwest-Brookhollow, responded to this reviewResponded May 22, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 22, 2017</t>
+  </si>
+  <si>
+    <t>Becky's hospitality is a 10 out of 10. She was so very friendly and helpful throughout my stay. She went above and beyond to meet the needs of myself and my team. I enjoy staying at this location because the staff are always very accommodating. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6419978-r485453318-Holiday_Inn_Express_Hotel_Suites_Houston_Northwest_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>485453318</t>
+  </si>
+  <si>
+    <t>Fantastic facility and staff</t>
+  </si>
+  <si>
+    <t>Rooms were clean and comfortable.  The breakfasts were more than enough to fill me with the cinnamon rolls, eggs, and bacon.  Becky told me of the Tuesday Manager's special; this was a welcome time to communicate to other guests.  There was a snafu at check-in but quickly and professionally resolved.  Jay saw to that.  Also, away from the highway and airport so there is no road noise.MoreShow less</t>
+  </si>
+  <si>
+    <t>Gilbert M, General Manager at Holiday Inn Express Hotel &amp; Suites Houston Northwest-Brookhollow, responded to this reviewResponded May 19, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 19, 2017</t>
+  </si>
+  <si>
+    <t>Rooms were clean and comfortable.  The breakfasts were more than enough to fill me with the cinnamon rolls, eggs, and bacon.  Becky told me of the Tuesday Manager's special; this was a welcome time to communicate to other guests.  There was a snafu at check-in but quickly and professionally resolved.  Jay saw to that.  Also, away from the highway and airport so there is no road noise.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6419978-r483049683-Holiday_Inn_Express_Hotel_Suites_Houston_Northwest_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>483049683</t>
+  </si>
+  <si>
+    <t>05/09/2017</t>
+  </si>
+  <si>
+    <t>Nice hotel, enjoyed the free appetizers and drinks</t>
+  </si>
+  <si>
+    <t>Very nice hotel. They provided appetizers and free beer and white wine on Tuesday which was really nice. My bathroom has some water damage and the hotel is fairly new so i will let the manager know before i leave. MoreShow less</t>
+  </si>
+  <si>
+    <t>Gilbert M, General Manager at Holiday Inn Express Hotel &amp; Suites Houston Northwest-Brookhollow, responded to this reviewResponded May 11, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 11, 2017</t>
+  </si>
+  <si>
+    <t>Very nice hotel. They provided appetizers and free beer and white wine on Tuesday which was really nice. My bathroom has some water damage and the hotel is fairly new so i will let the manager know before i leave. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6419978-r478089006-Holiday_Inn_Express_Hotel_Suites_Houston_Northwest_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>478089006</t>
+  </si>
+  <si>
+    <t>04/22/2017</t>
+  </si>
+  <si>
+    <t>A Euphoric Experience</t>
+  </si>
+  <si>
+    <t>Date of stay:  April 12, 2017
+Room type:  King Leisure Non-smoke
+Floor:  2nd floor 
+Let me start off my review by stating that this was my first stay at this location.  I have seen it several times during my other trips to Houston, but never booked a reservation until now.  Now I know what I have been missing out on and will rotate this location into my future Houston stays.  Want to find out why?  Keep on reading.
+Location:  Taking Hwy 290 you can arrive at this location by exiting Bingle Road.  610 is approximately 3-5 minutes away from this location as well providing you with two major roadways of Hwy 290 and 610 to venture around Houston.  
+Once you exit Bingle road you'll drive approximately 1 1/2 miles to your destination.  The hotel is an adequate distance from Hwy 290 in that you don't hear the traffic once you're in your room.  You will get a sense that you are not in a major city due to it's quaint location that will provide you with a euphoric feeling once you enter the lobby area.  
+Hotel exterior/parking:  The hotel exterior and parking area is very well maintained.  You are provided with free parking at this location.  The parking area has adequate lighting and plenty of available parking spaces during my stay.  I am curious how the parking area would hold up on a night where the hotel is at full...Date of stay:  April 12, 2017Room type:  King Leisure Non-smokeFloor:  2nd floor Let me start off my review by stating that this was my first stay at this location.  I have seen it several times during my other trips to Houston, but never booked a reservation until now.  Now I know what I have been missing out on and will rotate this location into my future Houston stays.  Want to find out why?  Keep on reading.Location:  Taking Hwy 290 you can arrive at this location by exiting Bingle Road.  610 is approximately 3-5 minutes away from this location as well providing you with two major roadways of Hwy 290 and 610 to venture around Houston.  Once you exit Bingle road you'll drive approximately 1 1/2 miles to your destination.  The hotel is an adequate distance from Hwy 290 in that you don't hear the traffic once you're in your room.  You will get a sense that you are not in a major city due to it's quaint location that will provide you with a euphoric feeling once you enter the lobby area.  Hotel exterior/parking:  The hotel exterior and parking area is very well maintained.  You are provided with free parking at this location.  The parking area has adequate lighting and plenty of available parking spaces during my stay.  I am curious how the parking area would hold up on a night where the hotel is at full capacity.  I don't think they have enough parking spaces for such a scenario, but I hope I don't have to encounter that experience myself.  Front Desk/Lobby:  Upon entering the hotel I was taken back by how well lit the lobby area was.  It felt like it was 12 noon inside the hotel while the actual time was 10pm.  Once again the front desk and lobby area was very well maintained and had a welcome feel to it.  Room:  This hotel has four floors and I stayed on the second floor approximately three rooms down from the elevator.  I opted for the King Leisure Non-smoke room for my first stay and it meet my needs for a quick one night stay.  The bedroom and bathroom were very well maintained on the night of my stay.Upon entering the room the bathroom is located on the right hand side.  There are plenty of bath and hand towels for your stay.  You are provided the basic amenities of shampoo, conditioner, body wash, body lotion and two bars of soap.  I also noticed a makeup remover wipe in case that is needed.  Oh, there's also two rolls of toilet paper and a blow dryer.The king size bed was very soft and will tempt you to oversleep.  There were six pillows on my bed ranging from firm to soft.  I opted for the soft and had a wonderful nights sleep.Thermostat:  The thermostat is located on the wall and worked very well.  I didn't have to fumble with it to get the room at just the right temperature.  Internet:  This hotel has excellent wi-fi connectivity that does not cut in and out like many other locations.  The speed of connectivity was above average from other locations.Late checkout:  If you opt for a late check out at this location you're in for a surprise.  The front desk does an AWESOME job of communicating late check outs with their housekeeping.  You won't get that annoying knock on the door by housekeeping reminding you that you've exceeded their 12 noon checkout time only to inform them that you were granted a late check out by their front desk.  So many other hotels in the Houston areas don't do a good job of communicating late check outs with their housekeeping.  I was pleasantly surprised that this was not an issue at this location.Pros:  Overall hotel/room cleanliness, location, internet connectivity and awesome bedding.  Cons:  I honestly do not have any cons for this location during my recent stay.  Going out on a limb I would have to say that perhaps parking availability might be an issue if he hotel is fully booked.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>Gilbert M, General Manager at Holiday Inn Express Hotel &amp; Suites Houston Northwest-Brookhollow, responded to this reviewResponded April 24, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 24, 2017</t>
+  </si>
+  <si>
+    <t>Date of stay:  April 12, 2017
+Room type:  King Leisure Non-smoke
+Floor:  2nd floor 
+Let me start off my review by stating that this was my first stay at this location.  I have seen it several times during my other trips to Houston, but never booked a reservation until now.  Now I know what I have been missing out on and will rotate this location into my future Houston stays.  Want to find out why?  Keep on reading.
+Location:  Taking Hwy 290 you can arrive at this location by exiting Bingle Road.  610 is approximately 3-5 minutes away from this location as well providing you with two major roadways of Hwy 290 and 610 to venture around Houston.  
+Once you exit Bingle road you'll drive approximately 1 1/2 miles to your destination.  The hotel is an adequate distance from Hwy 290 in that you don't hear the traffic once you're in your room.  You will get a sense that you are not in a major city due to it's quaint location that will provide you with a euphoric feeling once you enter the lobby area.  
+Hotel exterior/parking:  The hotel exterior and parking area is very well maintained.  You are provided with free parking at this location.  The parking area has adequate lighting and plenty of available parking spaces during my stay.  I am curious how the parking area would hold up on a night where the hotel is at full...Date of stay:  April 12, 2017Room type:  King Leisure Non-smokeFloor:  2nd floor Let me start off my review by stating that this was my first stay at this location.  I have seen it several times during my other trips to Houston, but never booked a reservation until now.  Now I know what I have been missing out on and will rotate this location into my future Houston stays.  Want to find out why?  Keep on reading.Location:  Taking Hwy 290 you can arrive at this location by exiting Bingle Road.  610 is approximately 3-5 minutes away from this location as well providing you with two major roadways of Hwy 290 and 610 to venture around Houston.  Once you exit Bingle road you'll drive approximately 1 1/2 miles to your destination.  The hotel is an adequate distance from Hwy 290 in that you don't hear the traffic once you're in your room.  You will get a sense that you are not in a major city due to it's quaint location that will provide you with a euphoric feeling once you enter the lobby area.  Hotel exterior/parking:  The hotel exterior and parking area is very well maintained.  You are provided with free parking at this location.  The parking area has adequate lighting and plenty of available parking spaces during my stay.  I am curious how the parking area would hold up on a night where the hotel is at full capacity.  I don't think they have enough parking spaces for such a scenario, but I hope I don't have to encounter that experience myself.  Front Desk/Lobby:  Upon entering the hotel I was taken back by how well lit the lobby area was.  It felt like it was 12 noon inside the hotel while the actual time was 10pm.  Once again the front desk and lobby area was very well maintained and had a welcome feel to it.  Room:  This hotel has four floors and I stayed on the second floor approximately three rooms down from the elevator.  I opted for the King Leisure Non-smoke room for my first stay and it meet my needs for a quick one night stay.  The bedroom and bathroom were very well maintained on the night of my stay.Upon entering the room the bathroom is located on the right hand side.  There are plenty of bath and hand towels for your stay.  You are provided the basic amenities of shampoo, conditioner, body wash, body lotion and two bars of soap.  I also noticed a makeup remover wipe in case that is needed.  Oh, there's also two rolls of toilet paper and a blow dryer.The king size bed was very soft and will tempt you to oversleep.  There were six pillows on my bed ranging from firm to soft.  I opted for the soft and had a wonderful nights sleep.Thermostat:  The thermostat is located on the wall and worked very well.  I didn't have to fumble with it to get the room at just the right temperature.  Internet:  This hotel has excellent wi-fi connectivity that does not cut in and out like many other locations.  The speed of connectivity was above average from other locations.Late checkout:  If you opt for a late check out at this location you're in for a surprise.  The front desk does an AWESOME job of communicating late check outs with their housekeeping.  You won't get that annoying knock on the door by housekeeping reminding you that you've exceeded their 12 noon checkout time only to inform them that you were granted a late check out by their front desk.  So many other hotels in the Houston areas don't do a good job of communicating late check outs with their housekeeping.  I was pleasantly surprised that this was not an issue at this location.Pros:  Overall hotel/room cleanliness, location, internet connectivity and awesome bedding.  Cons:  I honestly do not have any cons for this location during my recent stay.  Going out on a limb I would have to say that perhaps parking availability might be an issue if he hotel is fully booked.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6419978-r476766022-Holiday_Inn_Express_Hotel_Suites_Houston_Northwest_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>476766022</t>
+  </si>
+  <si>
+    <t>04/18/2017</t>
+  </si>
+  <si>
+    <t>I Love and appreciate this Hotel</t>
+  </si>
+  <si>
+    <t>I was planning on only staying one night and decided on staying a second night because I slept so well and the room was so comfortable.  Jay was authentically friendly and helpful at checking and I really appreciate that.MoreShow less</t>
+  </si>
+  <si>
+    <t>Gilbert M, General Manager at Holiday Inn Express Hotel &amp; Suites Houston Northwest-Brookhollow, responded to this reviewResponded April 19, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 19, 2017</t>
+  </si>
+  <si>
+    <t>I was planning on only staying one night and decided on staying a second night because I slept so well and the room was so comfortable.  Jay was authentically friendly and helpful at checking and I really appreciate that.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6419978-r473386605-Holiday_Inn_Express_Hotel_Suites_Houston_Northwest_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>473386605</t>
+  </si>
+  <si>
+    <t>04/07/2017</t>
+  </si>
+  <si>
+    <t>Great Hotel !!!</t>
+  </si>
+  <si>
+    <t>This is a 2-year old hotel and was very nice.  Danya at the desk was very friendly, efficient and helpful.  Rooms were very nice, clean and comfortable.  Also had a good breakfast.  Would DEFINITELY stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Gilbert M, General Manager at Holiday Inn Express Hotel &amp; Suites Houston Northwest-Brookhollow, responded to this reviewResponded April 10, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 10, 2017</t>
+  </si>
+  <si>
+    <t>This is a 2-year old hotel and was very nice.  Danya at the desk was very friendly, efficient and helpful.  Rooms were very nice, clean and comfortable.  Also had a good breakfast.  Would DEFINITELY stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6419978-r470722351-Holiday_Inn_Express_Hotel_Suites_Houston_Northwest_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>470722351</t>
+  </si>
+  <si>
+    <t>03/27/2017</t>
+  </si>
+  <si>
+    <t>Great hotel!!</t>
+  </si>
+  <si>
+    <t>What a great property!  It was a little confusing to get to, but when we walked through the doors - it was worth the hassle!  The lobby is nicely decorated and is clean, fresh and modern.  There was a happy hour with beer, wine and appetizers, which was welcome after our log day of driving.  Our room was enormous, and was super comfortable - we would recommend this hotel to anyone staying in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>Gilbert M, General Manager at Holiday Inn Express Hotel &amp; Suites Houston Northwest-Brookhollow, responded to this reviewResponded March 28, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 28, 2017</t>
+  </si>
+  <si>
+    <t>What a great property!  It was a little confusing to get to, but when we walked through the doors - it was worth the hassle!  The lobby is nicely decorated and is clean, fresh and modern.  There was a happy hour with beer, wine and appetizers, which was welcome after our log day of driving.  Our room was enormous, and was super comfortable - we would recommend this hotel to anyone staying in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6419978-r470354287-Holiday_Inn_Express_Hotel_Suites_Houston_Northwest_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>470354287</t>
+  </si>
+  <si>
+    <t>03/26/2017</t>
+  </si>
+  <si>
+    <t>Very clean rooms! Wonderful staff</t>
+  </si>
+  <si>
+    <t>I have a great stay at the Holiday Inn Express and Suites Brookhollow. The rooms were clean, beds were comfy. The hotel is very updated and we loved the pool and hot tub. We will definitely come back.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Gilbert M, General Manager at Holiday Inn Express Hotel &amp; Suites Houston Northwest-Brookhollow, responded to this reviewResponded March 29, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 29, 2017</t>
+  </si>
+  <si>
+    <t>I have a great stay at the Holiday Inn Express and Suites Brookhollow. The rooms were clean, beds were comfy. The hotel is very updated and we loved the pool and hot tub. We will definitely come back.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6419978-r467656255-Holiday_Inn_Express_Hotel_Suites_Houston_Northwest_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>467656255</t>
+  </si>
+  <si>
+    <t>03/15/2017</t>
+  </si>
+  <si>
+    <t>Excellent Accommodations</t>
+  </si>
+  <si>
+    <t>Spent two nights at this Holiday Inn Express and thoroughly enjoyed the stay.  Jay at the front desk and Shanna were particularly helpful.  They were pleasant and very customer friendly.  The hotel is new and is well maintained.  The Tuesday night "happy hour" hosted by the hotel is a nice gesture.MoreShow less</t>
+  </si>
+  <si>
+    <t>Gilbert M, General Manager at Holiday Inn Express Hotel &amp; Suites Houston Northwest-Brookhollow, responded to this reviewResponded March 17, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 17, 2017</t>
+  </si>
+  <si>
+    <t>Spent two nights at this Holiday Inn Express and thoroughly enjoyed the stay.  Jay at the front desk and Shanna were particularly helpful.  They were pleasant and very customer friendly.  The hotel is new and is well maintained.  The Tuesday night "happy hour" hosted by the hotel is a nice gesture.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6419978-r463007995-Holiday_Inn_Express_Hotel_Suites_Houston_Northwest_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>463007995</t>
+  </si>
+  <si>
+    <t>02/26/2017</t>
+  </si>
+  <si>
+    <t>Great and marvelous stay</t>
+  </si>
+  <si>
+    <t>Jay the front desk supervisor was very helpful.  Her service was the best I have ever had. I look forward to patronizing holiday Inn every time because of the great service I received from Jay. Thank you so much holiday Inn for hiring such a wonderful and helpful worker.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>Gilbert M, General Manager at Holiday Inn Express Hotel &amp; Suites Houston Northwest-Brookhollow, responded to this reviewResponded February 27, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 27, 2017</t>
+  </si>
+  <si>
+    <t>Jay the front desk supervisor was very helpful.  Her service was the best I have ever had. I look forward to patronizing holiday Inn every time because of the great service I received from Jay. Thank you so much holiday Inn for hiring such a wonderful and helpful worker.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6419978-r457740948-Holiday_Inn_Express_Hotel_Suites_Houston_Northwest_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>457740948</t>
+  </si>
+  <si>
+    <t>02/06/2017</t>
+  </si>
+  <si>
+    <t>Jay</t>
+  </si>
+  <si>
+    <t>Jessica P was great. She was very proficient in her duties in making us feel comfortable and at home during our trip away from home. The hotel it's self was very nice, clean, and organized. Something else that was nice, is the distance of everything. Restaurants, bars, movie theaters where all within five minutes from this location MoreShow less</t>
+  </si>
+  <si>
+    <t>Gilbert M, General Manager at Holiday Inn Express Hotel &amp; Suites Houston Northwest-Brookhollow, responded to this reviewResponded February 7, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 7, 2017</t>
+  </si>
+  <si>
+    <t>Jessica P was great. She was very proficient in her duties in making us feel comfortable and at home during our trip away from home. The hotel it's self was very nice, clean, and organized. Something else that was nice, is the distance of everything. Restaurants, bars, movie theaters where all within five minutes from this location More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6419978-r456143479-Holiday_Inn_Express_Hotel_Suites_Houston_Northwest_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>456143479</t>
+  </si>
+  <si>
+    <t>01/31/2017</t>
+  </si>
+  <si>
+    <t>Business Trip</t>
+  </si>
+  <si>
+    <t>Stayed 3 nights as it was right next to where I need to be each morning, all-round no complaints...nice and clean, good food and friendly staff which were always happy to help. I will be staying here agin soon. Highly recommended. MoreShow less</t>
+  </si>
+  <si>
+    <t>Gilbert M, General Manager at Holiday Inn Express Hotel &amp; Suites Houston Northwest-Brookhollow, responded to this reviewResponded February 1, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 1, 2017</t>
+  </si>
+  <si>
+    <t>Stayed 3 nights as it was right next to where I need to be each morning, all-round no complaints...nice and clean, good food and friendly staff which were always happy to help. I will be staying here agin soon. Highly recommended. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6419978-r440512867-Holiday_Inn_Express_Hotel_Suites_Houston_Northwest_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>440512867</t>
+  </si>
+  <si>
+    <t>11/27/2016</t>
+  </si>
+  <si>
+    <t>Clean holiday inn express with a few issues</t>
+  </si>
+  <si>
+    <t>We stayed in a two queen bed room that overlooked the pool.  The room was clean and had a small refrigerator and microwave.  The TV had a fair number of directTV channels.The lobby is very nice with a pleasant water feature between the lobby and the sitting area with the breakfast tables.There are a few fast food restaurants and several donut shops within about 2 miles, nothing in walking distance.  Whataburger and Popeyes are about a mile or 2 down the street.A plus and a minus was the location,  to reach the hotel you have to take several streets and turns from the freeway, this was balanced by the lower amount of freeway noise.  Also the feeder roads on the freeway are currently a big mess (not the hotels fault) due to construction.Another minus was the breakfast,  very plain and the pancake maker was never on during my entire stay.Additionally, the staff never seemed to be at the front desk.  Evidently there is a tv in a back side room and they hang back there until they notice someone step up to the desk.In addition there was one minor annoyance when I noticed a credit charge for the hotel room pop up on my phone alert even though the room was prepaid.  It was corrected by a different staff member.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>Gilbert M, General Manager at Holiday Inn Express Hotel &amp; Suites Houston Northwest-Brookhollow, responded to this reviewResponded November 29, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 29, 2016</t>
+  </si>
+  <si>
+    <t>We stayed in a two queen bed room that overlooked the pool.  The room was clean and had a small refrigerator and microwave.  The TV had a fair number of directTV channels.The lobby is very nice with a pleasant water feature between the lobby and the sitting area with the breakfast tables.There are a few fast food restaurants and several donut shops within about 2 miles, nothing in walking distance.  Whataburger and Popeyes are about a mile or 2 down the street.A plus and a minus was the location,  to reach the hotel you have to take several streets and turns from the freeway, this was balanced by the lower amount of freeway noise.  Also the feeder roads on the freeway are currently a big mess (not the hotels fault) due to construction.Another minus was the breakfast,  very plain and the pancake maker was never on during my entire stay.Additionally, the staff never seemed to be at the front desk.  Evidently there is a tv in a back side room and they hang back there until they notice someone step up to the desk.In addition there was one minor annoyance when I noticed a credit charge for the hotel room pop up on my phone alert even though the room was prepaid.  It was corrected by a different staff member.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6419978-r439469825-Holiday_Inn_Express_Hotel_Suites_Houston_Northwest_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>439469825</t>
+  </si>
+  <si>
+    <t>11/23/2016</t>
+  </si>
+  <si>
+    <t>Motel overnight stay</t>
+  </si>
+  <si>
+    <t>From the  reception desk to the very clean rooms to the ample free breakfast we found this property more than excellent. we stayed two nights and have nothing but compliments for this motel. We came and went several times a day and had a great experience.MoreShow less</t>
+  </si>
+  <si>
+    <t>Gilbert M, General Manager at Holiday Inn Express Hotel &amp; Suites Houston Northwest-Brookhollow, responded to this reviewResponded November 28, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 28, 2016</t>
+  </si>
+  <si>
+    <t>From the  reception desk to the very clean rooms to the ample free breakfast we found this property more than excellent. we stayed two nights and have nothing but compliments for this motel. We came and went several times a day and had a great experience.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6419978-r436272913-Holiday_Inn_Express_Hotel_Suites_Houston_Northwest_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>436272913</t>
+  </si>
+  <si>
+    <t>11/10/2016</t>
+  </si>
+  <si>
+    <t>Great hotel - helpful staff</t>
+  </si>
+  <si>
+    <t>I travel to Houston for business a couple of times a year, and recently started staying here.  This trip I got in late, and sometime around 11-midnight finally got around to ironing business clothes for the next day.  The new iron in the room wouldn't steam, it just gushed warm water all over my shirt.  Went down to the front desk to get a new iron.  Jay &amp; Becky said they'd take care of it - they found a working iron in Housekeeping &amp; brought it up to my room a few minutes later.Besides having a great staff, the property is very nice &amp; well maintained.  Good breakfast too.Only problem with the rooms is a lack of opaque drapes.  The curtains take care of privacy, but they don't block out the lights from the pool/parking area on one side of the building.MoreShow less</t>
+  </si>
+  <si>
+    <t>Gilbert M, General Manager at Holiday Inn Express Hotel &amp; Suites Houston Northwest-Brookhollow, responded to this reviewResponded November 14, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 14, 2016</t>
+  </si>
+  <si>
+    <t>I travel to Houston for business a couple of times a year, and recently started staying here.  This trip I got in late, and sometime around 11-midnight finally got around to ironing business clothes for the next day.  The new iron in the room wouldn't steam, it just gushed warm water all over my shirt.  Went down to the front desk to get a new iron.  Jay &amp; Becky said they'd take care of it - they found a working iron in Housekeeping &amp; brought it up to my room a few minutes later.Besides having a great staff, the property is very nice &amp; well maintained.  Good breakfast too.Only problem with the rooms is a lack of opaque drapes.  The curtains take care of privacy, but they don't block out the lights from the pool/parking area on one side of the building.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6419978-r395446490-Holiday_Inn_Express_Hotel_Suites_Houston_Northwest_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>395446490</t>
+  </si>
+  <si>
+    <t>07/22/2016</t>
+  </si>
+  <si>
+    <t>Amazing stay!!</t>
+  </si>
+  <si>
+    <t>The hotel was very clean and well kept. The staff was very friendly and helpful, especially the pregnant one. Breakfast was very yummy and had a wide variety to chose from. The beds were very comfortable with a choice of soft or firm pillows. Will stay again, and looking forward to it!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>Gilbert M, General Manager at Holiday Inn Express Hotel &amp; Suites Houston Northwest-Brookhollow, responded to this reviewResponded August 2, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 2, 2016</t>
+  </si>
+  <si>
+    <t>The hotel was very clean and well kept. The staff was very friendly and helpful, especially the pregnant one. Breakfast was very yummy and had a wide variety to chose from. The beds were very comfortable with a choice of soft or firm pillows. Will stay again, and looking forward to it!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6419978-r389038750-Holiday_Inn_Express_Hotel_Suites_Houston_Northwest_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>389038750</t>
+  </si>
+  <si>
+    <t>07/04/2016</t>
+  </si>
+  <si>
+    <t>OUTSTANDING</t>
+  </si>
+  <si>
+    <t>After a tiring day tour ,finally we took a rest in this superb hotel,fine restaurant,clean rooms and a friendly personnel along with a charming outdoor view especially when on the roof:quiet atmosphereMoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Gilbert M, General Manager at Holiday Inn Express Hotel &amp; Suites Houston Northwest-Brookhollow, responded to this reviewResponded July 5, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 5, 2016</t>
+  </si>
+  <si>
+    <t>After a tiring day tour ,finally we took a rest in this superb hotel,fine restaurant,clean rooms and a friendly personnel along with a charming outdoor view especially when on the roof:quiet atmosphereMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6419978-r388870837-Holiday_Inn_Express_Hotel_Suites_Houston_Northwest_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>388870837</t>
+  </si>
+  <si>
+    <t>07/03/2016</t>
+  </si>
+  <si>
+    <t>Great stay</t>
+  </si>
+  <si>
+    <t>The hotel was very nice and the staff was friendly and helpful. The pool was clean and nice for my 5 and 9 year olds. The beds were comfortable and the room was clean and roomy.  The location was great. The hotel wasn't right down town, but it was close enough to everything we did without having to drive too far. We will definitely be staying at this hotel again!MoreShow less</t>
+  </si>
+  <si>
+    <t>The hotel was very nice and the staff was friendly and helpful. The pool was clean and nice for my 5 and 9 year olds. The beds were comfortable and the room was clean and roomy.  The location was great. The hotel wasn't right down town, but it was close enough to everything we did without having to drive too far. We will definitely be staying at this hotel again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6419978-r385220385-Holiday_Inn_Express_Hotel_Suites_Houston_Northwest_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>385220385</t>
+  </si>
+  <si>
+    <t>06/23/2016</t>
+  </si>
+  <si>
+    <t>Nice for a Downtown Houston hotel</t>
+  </si>
+  <si>
+    <t>Free parking at a downtownHouston hotel!Wonderful staff.  happy hour.  In process of replacing  furniture but present was still comfortable.  Let us check in early when a major thunderstorm was occurring.   Breakfast was typical of a Holiday Inn Express  (love the cinnamon rolls)MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>Gilbert M, General Manager at Holiday Inn Express Hotel &amp; Suites Houston Northwest-Brookhollow, responded to this reviewResponded June 24, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 24, 2016</t>
+  </si>
+  <si>
+    <t>Free parking at a downtownHouston hotel!Wonderful staff.  happy hour.  In process of replacing  furniture but present was still comfortable.  Let us check in early when a major thunderstorm was occurring.   Breakfast was typical of a Holiday Inn Express  (love the cinnamon rolls)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6419978-r382985951-Holiday_Inn_Express_Hotel_Suites_Houston_Northwest_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>382985951</t>
+  </si>
+  <si>
+    <t>06/15/2016</t>
+  </si>
+  <si>
+    <t>Close to Region 4 Education Center</t>
+  </si>
+  <si>
+    <t>This is the second time I have stayed here.  The hotel is very neat and clean and an easy drive to the Region 4 Service Center despite the horrific traffic along 290.  The breakfast choices have improved quite a bit since my last stay here.  Their signs in the dining area indicate healthier and higher protein options, and I would definitely agree to that.  The staff is very friendly and helpful.  I would not hesitate to stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Gilbert M, General Manager at Holiday Inn Express Hotel &amp; Suites Houston Northwest-Brookhollow, responded to this reviewResponded June 17, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 17, 2016</t>
+  </si>
+  <si>
+    <t>This is the second time I have stayed here.  The hotel is very neat and clean and an easy drive to the Region 4 Service Center despite the horrific traffic along 290.  The breakfast choices have improved quite a bit since my last stay here.  Their signs in the dining area indicate healthier and higher protein options, and I would definitely agree to that.  The staff is very friendly and helpful.  I would not hesitate to stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6419978-r382701138-Holiday_Inn_Express_Hotel_Suites_Houston_Northwest_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>382701138</t>
+  </si>
+  <si>
+    <t>Wonderful visit!</t>
+  </si>
+  <si>
+    <t>We had a block of rooms at the hotel for a 50th anniversary celebration and it couldn't have been a better experience. The staff were all friendly and helpful. The hotel was convenient, comfortable, and clean. The pool was great. The breakfast was generous and good. We highly recommend this hotel!MoreShow less</t>
+  </si>
+  <si>
+    <t>Gilbert M, General Manager at Holiday Inn Express Hotel &amp; Suites Houston Northwest-Brookhollow, responded to this reviewResponded June 16, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 16, 2016</t>
+  </si>
+  <si>
+    <t>We had a block of rooms at the hotel for a 50th anniversary celebration and it couldn't have been a better experience. The staff were all friendly and helpful. The hotel was convenient, comfortable, and clean. The pool was great. The breakfast was generous and good. We highly recommend this hotel!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6419978-r376137566-Holiday_Inn_Express_Hotel_Suites_Houston_Northwest_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>376137566</t>
+  </si>
+  <si>
+    <t>05/24/2016</t>
+  </si>
+  <si>
+    <t>Excellent option in Houston</t>
+  </si>
+  <si>
+    <t>Staff is excellent, complimentary breakfast is a plus. Near of mall and stores.Distance between hotel and downtown is considerable. A big part of the city is under construction specially highways and roads.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>Gilbert M, General Manager at Holiday Inn Express Hotel &amp; Suites Houston Northwest-Brookhollow, responded to this reviewResponded May 27, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 27, 2016</t>
+  </si>
+  <si>
+    <t>Staff is excellent, complimentary breakfast is a plus. Near of mall and stores.Distance between hotel and downtown is considerable. A big part of the city is under construction specially highways and roads.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6419978-r375231682-Holiday_Inn_Express_Hotel_Suites_Houston_Northwest_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>375231682</t>
+  </si>
+  <si>
+    <t>05/21/2016</t>
+  </si>
+  <si>
+    <t>Nice newer place but a bit remote</t>
+  </si>
+  <si>
+    <t>A newer Holiday Inn Express that's clean, comfortable and quiet with a friendly staff. However, it's a bit removed from restaurants and other things so you definitely need a car to get to anywhere to do anything.MoreShow less</t>
+  </si>
+  <si>
+    <t>Gilbert M, General Manager at Holiday Inn Express Hotel &amp; Suites Houston Northwest-Brookhollow, responded to this reviewResponded May 24, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 24, 2016</t>
+  </si>
+  <si>
+    <t>A newer Holiday Inn Express that's clean, comfortable and quiet with a friendly staff. However, it's a bit removed from restaurants and other things so you definitely need a car to get to anywhere to do anything.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6419978-r374205522-Holiday_Inn_Express_Hotel_Suites_Houston_Northwest_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>374205522</t>
+  </si>
+  <si>
+    <t>05/18/2016</t>
+  </si>
+  <si>
+    <t>Great Value</t>
+  </si>
+  <si>
+    <t>Great value for the price we paid and not too far from city center. Hotel is fairly new, room was clean and modern.. Free breakfast had a decent selection.Traffic can be bad due to construction in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>Gilbert M, General Manager at Holiday Inn Express Hotel &amp; Suites Houston Northwest-Brookhollow, responded to this reviewResponded May 20, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 20, 2016</t>
+  </si>
+  <si>
+    <t>Great value for the price we paid and not too far from city center. Hotel is fairly new, room was clean and modern.. Free breakfast had a decent selection.Traffic can be bad due to construction in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6419978-r367996045-Holiday_Inn_Express_Hotel_Suites_Houston_Northwest_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>367996045</t>
+  </si>
+  <si>
+    <t>04/26/2016</t>
+  </si>
+  <si>
+    <t>Excellent Customer Service</t>
+  </si>
+  <si>
+    <t>I stayed here recently after my house flooded to get a good night's rest before a state board exam. The hotel looks brand new. Everything was super clean and comfortable. The WiFi was fast. No complaints about the hotel or the staff. Unfortunately, because of the flooding there was also a huge group of contractors staying there, unbeknownst to me. They got back to the hotel after work around 10:30 PM, a good hour after I went to sleep. It's not like they were partying, but the noise they made kept me up off and on until midnight. I made a couple phone calls downstairs and the front desk people were as helpful as possible. They said the only thing they could do next would be to remove the men and I didn't want to do that so I just put pillows over my head and tried to sleep. I spoke to the manager the next day. He was very understanding and apologetic. He made it right though and that's what counts. Next time I will ask for a room far away from all other people. I should have in the first place.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>Gilbert M, General Manager at Holiday Inn Express Hotel &amp; Suites Houston Northwest-Brookhollow, responded to this reviewResponded May 12, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 12, 2016</t>
+  </si>
+  <si>
+    <t>I stayed here recently after my house flooded to get a good night's rest before a state board exam. The hotel looks brand new. Everything was super clean and comfortable. The WiFi was fast. No complaints about the hotel or the staff. Unfortunately, because of the flooding there was also a huge group of contractors staying there, unbeknownst to me. They got back to the hotel after work around 10:30 PM, a good hour after I went to sleep. It's not like they were partying, but the noise they made kept me up off and on until midnight. I made a couple phone calls downstairs and the front desk people were as helpful as possible. They said the only thing they could do next would be to remove the men and I didn't want to do that so I just put pillows over my head and tried to sleep. I spoke to the manager the next day. He was very understanding and apologetic. He made it right though and that's what counts. Next time I will ask for a room far away from all other people. I should have in the first place.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6419978-r363772519-Holiday_Inn_Express_Hotel_Suites_Houston_Northwest_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>363772519</t>
+  </si>
+  <si>
+    <t>04/12/2016</t>
+  </si>
+  <si>
+    <t>Off the beaten path with economical quality</t>
+  </si>
+  <si>
+    <t>Updated Hotel in the Hempstead Business district,  I was very impressed with the quality of the bedding, comfy.Really decent breakfast on the cheap (free) with plenty of protein Pricing is decent, we will come back on our next trip.MoreShow less</t>
+  </si>
+  <si>
+    <t>Gilbert M, General Manager at Holiday Inn Express Hotel &amp; Suites Houston Northwest-Brookhollow, responded to this reviewResponded April 14, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 14, 2016</t>
+  </si>
+  <si>
+    <t>Updated Hotel in the Hempstead Business district,  I was very impressed with the quality of the bedding, comfy.Really decent breakfast on the cheap (free) with plenty of protein Pricing is decent, we will come back on our next trip.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6419978-r363211769-Holiday_Inn_Express_Hotel_Suites_Houston_Northwest_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>363211769</t>
+  </si>
+  <si>
+    <t>04/10/2016</t>
+  </si>
+  <si>
+    <t>What I expected</t>
+  </si>
+  <si>
+    <t>the room was clean, staff friendly, relatively quiet.  HIE typical breakfast was well stocked ( can't resist getting a cinnamon roll). The bed squeaked a bit but overall very happy with my overnight stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>Gilbert M, General Manager at Holiday Inn Express Hotel &amp; Suites Houston Northwest-Brookhollow, responded to this reviewResponded April 12, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 12, 2016</t>
+  </si>
+  <si>
+    <t>the room was clean, staff friendly, relatively quiet.  HIE typical breakfast was well stocked ( can't resist getting a cinnamon roll). The bed squeaked a bit but overall very happy with my overnight stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6419978-r359146938-Holiday_Inn_Express_Hotel_Suites_Houston_Northwest_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>359146938</t>
+  </si>
+  <si>
+    <t>03/27/2016</t>
+  </si>
+  <si>
+    <t>Relaxing Stay</t>
+  </si>
+  <si>
+    <t>First of all I should note that this Holiday Inn is fairly new and very clean. Although there is street construction (always annoying) going on nearby, the hotel is conveniently located to freeway access and restaurants. Other entertainment options are fairly easy to get to as well. 
+As far as the hotel itself, the usual amenities (pool, flat screen TV with cable) are available when you're not out and about and have downtime. I didn't use the pool since it wasn't swim weather during my stay so that's as much as I'll say. The hotel also offers complementary toiletries in case you forget something. I didn't need the service myself but nice to know it's there. 
+Complementary breakfast is also offered. However what surprised me was not the free breakfast but the type of breakfast for this class of hotel. Instead of a waffle maker, they have a new type of instant pancake maker which only requires a push of a button. There was also eggs, bacon and even turkey sausage! In addition to the core offerings, was the standard cereal and fruit. The meals were well-balanced overall and I have to give them a A+ on this one.
+The con of my stay was when housekeeping seemed to forget to clean the room on one of the days. I notified the front desk and it was rectified pretty quickly. Wi-Fi is also good until the hotel fills up and...First of all I should note that this Holiday Inn is fairly new and very clean. Although there is street construction (always annoying) going on nearby, the hotel is conveniently located to freeway access and restaurants. Other entertainment options are fairly easy to get to as well. As far as the hotel itself, the usual amenities (pool, flat screen TV with cable) are available when you're not out and about and have downtime. I didn't use the pool since it wasn't swim weather during my stay so that's as much as I'll say. The hotel also offers complementary toiletries in case you forget something. I didn't need the service myself but nice to know it's there. Complementary breakfast is also offered. However what surprised me was not the free breakfast but the type of breakfast for this class of hotel. Instead of a waffle maker, they have a new type of instant pancake maker which only requires a push of a button. There was also eggs, bacon and even turkey sausage! In addition to the core offerings, was the standard cereal and fruit. The meals were well-balanced overall and I have to give them a A+ on this one.The con of my stay was when housekeeping seemed to forget to clean the room on one of the days. I notified the front desk and it was rectified pretty quickly. Wi-Fi is also good until the hotel fills up and more people start using it but I can't really hold that against them since that's how the technology works. However overall, this place is a winner if you happen to be in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>Gilbert M, General Manager at Holiday Inn Express Hotel &amp; Suites Houston Northwest-Brookhollow, responded to this reviewResponded March 29, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 29, 2016</t>
+  </si>
+  <si>
+    <t>First of all I should note that this Holiday Inn is fairly new and very clean. Although there is street construction (always annoying) going on nearby, the hotel is conveniently located to freeway access and restaurants. Other entertainment options are fairly easy to get to as well. 
+As far as the hotel itself, the usual amenities (pool, flat screen TV with cable) are available when you're not out and about and have downtime. I didn't use the pool since it wasn't swim weather during my stay so that's as much as I'll say. The hotel also offers complementary toiletries in case you forget something. I didn't need the service myself but nice to know it's there. 
+Complementary breakfast is also offered. However what surprised me was not the free breakfast but the type of breakfast for this class of hotel. Instead of a waffle maker, they have a new type of instant pancake maker which only requires a push of a button. There was also eggs, bacon and even turkey sausage! In addition to the core offerings, was the standard cereal and fruit. The meals were well-balanced overall and I have to give them a A+ on this one.
+The con of my stay was when housekeeping seemed to forget to clean the room on one of the days. I notified the front desk and it was rectified pretty quickly. Wi-Fi is also good until the hotel fills up and...First of all I should note that this Holiday Inn is fairly new and very clean. Although there is street construction (always annoying) going on nearby, the hotel is conveniently located to freeway access and restaurants. Other entertainment options are fairly easy to get to as well. As far as the hotel itself, the usual amenities (pool, flat screen TV with cable) are available when you're not out and about and have downtime. I didn't use the pool since it wasn't swim weather during my stay so that's as much as I'll say. The hotel also offers complementary toiletries in case you forget something. I didn't need the service myself but nice to know it's there. Complementary breakfast is also offered. However what surprised me was not the free breakfast but the type of breakfast for this class of hotel. Instead of a waffle maker, they have a new type of instant pancake maker which only requires a push of a button. There was also eggs, bacon and even turkey sausage! In addition to the core offerings, was the standard cereal and fruit. The meals were well-balanced overall and I have to give them a A+ on this one.The con of my stay was when housekeeping seemed to forget to clean the room on one of the days. I notified the front desk and it was rectified pretty quickly. Wi-Fi is also good until the hotel fills up and more people start using it but I can't really hold that against them since that's how the technology works. However overall, this place is a winner if you happen to be in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6419978-r356164475-Holiday_Inn_Express_Hotel_Suites_Houston_Northwest_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>356164475</t>
+  </si>
+  <si>
+    <t>03/16/2016</t>
+  </si>
+  <si>
+    <t>Great staff and rooms</t>
+  </si>
+  <si>
+    <t>This is a great place to stay on 290. Much better than the old location, close to everything. Nice pool area, nice place to relax after work. Staff was great, even commented the morning I was checking out, that I finally had a chance to sleep in. Had to be at work at 4am. Will definitley stay here againMoreShow less</t>
+  </si>
+  <si>
+    <t>Gilbert M, General Manager at Holiday Inn Express Hotel &amp; Suites Houston Northwest-Brookhollow, responded to this reviewResponded March 18, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 18, 2016</t>
+  </si>
+  <si>
+    <t>This is a great place to stay on 290. Much better than the old location, close to everything. Nice pool area, nice place to relax after work. Staff was great, even commented the morning I was checking out, that I finally had a chance to sleep in. Had to be at work at 4am. Will definitley stay here againMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6419978-r353449477-Holiday_Inn_Express_Hotel_Suites_Houston_Northwest_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>353449477</t>
+  </si>
+  <si>
+    <t>03/06/2016</t>
+  </si>
+  <si>
+    <t>Comfortable Stay</t>
+  </si>
+  <si>
+    <t>The hotel was nice and kept up. Very comfortable room. Even though the room I booked wasnt ready for me when I got there (4:00pm), they found me another room that was ready. That would be the only bad thing I would say about the hotel if I would have had to wait for a room. MoreShow less</t>
+  </si>
+  <si>
+    <t>Gilbert M, General Manager at Holiday Inn Express Hotel &amp; Suites Houston Northwest-Brookhollow, responded to this reviewResponded March 7, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 7, 2016</t>
+  </si>
+  <si>
+    <t>The hotel was nice and kept up. Very comfortable room. Even though the room I booked wasnt ready for me when I got there (4:00pm), they found me another room that was ready. That would be the only bad thing I would say about the hotel if I would have had to wait for a room. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6419978-r351115788-Holiday_Inn_Express_Hotel_Suites_Houston_Northwest_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>351115788</t>
+  </si>
+  <si>
+    <t>02/26/2016</t>
+  </si>
+  <si>
+    <t>Just one thing....</t>
+  </si>
+  <si>
+    <t>My only complaint would be the noise. The room was not very sound-proof. The doors were quite loud, and people had a tendency of slamming them shut. Even walking down the hall, you can kind of hear if someone has their TV on, as well as your neighbor next door. I could also hear the guest above me walking around. OTHERWISE, it is clearly a new hotel- clean, updated. Friendly staff as well.MoreShow less</t>
+  </si>
+  <si>
+    <t>Gilbert M, General Manager at Holiday Inn Express Hotel &amp; Suites Houston Northwest-Brookhollow, responded to this reviewResponded February 29, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 29, 2016</t>
+  </si>
+  <si>
+    <t>My only complaint would be the noise. The room was not very sound-proof. The doors were quite loud, and people had a tendency of slamming them shut. Even walking down the hall, you can kind of hear if someone has their TV on, as well as your neighbor next door. I could also hear the guest above me walking around. OTHERWISE, it is clearly a new hotel- clean, updated. Friendly staff as well.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6419978-r351088087-Holiday_Inn_Express_Hotel_Suites_Houston_Northwest_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>351088087</t>
+  </si>
+  <si>
+    <t>GREAT STAY</t>
+  </si>
+  <si>
+    <t>This was my second stay at this location and the front desk always greets with a smile!!!  The beds are out of this world comfortable and decent breakfast spread!!!  I plan to continue to book the rest of my business trips here as long as I'm in Houston!!! MoreShow less</t>
+  </si>
+  <si>
+    <t>Gilbert M, General Manager at Holiday Inn Express Hotel &amp; Suites Houston Northwest-Brookhollow, responded to this reviewResponded March 9, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 9, 2016</t>
+  </si>
+  <si>
+    <t>This was my second stay at this location and the front desk always greets with a smile!!!  The beds are out of this world comfortable and decent breakfast spread!!!  I plan to continue to book the rest of my business trips here as long as I'm in Houston!!! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6419978-r350718720-Holiday_Inn_Express_Hotel_Suites_Houston_Northwest_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>350718720</t>
+  </si>
+  <si>
+    <t>02/24/2016</t>
+  </si>
+  <si>
+    <t>Birthday Trip</t>
+  </si>
+  <si>
+    <t>My family enjoyed this hotel for a little weekend getaway. The room was clean and comfy.  I also enjoyed the complimentary breakfast.... especially the pancake maker. Would definitely stay here again!!MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>My family enjoyed this hotel for a little weekend getaway. The room was clean and comfy.  I also enjoyed the complimentary breakfast.... especially the pancake maker. Would definitely stay here again!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6419978-r340584938-Holiday_Inn_Express_Hotel_Suites_Houston_Northwest_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>340584938</t>
+  </si>
+  <si>
+    <t>01/16/2016</t>
+  </si>
+  <si>
+    <t>New, clean inexpensive</t>
+  </si>
+  <si>
+    <t>Caroline was very helpful with local knowledge. There is road construction but please do not let this detour you from a very clean, comfortable bed, fitness center sparce but sufficient, hot breakfast , inexpensive sleep.MoreShow less</t>
+  </si>
+  <si>
+    <t>Gilbert M, General Manager at Holiday Inn Express Hotel &amp; Suites Houston Northwest-Brookhollow, responded to this reviewResponded January 18, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 18, 2016</t>
+  </si>
+  <si>
+    <t>Caroline was very helpful with local knowledge. There is road construction but please do not let this detour you from a very clean, comfortable bed, fitness center sparce but sufficient, hot breakfast , inexpensive sleep.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6419978-r339881375-Holiday_Inn_Express_Hotel_Suites_Houston_Northwest_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>339881375</t>
+  </si>
+  <si>
+    <t>01/14/2016</t>
+  </si>
+  <si>
+    <t>Highly recommend, great value</t>
+  </si>
+  <si>
+    <t>I used to be in the travel industry staying in hotels at least 3 times a week.  Also, we stayed at this hotel for a month so we got to know the hotel good and bad.  First the bad, and to be honest I really have no complaints.  The walls/floors were a bit thin but all hotels suffer from this ailment to some degree.  The good, first I must compliment the staff.  Everyone was always friendly and helpful, I never ran across anyone having a bad day and showing it.  The hotel offers a free breakfast daily which served us well.  Everything was always fresh and they were never out of anything that we experienced in 30 days.  They have a small fitness room which includes a treadmill, eliptical machine and bike.  It also had an assortment of dumbells, universal gym and medicine balls.  The big however is, however, they offer a free pass to the lifetime fitness gym about 10min drive away.  You have to fill out a liability waiver each time you use the gym but its worth it.  The Lifetime staff I encountered were friendly and helpful, as if they wanted you there.  The hotel itself is fairly new so it is clean and well kept.  There is a BBQ restaurant next door that we ate at a few times and have no complaints.  The hotel is on FM1960 which provides easy access to everything close by....I used to be in the travel industry staying in hotels at least 3 times a week.  Also, we stayed at this hotel for a month so we got to know the hotel good and bad.  First the bad, and to be honest I really have no complaints.  The walls/floors were a bit thin but all hotels suffer from this ailment to some degree.  The good, first I must compliment the staff.  Everyone was always friendly and helpful, I never ran across anyone having a bad day and showing it.  The hotel offers a free breakfast daily which served us well.  Everything was always fresh and they were never out of anything that we experienced in 30 days.  They have a small fitness room which includes a treadmill, eliptical machine and bike.  It also had an assortment of dumbells, universal gym and medicine balls.  The big however is, however, they offer a free pass to the lifetime fitness gym about 10min drive away.  You have to fill out a liability waiver each time you use the gym but its worth it.  The Lifetime staff I encountered were friendly and helpful, as if they wanted you there.  The hotel itself is fairly new so it is clean and well kept.  There is a BBQ restaurant next door that we ate at a few times and have no complaints.  The hotel is on FM1960 which provides easy access to everything close by.  We did stay in a room towards the back of the hotel and never heard a car.  Im not sure if the rooms closer to the road would be subject to much noise but I doubt it.  The outdoor saltwater pool and hot tub were always clean and maintained.  We used both several times even in December.  I cannot recommend this place enough.  We received a discounted rate for the length of time we were there.  I believe they offer a weekly rate as well but not sure.  I would have been satisfied paying the normal rate.  We have stayed at a few Holiday express properties since our stay here and while there is brand unity, this place has set the bar high.  We have not experienced the same level of satisfaction this hotel provided.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>Gilbert M, General Manager at Holiday Inn Express Hotel &amp; Suites Houston Northwest-Brookhollow, responded to this reviewResponded January 15, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 15, 2016</t>
+  </si>
+  <si>
+    <t>I used to be in the travel industry staying in hotels at least 3 times a week.  Also, we stayed at this hotel for a month so we got to know the hotel good and bad.  First the bad, and to be honest I really have no complaints.  The walls/floors were a bit thin but all hotels suffer from this ailment to some degree.  The good, first I must compliment the staff.  Everyone was always friendly and helpful, I never ran across anyone having a bad day and showing it.  The hotel offers a free breakfast daily which served us well.  Everything was always fresh and they were never out of anything that we experienced in 30 days.  They have a small fitness room which includes a treadmill, eliptical machine and bike.  It also had an assortment of dumbells, universal gym and medicine balls.  The big however is, however, they offer a free pass to the lifetime fitness gym about 10min drive away.  You have to fill out a liability waiver each time you use the gym but its worth it.  The Lifetime staff I encountered were friendly and helpful, as if they wanted you there.  The hotel itself is fairly new so it is clean and well kept.  There is a BBQ restaurant next door that we ate at a few times and have no complaints.  The hotel is on FM1960 which provides easy access to everything close by....I used to be in the travel industry staying in hotels at least 3 times a week.  Also, we stayed at this hotel for a month so we got to know the hotel good and bad.  First the bad, and to be honest I really have no complaints.  The walls/floors were a bit thin but all hotels suffer from this ailment to some degree.  The good, first I must compliment the staff.  Everyone was always friendly and helpful, I never ran across anyone having a bad day and showing it.  The hotel offers a free breakfast daily which served us well.  Everything was always fresh and they were never out of anything that we experienced in 30 days.  They have a small fitness room which includes a treadmill, eliptical machine and bike.  It also had an assortment of dumbells, universal gym and medicine balls.  The big however is, however, they offer a free pass to the lifetime fitness gym about 10min drive away.  You have to fill out a liability waiver each time you use the gym but its worth it.  The Lifetime staff I encountered were friendly and helpful, as if they wanted you there.  The hotel itself is fairly new so it is clean and well kept.  There is a BBQ restaurant next door that we ate at a few times and have no complaints.  The hotel is on FM1960 which provides easy access to everything close by.  We did stay in a room towards the back of the hotel and never heard a car.  Im not sure if the rooms closer to the road would be subject to much noise but I doubt it.  The outdoor saltwater pool and hot tub were always clean and maintained.  We used both several times even in December.  I cannot recommend this place enough.  We received a discounted rate for the length of time we were there.  I believe they offer a weekly rate as well but not sure.  I would have been satisfied paying the normal rate.  We have stayed at a few Holiday express properties since our stay here and while there is brand unity, this place has set the bar high.  We have not experienced the same level of satisfaction this hotel provided.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6419978-r338518650-Holiday_Inn_Express_Hotel_Suites_Houston_Northwest_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>338518650</t>
+  </si>
+  <si>
+    <t>01/08/2016</t>
+  </si>
+  <si>
+    <t>Great stay !!</t>
+  </si>
+  <si>
+    <t>The rooms were very clean. The staff very pleasant and helpful.  Dianne the breakfast lady went above and beyond in ensuring our daughter had gluten-free bread available.  On Christmas Day she was cooking up made-to-order omelets for everyone.  We will definitely stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Gilbert M, General Manager at Holiday Inn Express Hotel &amp; Suites Houston Northwest-Brookhollow, responded to this reviewResponded January 10, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 10, 2016</t>
+  </si>
+  <si>
+    <t>The rooms were very clean. The staff very pleasant and helpful.  Dianne the breakfast lady went above and beyond in ensuring our daughter had gluten-free bread available.  On Christmas Day she was cooking up made-to-order omelets for everyone.  We will definitely stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6419978-r332772280-Holiday_Inn_Express_Hotel_Suites_Houston_Northwest_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>332772280</t>
+  </si>
+  <si>
+    <t>12/14/2015</t>
+  </si>
+  <si>
+    <t>Very clean, pleasant staff and great rates. Very impressed!!!!</t>
+  </si>
+  <si>
+    <t>Close to freeway, lots of places to eat. Good breakfast food. It was nice and very clean from the beds to the restroom. Definitely recommend  this hotel. Very clean and professional  staff. Was impressed with the great rate we received. Never heard any other neighbors. Very quiet  and parking  was plentiful.MoreShow less</t>
+  </si>
+  <si>
+    <t>Gilbert M, General Manager at Holiday Inn Express Hotel &amp; Suites Houston Northwest-Brookhollow, responded to this reviewResponded December 16, 2015</t>
+  </si>
+  <si>
+    <t>Responded December 16, 2015</t>
+  </si>
+  <si>
+    <t>Close to freeway, lots of places to eat. Good breakfast food. It was nice and very clean from the beds to the restroom. Definitely recommend  this hotel. Very clean and professional  staff. Was impressed with the great rate we received. Never heard any other neighbors. Very quiet  and parking  was plentiful.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6419978-r331068593-Holiday_Inn_Express_Hotel_Suites_Houston_Northwest_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>331068593</t>
+  </si>
+  <si>
+    <t>12/06/2015</t>
+  </si>
+  <si>
+    <t>Great value!</t>
+  </si>
+  <si>
+    <t>We came to Houston for a family wedding. The bride booked a group of rooms for out of town guests.The king room was very clean and well decorated. The staff was very accommodating. We would definitely come back. This was a great place to stay for the price.MoreShow less</t>
+  </si>
+  <si>
+    <t>Gilbert M, General Manager at Holiday Inn Express Hotel &amp; Suites Houston Northwest-Brookhollow, responded to this reviewResponded December 7, 2015</t>
+  </si>
+  <si>
+    <t>Responded December 7, 2015</t>
+  </si>
+  <si>
+    <t>We came to Houston for a family wedding. The bride booked a group of rooms for out of town guests.The king room was very clean and well decorated. The staff was very accommodating. We would definitely come back. This was a great place to stay for the price.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6419978-r330737673-Holiday_Inn_Express_Hotel_Suites_Houston_Northwest_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>330737673</t>
+  </si>
+  <si>
+    <t>12/04/2015</t>
+  </si>
+  <si>
+    <t>Clean hotel</t>
+  </si>
+  <si>
+    <t>Check-in was smooth, room was clean and the breakfast was decent. Overall no complaints. TV didn't work but we didn't care about it. Someone spilled liquid in the elevator but they cleaned it as soon as i reported.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>Check-in was smooth, room was clean and the breakfast was decent. Overall no complaints. TV didn't work but we didn't care about it. Someone spilled liquid in the elevator but they cleaned it as soon as i reported.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6419978-r326756614-Holiday_Inn_Express_Hotel_Suites_Houston_Northwest_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>326756614</t>
+  </si>
+  <si>
+    <t>11/14/2015</t>
+  </si>
+  <si>
+    <t>Nice stay</t>
+  </si>
+  <si>
+    <t>The staff of Holiday Inn Westchase in Houston is awesome, they make you feel very comfortable. Rooms have good area. You can find cool places around and others on pretty close. The restaurant menu has god choices in which I tge ribs I like tge mostMoreShow less</t>
+  </si>
+  <si>
+    <t>Gilbert M, General Manager at Holiday Inn Express Hotel &amp; Suites Houston Northwest-Brookhollow, responded to this reviewResponded November 16, 2015</t>
+  </si>
+  <si>
+    <t>Responded November 16, 2015</t>
+  </si>
+  <si>
+    <t>The staff of Holiday Inn Westchase in Houston is awesome, they make you feel very comfortable. Rooms have good area. You can find cool places around and others on pretty close. The restaurant menu has god choices in which I tge ribs I like tge mostMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6419978-r326677937-Holiday_Inn_Express_Hotel_Suites_Houston_Northwest_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>326677937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loved this place! </t>
+  </si>
+  <si>
+    <t>We enjoyed our stay here! The bed was awesome and the breakfast was fabulous! Staff was great! Rooms are gorgeous. Parking lot was lit up and felt secure! Would definitely stay here again - many times over! Second best hotel we have ever stayed in. Rates were reasonable as well. MoreShow less</t>
+  </si>
+  <si>
+    <t>We enjoyed our stay here! The bed was awesome and the breakfast was fabulous! Staff was great! Rooms are gorgeous. Parking lot was lit up and felt secure! Would definitely stay here again - many times over! Second best hotel we have ever stayed in. Rates were reasonable as well. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6419978-r322792488-Holiday_Inn_Express_Hotel_Suites_Houston_Northwest_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>322792488</t>
+  </si>
+  <si>
+    <t>10/28/2015</t>
+  </si>
+  <si>
+    <t>I can't hold this hotel responsible for the roads</t>
+  </si>
+  <si>
+    <t>Please allow me to begin by saying the roads around this hotel SUCK!  With that being said, this hotel was not that bad.  If you had to settle for a hotel within Federal per diem, this would be a good hotel to settle on.  The people that worked there were very nice and personable and the room was okay. But where this hotel rally shined was in its location.  There were multiple restaurants (you could eat at a different restaurant each night of a five (5) day trip), stores (the travelers staples; Wallymart, Target, Best Buy) within a couple miles and the gym (I use LA Fitness) was less than 5 min away.  While it was not the best, it was a good place to settle.MoreShow less</t>
+  </si>
+  <si>
+    <t>Gilbert M, General Manager at Holiday Inn Express Hotel &amp; Suites Houston Northwest-Brookhollow, responded to this reviewResponded October 30, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 30, 2015</t>
+  </si>
+  <si>
+    <t>Please allow me to begin by saying the roads around this hotel SUCK!  With that being said, this hotel was not that bad.  If you had to settle for a hotel within Federal per diem, this would be a good hotel to settle on.  The people that worked there were very nice and personable and the room was okay. But where this hotel rally shined was in its location.  There were multiple restaurants (you could eat at a different restaurant each night of a five (5) day trip), stores (the travelers staples; Wallymart, Target, Best Buy) within a couple miles and the gym (I use LA Fitness) was less than 5 min away.  While it was not the best, it was a good place to settle.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6419978-r316594812-Holiday_Inn_Express_Hotel_Suites_Houston_Northwest_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>316594812</t>
+  </si>
+  <si>
+    <t>10/06/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Awesome hotel n staff </t>
+  </si>
+  <si>
+    <t>Great hotel to stay in. Very quiet, staff was so wonderful. Kudos to Andy for being a great host. Located in a secluded area. Not much traffic to worry about. Very clean hotel. We slept in so we didn't have breakfast but was informed it was a hot breakfast. Really enjoyed our stay and great price for size room we had. Will stay again if ever in area. MoreShow less</t>
+  </si>
+  <si>
+    <t>Gilbert M, General Manager at Holiday Inn Express Hotel &amp; Suites Houston Northwest-Brookhollow, responded to this reviewResponded October 7, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 7, 2015</t>
+  </si>
+  <si>
+    <t>Great hotel to stay in. Very quiet, staff was so wonderful. Kudos to Andy for being a great host. Located in a secluded area. Not much traffic to worry about. Very clean hotel. We slept in so we didn't have breakfast but was informed it was a hot breakfast. Really enjoyed our stay and great price for size room we had. Will stay again if ever in area. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6419978-r312063540-Holiday_Inn_Express_Hotel_Suites_Houston_Northwest_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>312063540</t>
+  </si>
+  <si>
+    <t>09/20/2015</t>
+  </si>
+  <si>
+    <t>excellent location</t>
+  </si>
+  <si>
+    <t>location of this hotel is very convenient , perfect for those coming to Houston for business and leisure, very polite and professionals staffs who are always available for any help. rooms were clean and well maintained.MoreShow less</t>
+  </si>
+  <si>
+    <t>Gilbert M, General Manager at Holiday Inn Express Hotel &amp; Suites Houston Northwest-Brookhollow, responded to this reviewResponded September 23, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 23, 2015</t>
+  </si>
+  <si>
+    <t>location of this hotel is very convenient , perfect for those coming to Houston for business and leisure, very polite and professionals staffs who are always available for any help. rooms were clean and well maintained.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6419978-r310577010-Holiday_Inn_Express_Hotel_Suites_Houston_Northwest_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>310577010</t>
+  </si>
+  <si>
+    <t>09/15/2015</t>
+  </si>
+  <si>
+    <t>"Family Getaway"</t>
+  </si>
+  <si>
+    <t>Upon arrival i was greeted by a very nice man name Leslie,who was very helpful with   directions on getting us to the Hotel ,the Hotel room are very nice my kids enjoyed the pool,Excellent hotel, easy to find, central, quite. Room was better than expected  clean and attention to detail was excellent. Will definitely stay there again and highly recommended.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>Gilbert M, General Manager at Holiday Inn Express Hotel &amp; Suites Houston Northwest-Brookhollow, responded to this reviewResponded September 16, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 16, 2015</t>
+  </si>
+  <si>
+    <t>Upon arrival i was greeted by a very nice man name Leslie,who was very helpful with   directions on getting us to the Hotel ,the Hotel room are very nice my kids enjoyed the pool,Excellent hotel, easy to find, central, quite. Room was better than expected  clean and attention to detail was excellent. Will definitely stay there again and highly recommended.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6419978-r303072453-Holiday_Inn_Express_Hotel_Suites_Houston_Northwest_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>303072453</t>
+  </si>
+  <si>
+    <t>08/24/2015</t>
+  </si>
+  <si>
+    <t>Wonderful experience</t>
+  </si>
+  <si>
+    <t>The best stay ever in the United States. The lobby looks like a five star hotel. Great room, comfy beds, beautiful bathroom and strong Wifi. The breakfast service was is pretty good as well. Good thing to have is to make the TV remote more user friendlyMoreShow less</t>
+  </si>
+  <si>
+    <t>Gilbert M, General Manager at Holiday Inn Express Hotel &amp; Suites Houston Northwest-Brookhollow, responded to this reviewResponded August 25, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 25, 2015</t>
+  </si>
+  <si>
+    <t>The best stay ever in the United States. The lobby looks like a five star hotel. Great room, comfy beds, beautiful bathroom and strong Wifi. The breakfast service was is pretty good as well. Good thing to have is to make the TV remote more user friendlyMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6419978-r302629602-Holiday_Inn_Express_Hotel_Suites_Houston_Northwest_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>302629602</t>
+  </si>
+  <si>
+    <t>08/23/2015</t>
+  </si>
+  <si>
+    <t>Perfect</t>
+  </si>
+  <si>
+    <t>Pros: clean, spacious rooms, contemporary look, super staffWhen I saw in the pictures how much ceramic tile there was, I was a little concerned that it might have a cold feeling to it. Not so. There is a lot more tile than carpet in the lobby and guest rooms, and I preferred that over the old fashioned carpet which gets dirty and stinky in now time. Sales Manager Seth Harris worked out a corporate rate with me and was a pleasure to meet in person. The whole staff beams with positive energy at the end of a busy day. Jay at the reception desk set me up with a cab for my ride to the airport the next morning. Friendly, swift, reliable.Cons: I stayed for two nights and didn't encounter any. MoreShow less</t>
+  </si>
+  <si>
+    <t>Gilbert M, General Manager at Holiday Inn Express Hotel &amp; Suites Houston Northwest-Brookhollow, responded to this reviewResponded August 24, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 24, 2015</t>
+  </si>
+  <si>
+    <t>Pros: clean, spacious rooms, contemporary look, super staffWhen I saw in the pictures how much ceramic tile there was, I was a little concerned that it might have a cold feeling to it. Not so. There is a lot more tile than carpet in the lobby and guest rooms, and I preferred that over the old fashioned carpet which gets dirty and stinky in now time. Sales Manager Seth Harris worked out a corporate rate with me and was a pleasure to meet in person. The whole staff beams with positive energy at the end of a busy day. Jay at the reception desk set me up with a cab for my ride to the airport the next morning. Friendly, swift, reliable.Cons: I stayed for two nights and didn't encounter any. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6419978-r301310785-Holiday_Inn_Express_Hotel_Suites_Houston_Northwest_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>301310785</t>
+  </si>
+  <si>
+    <t>08/19/2015</t>
+  </si>
+  <si>
+    <t>Good vacation</t>
+  </si>
+  <si>
+    <t>This is my second time staying here and I just love it the staff is wonderful I'm always greeted as soon as I enter the building even if there with a customer I appreciate it so much I cancelled my last hotel because I wanted to stay here better experienceMoreShow less</t>
+  </si>
+  <si>
+    <t>Gilbert M, General Manager at Holiday Inn Express Hotel &amp; Suites Houston Northwest-Brookhollow, responded to this reviewResponded August 20, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 20, 2015</t>
+  </si>
+  <si>
+    <t>This is my second time staying here and I just love it the staff is wonderful I'm always greeted as soon as I enter the building even if there with a customer I appreciate it so much I cancelled my last hotel because I wanted to stay here better experienceMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6419978-r299709752-Holiday_Inn_Express_Hotel_Suites_Houston_Northwest_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>299709752</t>
+  </si>
+  <si>
+    <t>08/15/2015</t>
+  </si>
+  <si>
+    <t>Quick Overnight</t>
+  </si>
+  <si>
+    <t>We found ourselves  needing to stay overnight in Houston that wasn't too far from the museums and 45.  There was a bit of construction but it was worth it.  The hotel looked new, it was quiet, all the staff was helpful and cared about my visit, Andy was very helpful.  It is hard to find a nice clean hotel for under $100 and this was as nice as they come.  The beds were comfy and they had guest laundry that was a good price and very convenient.  Thank you.MoreShow less</t>
+  </si>
+  <si>
+    <t>Gilbert M, General Manager at Holiday Inn Express Hotel &amp; Suites Houston Northwest-Brookhollow, responded to this reviewResponded August 17, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 17, 2015</t>
+  </si>
+  <si>
+    <t>We found ourselves  needing to stay overnight in Houston that wasn't too far from the museums and 45.  There was a bit of construction but it was worth it.  The hotel looked new, it was quiet, all the staff was helpful and cared about my visit, Andy was very helpful.  It is hard to find a nice clean hotel for under $100 and this was as nice as they come.  The beds were comfy and they had guest laundry that was a good price and very convenient.  Thank you.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6419978-r298023745-Holiday_Inn_Express_Hotel_Suites_Houston_Northwest_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>298023745</t>
+  </si>
+  <si>
+    <t>08/11/2015</t>
+  </si>
+  <si>
+    <t>Vacation</t>
+  </si>
+  <si>
+    <t>Had a wonderful stay on August 7-9, 2015. Hotel was very clean and Andy was friendly. The rooms were nice and had a microwave which was a extra bonus. Pool and spa was clean and relaxing and the breakfast was good with lots of different things to choose from  MoreShow less</t>
+  </si>
+  <si>
+    <t>Gilbert M, General Manager at Holiday Inn Express Hotel &amp; Suites Houston Northwest-Brookhollow, responded to this reviewResponded August 12, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 12, 2015</t>
+  </si>
+  <si>
+    <t>Had a wonderful stay on August 7-9, 2015. Hotel was very clean and Andy was friendly. The rooms were nice and had a microwave which was a extra bonus. Pool and spa was clean and relaxing and the breakfast was good with lots of different things to choose from  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6419978-r294742354-Holiday_Inn_Express_Hotel_Suites_Houston_Northwest_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>294742354</t>
+  </si>
+  <si>
+    <t>08/01/2015</t>
+  </si>
+  <si>
+    <t>My stay</t>
+  </si>
+  <si>
+    <t>This was a great last minute deal. The hotel is very clean, and the room was great. Good size, nice TV, like the small fridge in the entertainment stand. Bed was comfortable and overall I was very pleased. Breakfast in the morning was tasty as well! MoreShow less</t>
+  </si>
+  <si>
+    <t>Gilbert M, General Manager at Holiday Inn Express Hotel &amp; Suites Houston Northwest-Brookhollow, responded to this reviewResponded August 3, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 3, 2015</t>
+  </si>
+  <si>
+    <t>This was a great last minute deal. The hotel is very clean, and the room was great. Good size, nice TV, like the small fridge in the entertainment stand. Bed was comfortable and overall I was very pleased. Breakfast in the morning was tasty as well! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6419978-r288849447-Holiday_Inn_Express_Hotel_Suites_Houston_Northwest_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>288849447</t>
+  </si>
+  <si>
+    <t>07/14/2015</t>
+  </si>
+  <si>
+    <t>A place to rest and relax</t>
+  </si>
+  <si>
+    <t>Excellent hotel it has 4 floors clean rooms  nice pool  with a sauna   friendly customer service free breakfast and a beautiful decor nice location, located 20 min from IAH airport and 25 from Houston hobby lots of places to parkMoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>Gilbert M, General Manager at Holiday Inn Express Hotel &amp; Suites Houston Northwest-Brookhollow, responded to this reviewResponded July 16, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 16, 2015</t>
+  </si>
+  <si>
+    <t>Excellent hotel it has 4 floors clean rooms  nice pool  with a sauna   friendly customer service free breakfast and a beautiful decor nice location, located 20 min from IAH airport and 25 from Houston hobby lots of places to parkMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6419978-r288544884-Holiday_Inn_Express_Hotel_Suites_Houston_Northwest_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>288544884</t>
+  </si>
+  <si>
+    <t>07/13/2015</t>
+  </si>
+  <si>
+    <t>Vacationing</t>
+  </si>
+  <si>
+    <t>Hotel was very nice--everything you'd expect from a holiday inn express plus a nice quiet it convenient location and excellent staff.  Rebecca at breakfast was extra nice to the kids, pool and room were good, and overall a great stay!  ThanksMoreShow less</t>
+  </si>
+  <si>
+    <t>Hotel was very nice--everything you'd expect from a holiday inn express plus a nice quiet it convenient location and excellent staff.  Rebecca at breakfast was extra nice to the kids, pool and room were good, and overall a great stay!  ThanksMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6419978-r285533383-Holiday_Inn_Express_Hotel_Suites_Houston_Northwest_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>285533383</t>
+  </si>
+  <si>
+    <t>07/04/2015</t>
+  </si>
+  <si>
+    <t>Great For NW Houston Business</t>
+  </si>
+  <si>
+    <t>I was taking a class at the Region 4 Education Service Center, which was only 5 minutes from the hotel. Because of construction on 290, and traffic on the West Loop, I would only stay at this hotel if your business is in the area. That said, if your business is in this area, definitely stay at this hotel. The property still looks pristine. The service attitude was first rate. Check in and check out were quick and easy. The breakfast was well stocked and they kept the area clean. I was very satisfied with my stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>Gilbert M, General Manager at Holiday Inn Express Hotel &amp; Suites Houston Northwest-Brookhollow, responded to this reviewResponded July 8, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 8, 2015</t>
+  </si>
+  <si>
+    <t>I was taking a class at the Region 4 Education Service Center, which was only 5 minutes from the hotel. Because of construction on 290, and traffic on the West Loop, I would only stay at this hotel if your business is in the area. That said, if your business is in this area, definitely stay at this hotel. The property still looks pristine. The service attitude was first rate. Check in and check out were quick and easy. The breakfast was well stocked and they kept the area clean. I was very satisfied with my stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6419978-r280136161-Holiday_Inn_Express_Hotel_Suites_Houston_Northwest_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>280136161</t>
+  </si>
+  <si>
+    <t>06/14/2015</t>
+  </si>
+  <si>
+    <t>Great experience</t>
+  </si>
+  <si>
+    <t>I was very pleased with the hotel and amenities. The staff was wonderful the person that made my stay extra special was staff by the name Jay went above in beyond to make sure my stay was perfect because of my bad experience at another hotel I really appreciate it I will be staying here from now on when I come to HoustonMoreShow less</t>
+  </si>
+  <si>
+    <t>Gilbert M, General Manager at Holiday Inn Express Hotel &amp; Suites Houston Northwest-Brookhollow, responded to this reviewResponded June 17, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 17, 2015</t>
+  </si>
+  <si>
+    <t>I was very pleased with the hotel and amenities. The staff was wonderful the person that made my stay extra special was staff by the name Jay went above in beyond to make sure my stay was perfect because of my bad experience at another hotel I really appreciate it I will be staying here from now on when I come to HoustonMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6419978-r279838702-Holiday_Inn_Express_Hotel_Suites_Houston_Northwest_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>279838702</t>
+  </si>
+  <si>
+    <t>06/12/2015</t>
+  </si>
+  <si>
+    <t>TATN Conference</t>
+  </si>
+  <si>
+    <t>This hotel was very nice, and clean. Jay and Seth were very professional and took care of our accommodation's. Rooms were cleaned everyday, beds were comfortable, and free Wi-Fi was a plus. In addition, the breakfast every morning was great and fresh. I would definitely recommend anyone to stay here, and I myself would stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Gilbert M, General Manager at Holiday Inn Express Hotel &amp; Suites Houston Northwest-Brookhollow, responded to this reviewResponded June 14, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 14, 2015</t>
+  </si>
+  <si>
+    <t>This hotel was very nice, and clean. Jay and Seth were very professional and took care of our accommodation's. Rooms were cleaned everyday, beds were comfortable, and free Wi-Fi was a plus. In addition, the breakfast every morning was great and fresh. I would definitely recommend anyone to stay here, and I myself would stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6419978-r279836956-Holiday_Inn_Express_Hotel_Suites_Houston_Northwest_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>279836956</t>
+  </si>
+  <si>
+    <t>Great Location</t>
+  </si>
+  <si>
+    <t>Easy access to 290 even with traffic. Staff is courteous and knowledgeable. Safe area (near FBI). Lot's of great options for food and drinks nearby. Clean and modern (love being able to use proximity keys). My favorite Holiday Inn express so far!MoreShow less</t>
+  </si>
+  <si>
+    <t>Easy access to 290 even with traffic. Staff is courteous and knowledgeable. Safe area (near FBI). Lot's of great options for food and drinks nearby. Clean and modern (love being able to use proximity keys). My favorite Holiday Inn express so far!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6419978-r278086915-Holiday_Inn_Express_Hotel_Suites_Houston_Northwest_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>278086915</t>
+  </si>
+  <si>
+    <t>06/05/2015</t>
+  </si>
+  <si>
+    <t>Good Value</t>
+  </si>
+  <si>
+    <t>Clean, well located, great breakfast, happy hour beers, cookies and coffee 24x7.  Free wifi, generous sized rooms.  There was a nice pool/Jacuzzi area which looked well maintained.  I'd stay here again when travelling.MoreShow less</t>
+  </si>
+  <si>
+    <t>Gilbert M, General Manager at Holiday Inn Express Hotel &amp; Suites Houston Northwest-Brookhollow, responded to this reviewResponded June 6, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 6, 2015</t>
+  </si>
+  <si>
+    <t>Clean, well located, great breakfast, happy hour beers, cookies and coffee 24x7.  Free wifi, generous sized rooms.  There was a nice pool/Jacuzzi area which looked well maintained.  I'd stay here again when travelling.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6419978-r276301113-Holiday_Inn_Express_Hotel_Suites_Houston_Northwest_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>276301113</t>
+  </si>
+  <si>
+    <t>05/31/2015</t>
+  </si>
+  <si>
+    <t>OK but need to improve customer service...</t>
+  </si>
+  <si>
+    <t>I did not get expected attention at check in ad check out, however room was good. One of the worst breakfast as compare to other similar Holiday Inn Express chain in Canada and USA. You can hear some noise from NW Higwhay, depends on the room location. Location is good for business travellers in that area.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>Gilbert M, General Manager at Holiday Inn Express Hotel &amp; Suites Houston Northwest-Brookhollow, responded to this reviewResponded June 2, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 2, 2015</t>
+  </si>
+  <si>
+    <t>I did not get expected attention at check in ad check out, however room was good. One of the worst breakfast as compare to other similar Holiday Inn Express chain in Canada and USA. You can hear some noise from NW Higwhay, depends on the room location. Location is good for business travellers in that area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6419978-r271388599-Holiday_Inn_Express_Hotel_Suites_Houston_Northwest_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>271388599</t>
+  </si>
+  <si>
+    <t>05/11/2015</t>
+  </si>
+  <si>
+    <t>Pretty Nice Hotel with Excelent attention from front desk</t>
+  </si>
+  <si>
+    <t>Excelent attention at check in &amp; check out, quite delicious breakfast, clean and spotless room.  My only concern is that you can hear some noise from NW Higwhay, I think it depends on the room location.  Also you have to check your timing for commutes since 290 is under construction in several points with heavy traffic to Downtown / Cypress areaMoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>Gilbert M, General Manager at Holiday Inn Express Hotel &amp; Suites Houston Northwest-Brookhollow, responded to this reviewResponded May 12, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 12, 2015</t>
+  </si>
+  <si>
+    <t>Excelent attention at check in &amp; check out, quite delicious breakfast, clean and spotless room.  My only concern is that you can hear some noise from NW Higwhay, I think it depends on the room location.  Also you have to check your timing for commutes since 290 is under construction in several points with heavy traffic to Downtown / Cypress areaMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6419978-r262555297-Holiday_Inn_Express_Hotel_Suites_Houston_Northwest_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>262555297</t>
+  </si>
+  <si>
+    <t>03/29/2015</t>
+  </si>
+  <si>
+    <t>Great place to stay for one night or more!</t>
+  </si>
+  <si>
+    <t>From the second we entered the hotel I knew it was going to be a good stay. The staff was there to great us and check us in. The lounge area was beautiful and the breakfast area was clean and inviting. We were given all guest information up front and up in our room within five minutes of arriving. The staff was even up and ready to sell me chips and water when my boyfriend and I got back from downtown at 2am. The rooms we clean and well kept and I felt comfortable all night long. Was a little difficult to get there with GPS for us out-of-towners but all in all definitely a great place to stay. Would book again in a heartbeat.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>Gilbert M, General Manager at Holiday Inn Express Hotel &amp; Suites Houston Northwest-Brookhollow, responded to this reviewResponded March 31, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 31, 2015</t>
+  </si>
+  <si>
+    <t>From the second we entered the hotel I knew it was going to be a good stay. The staff was there to great us and check us in. The lounge area was beautiful and the breakfast area was clean and inviting. We were given all guest information up front and up in our room within five minutes of arriving. The staff was even up and ready to sell me chips and water when my boyfriend and I got back from downtown at 2am. The rooms we clean and well kept and I felt comfortable all night long. Was a little difficult to get there with GPS for us out-of-towners but all in all definitely a great place to stay. Would book again in a heartbeat.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6419978-r262311861-Holiday_Inn_Express_Hotel_Suites_Houston_Northwest_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>262311861</t>
+  </si>
+  <si>
+    <t>03/28/2015</t>
+  </si>
+  <si>
+    <t>Very good stay</t>
+  </si>
+  <si>
+    <t>I stayed in this hotel twice. The reception is very good. The rooms are spacious and comfortable. The hotel is new . An error was made ​​on the flow of the credit card , but the error was repaired very quickly.MoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed in this hotel twice. The reception is very good. The rooms are spacious and comfortable. The hotel is new . An error was made ​​on the flow of the credit card , but the error was repaired very quickly.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6419978-r261167984-Holiday_Inn_Express_Hotel_Suites_Houston_Northwest_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>261167984</t>
+  </si>
+  <si>
+    <t>03/22/2015</t>
+  </si>
+  <si>
+    <t>Good average hotel</t>
+  </si>
+  <si>
+    <t>While staying here I only really came across 2 issues, one was that they changed their hotel policy without notifying the guests who booked Perviously in advance and saying we couldn't stay, but after talking with management we got it all sorted out. Secondly there are big gaps between the door and the floor, the gap allows a lot of nosie to enter as well as escape the room so you hear your neighbors doors slam shut at late night hours. HOWEVER, the hotel was very clean and had an excellent house keeping staff! They didn't move anything they were supposed to and even arranged my girlfriends stuffed animal on the pillow very nicely. Overall a good average hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>Gilbert M, General Manager at Holiday Inn Express Hotel &amp; Suites Houston Northwest-Brookhollow, responded to this reviewResponded March 27, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 27, 2015</t>
+  </si>
+  <si>
+    <t>While staying here I only really came across 2 issues, one was that they changed their hotel policy without notifying the guests who booked Perviously in advance and saying we couldn't stay, but after talking with management we got it all sorted out. Secondly there are big gaps between the door and the floor, the gap allows a lot of nosie to enter as well as escape the room so you hear your neighbors doors slam shut at late night hours. HOWEVER, the hotel was very clean and had an excellent house keeping staff! They didn't move anything they were supposed to and even arranged my girlfriends stuffed animal on the pillow very nicely. Overall a good average hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6419978-r260031980-Holiday_Inn_Express_Hotel_Suites_Houston_Northwest_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>260031980</t>
+  </si>
+  <si>
+    <t>03/17/2015</t>
+  </si>
+  <si>
+    <t>Andrea, Andrea, Andrea, Andrea, Andrea, Andrea, Andrea, Andrea, Andrea, Andrea, Andrea, Andrea, Andrea</t>
+  </si>
+  <si>
+    <t>Clean rooms and was a new hotel. The staff we dealt with was awesome. There was one lady (can't remember her name) that made our trip a delight. She checked us in and was funny and personable. She also ran the breakfast for the two day we were there. She was funny and a bright light in the morning. She made us and everyone around us feel at home. Almost like a bed and breakfast. Calling hotel right now to get her name. Andrea!!! AWESOME!!!! You have to check her out....second to none in customer service.MoreShow less</t>
+  </si>
+  <si>
+    <t>Gilbert M, General Manager at Holiday Inn Express Hotel &amp; Suites Houston Northwest-Brookhollow, responded to this reviewResponded March 19, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 19, 2015</t>
+  </si>
+  <si>
+    <t>Clean rooms and was a new hotel. The staff we dealt with was awesome. There was one lady (can't remember her name) that made our trip a delight. She checked us in and was funny and personable. She also ran the breakfast for the two day we were there. She was funny and a bright light in the morning. She made us and everyone around us feel at home. Almost like a bed and breakfast. Calling hotel right now to get her name. Andrea!!! AWESOME!!!! You have to check her out....second to none in customer service.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6419978-r259680227-Holiday_Inn_Express_Hotel_Suites_Houston_Northwest_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>259680227</t>
+  </si>
+  <si>
+    <t>03/15/2015</t>
+  </si>
+  <si>
+    <t>We couldn't have asked for a better place to stay on our recent trip to Houston. Check in went excellent. Andrea is the perfect addition to this hotel. She is what all hotel front desk personel should try to accomplish. You can tell she cares for her customers as well as the General Manager, Gilbert. Thanks guys. Our room was spacious and the bed was very comfortable. Our room consisted of a living area with a kitchenette, microwave &amp; a mini-fridge. If I had to complain about anything it would be that our stay wasn't long enough. I am not a fan of Houston by any means just because of the traffic, but if we decide to go back this will definitely be the place we will stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>We couldn't have asked for a better place to stay on our recent trip to Houston. Check in went excellent. Andrea is the perfect addition to this hotel. She is what all hotel front desk personel should try to accomplish. You can tell she cares for her customers as well as the General Manager, Gilbert. Thanks guys. Our room was spacious and the bed was very comfortable. Our room consisted of a living area with a kitchenette, microwave &amp; a mini-fridge. If I had to complain about anything it would be that our stay wasn't long enough. I am not a fan of Houston by any means just because of the traffic, but if we decide to go back this will definitely be the place we will stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6419978-r259039728-Holiday_Inn_Express_Hotel_Suites_Houston_Northwest_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>259039728</t>
+  </si>
+  <si>
+    <t>03/11/2015</t>
+  </si>
+  <si>
+    <t>Great for a Family Get Away!</t>
+  </si>
+  <si>
+    <t>So far so great! The staff has been very generous and our room and bathroom was very clean. Definitely recommending for family and friends! The location is also a plus, we are near lots of great restaurants. New and nicely priced hotel. I could go and on but the pictures tell the truth!MoreShow less</t>
+  </si>
+  <si>
+    <t>Gilbert M, General Manager at Holiday Inn Express Hotel &amp; Suites Houston Northwest-Brookhollow, responded to this reviewResponded March 13, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 13, 2015</t>
+  </si>
+  <si>
+    <t>So far so great! The staff has been very generous and our room and bathroom was very clean. Definitely recommending for family and friends! The location is also a plus, we are near lots of great restaurants. New and nicely priced hotel. I could go and on but the pictures tell the truth!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6419978-r257696057-Holiday_Inn_Express_Hotel_Suites_Houston_Northwest_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>257696057</t>
+  </si>
+  <si>
+    <t>03/04/2015</t>
+  </si>
+  <si>
+    <t>Brief business stay - excellent value</t>
+  </si>
+  <si>
+    <t>I arrived late and had forgotten to call ahead for a late check-in.  Jay greeted me at the front desk and was very gracious.  No problem whatosever and asked if there was anything else that I needed.  I mentioned that I would need some taxi assistance the next morning and Jay proceeded to set that up for me.  The facility was in like-new condition and clean.  All of the staff was very friendly.  At check-out Andy, finalized the taxi set-up and called my room when it was moments away.I would absolutely recommend this location to anyone for business or personal travel.MoreShow less</t>
+  </si>
+  <si>
+    <t>I arrived late and had forgotten to call ahead for a late check-in.  Jay greeted me at the front desk and was very gracious.  No problem whatosever and asked if there was anything else that I needed.  I mentioned that I would need some taxi assistance the next morning and Jay proceeded to set that up for me.  The facility was in like-new condition and clean.  All of the staff was very friendly.  At check-out Andy, finalized the taxi set-up and called my room when it was moments away.I would absolutely recommend this location to anyone for business or personal travel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6419978-r256609656-Holiday_Inn_Express_Hotel_Suites_Houston_Northwest_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>256609656</t>
+  </si>
+  <si>
+    <t>02/26/2015</t>
+  </si>
+  <si>
+    <t>Exceeded my Expectations</t>
+  </si>
+  <si>
+    <t>Andrea is a front desk worker that truly knows what customer service is all about. She went above and beyond to help me out as I forgot to wash a jacket before my business trip. Not only did she facilitate this but also continued throughout my stay to ask how she could assist, and check in with me when I came in the door to verify my stay was going well.MoreShow less</t>
+  </si>
+  <si>
+    <t>Gilbert M, General Manager at Holiday Inn Express Hotel &amp; Suites Houston Northwest-Brookhollow, responded to this reviewResponded March 3, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 3, 2015</t>
+  </si>
+  <si>
+    <t>Andrea is a front desk worker that truly knows what customer service is all about. She went above and beyond to help me out as I forgot to wash a jacket before my business trip. Not only did she facilitate this but also continued throughout my stay to ask how she could assist, and check in with me when I came in the door to verify my stay was going well.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6419978-r255698158-Holiday_Inn_Express_Hotel_Suites_Houston_Northwest_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>255698158</t>
+  </si>
+  <si>
+    <t>02/21/2015</t>
+  </si>
+  <si>
+    <t>Top notch!! Amazing staff</t>
+  </si>
+  <si>
+    <t>I travel a LOT for business and my choice is always the holiday inn chains. This is a new hotel as of July 2014 and has everything you need. I stayed on the first floor facing the bus barn and never heard a thing. I don't know why people say it's loud. There's a big brick wall for sound and it's quiet, period. The rooms are seriously huge. The staff are the most friendliest people I've come across. Jay was awesome at check-in. Breakfast was just average, if you've stayed at holiday inns. The only negative, if any, is there's nothing walking distance to eat or do. Your about a mile or so from the feeder road. Highly recommended otherwiseMoreShow less</t>
+  </si>
+  <si>
+    <t>Gilbert M, General Manager at Holiday Inn Express Hotel &amp; Suites Houston Northwest-Brookhollow, responded to this reviewResponded February 24, 2015</t>
+  </si>
+  <si>
+    <t>Responded February 24, 2015</t>
+  </si>
+  <si>
+    <t>I travel a LOT for business and my choice is always the holiday inn chains. This is a new hotel as of July 2014 and has everything you need. I stayed on the first floor facing the bus barn and never heard a thing. I don't know why people say it's loud. There's a big brick wall for sound and it's quiet, period. The rooms are seriously huge. The staff are the most friendliest people I've come across. Jay was awesome at check-in. Breakfast was just average, if you've stayed at holiday inns. The only negative, if any, is there's nothing walking distance to eat or do. Your about a mile or so from the feeder road. Highly recommended otherwiseMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6419978-r253431400-Holiday_Inn_Express_Hotel_Suites_Houston_Northwest_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>253431400</t>
+  </si>
+  <si>
+    <t>02/09/2015</t>
+  </si>
+  <si>
+    <t>Nice place!</t>
+  </si>
+  <si>
+    <t>My stay at the hotel was very nice. The room was clean. The service was great. Andrea was very helpful and attentive. Ervin made sure my breakfast was fresh and hot. If it weren't for the construction in the area it would be perfect but I am sure it will be once the area gets back to normal. I definitely will stay there again. Thanks you guys!MoreShow less</t>
+  </si>
+  <si>
+    <t>Gilbert M, General Manager at Holiday Inn Express Hotel &amp; Suites Houston Northwest-Brookhollow, responded to this reviewResponded February 13, 2015</t>
+  </si>
+  <si>
+    <t>Responded February 13, 2015</t>
+  </si>
+  <si>
+    <t>My stay at the hotel was very nice. The room was clean. The service was great. Andrea was very helpful and attentive. Ervin made sure my breakfast was fresh and hot. If it weren't for the construction in the area it would be perfect but I am sure it will be once the area gets back to normal. I definitely will stay there again. Thanks you guys!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6419978-r252983408-Holiday_Inn_Express_Hotel_Suites_Houston_Northwest_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>252983408</t>
+  </si>
+  <si>
+    <t>02/06/2015</t>
+  </si>
+  <si>
+    <t>I liked my stay.</t>
+  </si>
+  <si>
+    <t>The room was very clean and smelled nice. The only thing I have to complain about my room is that the water pressure in my room was very low. The staff was very friendly too. When I asked about the area, they answered all my questions right away.  I would come here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Gilbert M, General Manager at Holiday Inn Express Hotel &amp; Suites Houston Northwest-Brookhollow, responded to this reviewResponded February 9, 2015</t>
+  </si>
+  <si>
+    <t>Responded February 9, 2015</t>
+  </si>
+  <si>
+    <t>The room was very clean and smelled nice. The only thing I have to complain about my room is that the water pressure in my room was very low. The staff was very friendly too. When I asked about the area, they answered all my questions right away.  I would come here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6419978-r251919652-Holiday_Inn_Express_Hotel_Suites_Houston_Northwest_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>251919652</t>
+  </si>
+  <si>
+    <t>01/31/2015</t>
+  </si>
+  <si>
+    <t>Best holiday Inn so far</t>
+  </si>
+  <si>
+    <t>We stay in Holiday Inns regularly because of the good prices and other amenities.   This is by far the best. The hotel is very clean and the rooms are spacious.  They have everything you would expect from a holiday inn and then some.  Loved the dish satellite and large tv.  I'll stay here next time I'm in town.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>Gilbert M, General Manager at Holiday Inn Express Hotel &amp; Suites Houston Northwest-Brookhollow, responded to this reviewResponded February 4, 2015</t>
+  </si>
+  <si>
+    <t>Responded February 4, 2015</t>
+  </si>
+  <si>
+    <t>We stay in Holiday Inns regularly because of the good prices and other amenities.   This is by far the best. The hotel is very clean and the rooms are spacious.  They have everything you would expect from a holiday inn and then some.  Loved the dish satellite and large tv.  I'll stay here next time I'm in town.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6419978-r249517634-Holiday_Inn_Express_Hotel_Suites_Houston_Northwest_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>249517634</t>
+  </si>
+  <si>
+    <t>01/15/2015</t>
+  </si>
+  <si>
+    <t>New, bright and really nice</t>
+  </si>
+  <si>
+    <t>I spent 2 nights on a business trip at this Holiday Inn Express. It's brand new and modern. My room was over sized and very comfortable. It even had enough light in the guest room. Andrea at the front desk was on duty every evening when I came in the door and was welcoming and cheerful; she made sure I had everything I needed. Great choice to stay if you are traveling around NW Houston.MoreShow less</t>
+  </si>
+  <si>
+    <t>Gilbert M, General Manager at Holiday Inn Express Hotel &amp; Suites Houston Northwest-Brookhollow, responded to this reviewResponded January 21, 2015</t>
+  </si>
+  <si>
+    <t>Responded January 21, 2015</t>
+  </si>
+  <si>
+    <t>I spent 2 nights on a business trip at this Holiday Inn Express. It's brand new and modern. My room was over sized and very comfortable. It even had enough light in the guest room. Andrea at the front desk was on duty every evening when I came in the door and was welcoming and cheerful; she made sure I had everything I needed. Great choice to stay if you are traveling around NW Houston.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6419978-r249212251-Holiday_Inn_Express_Hotel_Suites_Houston_Northwest_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>249212251</t>
+  </si>
+  <si>
+    <t>01/13/2015</t>
+  </si>
+  <si>
+    <t>Friendly &amp; Convenient</t>
+  </si>
+  <si>
+    <t>I stayed by myself on a business trip for two nights in room #320 (two queen beds). The room is average, although the hotel is newer and clean. The staff is friendly and they offer a descent breakfast. The experience is what most of us would expect from a Holiday Inn Express, no surprises or complaints.MoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed by myself on a business trip for two nights in room #320 (two queen beds). The room is average, although the hotel is newer and clean. The staff is friendly and they offer a descent breakfast. The experience is what most of us would expect from a Holiday Inn Express, no surprises or complaints.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6419978-r248549284-Holiday_Inn_Express_Hotel_Suites_Houston_Northwest_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>248549284</t>
+  </si>
+  <si>
+    <t>01/09/2015</t>
+  </si>
+  <si>
+    <t>Close to airport with shuttle service</t>
+  </si>
+  <si>
+    <t>We picked this establishment because it was close to the airport with a shuttle. The place is nice and clean. We did not have a chance to enjoy the breakfast as we had to make an early flight. We did have one issue that could have been a major problem. When we arrived the checkin was very efficient and even asked if we wanted a wake up call. We said yes and told the agent the time. She repeated it back and said she would take care of it. We did NOT receive a wake up call. Luckily we set the room alarm clock and it functioned properly to wake us up on time. I am not sure how to double check that the front desk has entered a wake up call, but I plan to ask on our next stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>We picked this establishment because it was close to the airport with a shuttle. The place is nice and clean. We did not have a chance to enjoy the breakfast as we had to make an early flight. We did have one issue that could have been a major problem. When we arrived the checkin was very efficient and even asked if we wanted a wake up call. We said yes and told the agent the time. She repeated it back and said she would take care of it. We did NOT receive a wake up call. Luckily we set the room alarm clock and it functioned properly to wake us up on time. I am not sure how to double check that the front desk has entered a wake up call, but I plan to ask on our next stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6419978-r247655442-Holiday_Inn_Express_Hotel_Suites_Houston_Northwest_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>247655442</t>
+  </si>
+  <si>
+    <t>01/05/2015</t>
+  </si>
+  <si>
+    <t>Excellent Value</t>
+  </si>
+  <si>
+    <t>Recently stayed at this new hotel and found it to be an excellent value.  Lovely, modern decor.The staff at check-in were friendly and knowledgable about nearby stores that we needed. Our breakfast service was very good, and we enjoyed Ervin's helpfulness.  We were visiting family nearby and found the location and value to be just what we wanted.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>Recently stayed at this new hotel and found it to be an excellent value.  Lovely, modern decor.The staff at check-in were friendly and knowledgable about nearby stores that we needed. Our breakfast service was very good, and we enjoyed Ervin's helpfulness.  We were visiting family nearby and found the location and value to be just what we wanted.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6419978-r245257948-Holiday_Inn_Express_Hotel_Suites_Houston_Northwest_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>245257948</t>
+  </si>
+  <si>
+    <t>12/20/2014</t>
+  </si>
+  <si>
+    <t>I thoroughly enjoyed my stay here due to Ervin's (Kevin Hart) service. He looks just like him!~ He was the first person that greeted us when we came into the Holiday Inn and has been an integral part of my stay at HI. Ervin told me he has been with at this Holiday Inn since the day it opened and does everything from cooking breakfast to cleaning the facilities. I am impressed at the caliber of his work. Be sure to say "Hi" to him when you get the chance. Everyone else at this flagship was also amazing! I especially enjoyed the sense urgency the front desk staff had when issues arise. I came to HI with three room reservations which one of them were for some distant relatives...My relatives had a delayed flight and got to the Holiday Inn at around midnight. I was already fast asleep so they booked a room for themselves. The next day I realized they didn't use the room I purchased for them and the next morning the front desk staff helped me correctly fix the issue! If this was any other hotel I would of came into multitudes of frustration and 1-800 #s to get a refund or cancellation! Great staff with a sense of urgency! --MoreShow less</t>
+  </si>
+  <si>
+    <t>Gilbert M, General Manager at Holiday Inn Express Hotel &amp; Suites Houston Northwest-Brookhollow, responded to this reviewResponded December 23, 2014</t>
+  </si>
+  <si>
+    <t>Responded December 23, 2014</t>
+  </si>
+  <si>
+    <t>I thoroughly enjoyed my stay here due to Ervin's (Kevin Hart) service. He looks just like him!~ He was the first person that greeted us when we came into the Holiday Inn and has been an integral part of my stay at HI. Ervin told me he has been with at this Holiday Inn since the day it opened and does everything from cooking breakfast to cleaning the facilities. I am impressed at the caliber of his work. Be sure to say "Hi" to him when you get the chance. Everyone else at this flagship was also amazing! I especially enjoyed the sense urgency the front desk staff had when issues arise. I came to HI with three room reservations which one of them were for some distant relatives...My relatives had a delayed flight and got to the Holiday Inn at around midnight. I was already fast asleep so they booked a room for themselves. The next day I realized they didn't use the room I purchased for them and the next morning the front desk staff helped me correctly fix the issue! If this was any other hotel I would of came into multitudes of frustration and 1-800 #s to get a refund or cancellation! Great staff with a sense of urgency! --More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6419978-r245234626-Holiday_Inn_Express_Hotel_Suites_Houston_Northwest_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>245234626</t>
+  </si>
+  <si>
+    <t>Felt cared for.</t>
+  </si>
+  <si>
+    <t>The staff was excellent and made my stay better. Especially Mr. Ervin, he was very nice and helpful at the breakfast line. He kept the breakfast line very clean, it was stocked and the coffee is good.MoreShow less</t>
+  </si>
+  <si>
+    <t>The staff was excellent and made my stay better. Especially Mr. Ervin, he was very nice and helpful at the breakfast line. He kept the breakfast line very clean, it was stocked and the coffee is good.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6419978-r244564714-Holiday_Inn_Express_Hotel_Suites_Houston_Northwest_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>244564714</t>
+  </si>
+  <si>
+    <t>12/15/2014</t>
+  </si>
+  <si>
+    <t>Excellent stay</t>
+  </si>
+  <si>
+    <t>Very pleased!.  Hotel is new and well appointed.  Beds were comfortable.  I enjoyed the ability to chose Firm or Soft pillows,  Bathroom was clean and well stocked with toiletries and a good supply of towels.  Room came with microwave and refrigerator.  And the staff were pleasant and helpful.  Even found my jacket that I had misplaced.  They offered a full breakfast, eggs, meat etc.  The pancakes were a nice change from the typical waffles. I would certainly stay here again on my next trip to NW HoustonIt was a bit of a challenge to find with the present road construction on 290 but worth the effortMoreShow less</t>
+  </si>
+  <si>
+    <t>Very pleased!.  Hotel is new and well appointed.  Beds were comfortable.  I enjoyed the ability to chose Firm or Soft pillows,  Bathroom was clean and well stocked with toiletries and a good supply of towels.  Room came with microwave and refrigerator.  And the staff were pleasant and helpful.  Even found my jacket that I had misplaced.  They offered a full breakfast, eggs, meat etc.  The pancakes were a nice change from the typical waffles. I would certainly stay here again on my next trip to NW HoustonIt was a bit of a challenge to find with the present road construction on 290 but worth the effortMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6419978-r244095216-Holiday_Inn_Express_Hotel_Suites_Houston_Northwest_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>244095216</t>
+  </si>
+  <si>
+    <t>12/11/2014</t>
+  </si>
+  <si>
+    <t>Nice place to stay!</t>
+  </si>
+  <si>
+    <t>The rooms are Clean and Comfortable. The Customer Service was Great, especially Andrea at the Front Desk. I was there on a business trip so I didn't get a chance to use many of the facilities, but the in room wifi worked well.MoreShow less</t>
+  </si>
+  <si>
+    <t>The rooms are Clean and Comfortable. The Customer Service was Great, especially Andrea at the Front Desk. I was there on a business trip so I didn't get a chance to use many of the facilities, but the in room wifi worked well.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6419978-r244093789-Holiday_Inn_Express_Hotel_Suites_Houston_Northwest_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>244093789</t>
+  </si>
+  <si>
+    <t>Great, new clean hotel.</t>
+  </si>
+  <si>
+    <t>Excellent hotel! It's new. It was very clean. Location is great, near excellent restaurants. Staff was friendly. Breakfast is excellent as well. Everything in the room eas up to date. I stayed two nights and enjoyed both. MoreShow less</t>
+  </si>
+  <si>
+    <t>Excellent hotel! It's new. It was very clean. Location is great, near excellent restaurants. Staff was friendly. Breakfast is excellent as well. Everything in the room eas up to date. I stayed two nights and enjoyed both. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6419978-r239825046-Holiday_Inn_Express_Hotel_Suites_Houston_Northwest_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>239825046</t>
+  </si>
+  <si>
+    <t>11/14/2014</t>
+  </si>
+  <si>
+    <t>My new favorite when I'm in Houston</t>
+  </si>
+  <si>
+    <t>I'm in the area a few times a year and from now on I will stay at this new location. It is tucked away by a new looking FBI building and only a few minutes from many dining options. The staff was very friendly and the room was perfect. Breakfast was a little slow getting started in the morning (I often like to get there as soon as it opens), but otherwise this is a great choice.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>Gilbert M, General Manager at Holiday Inn Express Hotel &amp; Suites Houston Northwest-Brookhollow, responded to this reviewResponded November 25, 2014</t>
+  </si>
+  <si>
+    <t>Responded November 25, 2014</t>
+  </si>
+  <si>
+    <t>I'm in the area a few times a year and from now on I will stay at this new location. It is tucked away by a new looking FBI building and only a few minutes from many dining options. The staff was very friendly and the room was perfect. Breakfast was a little slow getting started in the morning (I often like to get there as soon as it opens), but otherwise this is a great choice.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6419978-r237639472-Holiday_Inn_Express_Hotel_Suites_Houston_Northwest_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>237639472</t>
+  </si>
+  <si>
+    <t>11/02/2014</t>
+  </si>
+  <si>
+    <t>Great Service &amp; Comfortable Rooms</t>
+  </si>
+  <si>
+    <t>The front desk staff, particularly Andrea, made our stay great!  As usual the beds and pillows were outstanding.  This is a new property that is on the Northwest side of Houston.  It is perfect if you're driving in from Austin late at night or ready to take off and beat the traffic.  We'll definitely be back!MoreShow less</t>
+  </si>
+  <si>
+    <t>Gilbert M, General Manager at Holiday Inn Express Hotel &amp; Suites Houston Northwest-Brookhollow, responded to this reviewResponded November 6, 2014</t>
+  </si>
+  <si>
+    <t>Responded November 6, 2014</t>
+  </si>
+  <si>
+    <t>The front desk staff, particularly Andrea, made our stay great!  As usual the beds and pillows were outstanding.  This is a new property that is on the Northwest side of Houston.  It is perfect if you're driving in from Austin late at night or ready to take off and beat the traffic.  We'll definitely be back!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6419978-r234210617-Holiday_Inn_Express_Hotel_Suites_Houston_Northwest_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>234210617</t>
+  </si>
+  <si>
+    <t>10/13/2014</t>
+  </si>
+  <si>
+    <t>This hotel was in a great location, close to the Galleria and some other fun places to visit. It's close enough to the highway for easy access, but not too close as to be noisy from the traffic. The staff is great and very accommodating. Though it isn't listed here in the amenities, they do have a free breakfast, which is nice.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>This hotel was in a great location, close to the Galleria and some other fun places to visit. It's close enough to the highway for easy access, but not too close as to be noisy from the traffic. The staff is great and very accommodating. Though it isn't listed here in the amenities, they do have a free breakfast, which is nice.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6419978-r229503132-Holiday_Inn_Express_Hotel_Suites_Houston_Northwest_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>229503132</t>
+  </si>
+  <si>
+    <t>09/17/2014</t>
+  </si>
+  <si>
+    <t>Very nice, clean hotel in a good area</t>
+  </si>
+  <si>
+    <t>The hotel is fairly new and is very clean.  The clerk at the front desk couldn't have been nicer.  The breakfast in the morning was really good with lots of different choices.  I would definitely stay here again and recommend it to others.  It's located in an area that's in close proximity to good restaurants as well.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>Gilbert M, General Manager at Holiday Inn Express Hotel &amp; Suites Houston Northwest-Brookhollow, responded to this reviewResponded September 29, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 29, 2014</t>
+  </si>
+  <si>
+    <t>The hotel is fairly new and is very clean.  The clerk at the front desk couldn't have been nicer.  The breakfast in the morning was really good with lots of different choices.  I would definitely stay here again and recommend it to others.  It's located in an area that's in close proximity to good restaurants as well.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6419978-r228551128-Holiday_Inn_Express_Hotel_Suites_Houston_Northwest_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>228551128</t>
+  </si>
+  <si>
+    <t>09/12/2014</t>
+  </si>
+  <si>
+    <t>New hotel, Great accessible rooms, Excellent staff</t>
+  </si>
+  <si>
+    <t>My recent stay at this hotel was for business. I found it was excellent for business travel. Due to late check in I ended up in an accessible room/ADA compliant across from the gym. The room was huge and well appointed with amenities that were height adjusted. The hotel is very clean and has a lovely lobby. As a new property, some of the landscaping is still filling in - but that is expected right after construction. The front desk staff, housekeeping, and breakfast staff were attentive and asked open ended questions. The general manager interacted with guests. The pool area was small but enclosed so it was very safe and you didn't feel like you were on display.I would recommend rental car or Uber for getting around as cabs were hard to come by and unreliable. The gym included a treadmill, elliptical, cycle and free weights. I plan to stay here when returning for business in Houston and have already recommended it to a friend. RFID room keys so no de-magnitizing by your phone. Very safe.MoreShow less</t>
+  </si>
+  <si>
+    <t>Gilbert M, General Manager at Holiday Inn Express Hotel &amp; Suites Houston Northwest-Brookhollow, responded to this reviewResponded September 15, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 15, 2014</t>
+  </si>
+  <si>
+    <t>My recent stay at this hotel was for business. I found it was excellent for business travel. Due to late check in I ended up in an accessible room/ADA compliant across from the gym. The room was huge and well appointed with amenities that were height adjusted. The hotel is very clean and has a lovely lobby. As a new property, some of the landscaping is still filling in - but that is expected right after construction. The front desk staff, housekeeping, and breakfast staff were attentive and asked open ended questions. The general manager interacted with guests. The pool area was small but enclosed so it was very safe and you didn't feel like you were on display.I would recommend rental car or Uber for getting around as cabs were hard to come by and unreliable. The gym included a treadmill, elliptical, cycle and free weights. I plan to stay here when returning for business in Houston and have already recommended it to a friend. RFID room keys so no de-magnitizing by your phone. Very safe.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6419978-r227789013-Holiday_Inn_Express_Hotel_Suites_Houston_Northwest_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>227789013</t>
+  </si>
+  <si>
+    <t>09/08/2014</t>
+  </si>
+  <si>
+    <t>Northwest brookhollow   is a great stay if your ever in Houston tx.</t>
+  </si>
+  <si>
+    <t>The rooms very clean and well kept. The whole staff was friendly and helpful. I must say though 4 members went out of the way to make our stay, so comfortable I will always come back knowing there here. Thank you Fred, Danielle , Ervin ,and Andy MoreShow less</t>
+  </si>
+  <si>
+    <t>The rooms very clean and well kept. The whole staff was friendly and helpful. I must say though 4 members went out of the way to make our stay, so comfortable I will always come back knowing there here. Thank you Fred, Danielle , Ervin ,and Andy More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6419978-r225772483-Holiday_Inn_Express_Hotel_Suites_Houston_Northwest_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>225772483</t>
+  </si>
+  <si>
+    <t>08/31/2014</t>
+  </si>
+  <si>
+    <t>staff and service</t>
+  </si>
+  <si>
+    <t>The staff at this hotel was outstanding. I would like to give a shout out to Fred in particular. I was trying to get into my room and the key I was issued was not working. Fred was on my floor and he let me into my room and then took the key down to the front desk, had it reactivated and brought it back up to my room, tested it to make sure it worked. His attitude and willingness to go the extra distance to help make my stay comfortable will ensure that I return to this property on my next visit to Houston.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>Gilbert M, General Manager at Holiday Inn Express Hotel &amp; Suites Houston Northwest-Brookhollow, responded to this reviewResponded September 2, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 2, 2014</t>
+  </si>
+  <si>
+    <t>The staff at this hotel was outstanding. I would like to give a shout out to Fred in particular. I was trying to get into my room and the key I was issued was not working. Fred was on my floor and he let me into my room and then took the key down to the front desk, had it reactivated and brought it back up to my room, tested it to make sure it worked. His attitude and willingness to go the extra distance to help make my stay comfortable will ensure that I return to this property on my next visit to Houston.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6419978-r220566327-Holiday_Inn_Express_Hotel_Suites_Houston_Northwest_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>220566327</t>
+  </si>
+  <si>
+    <t>08/08/2014</t>
+  </si>
+  <si>
+    <t>The best staff and hotel</t>
+  </si>
+  <si>
+    <t>WE stayed here. We are a  large family and have to rent two rooms. We normally get weird looks when we go places. But, the staff here were great!!! They treated us as they would anyone else. The manager was awesome and always asked how we were. We came in late one night and they have security cameras. They immediately came to open the back door for us. The next day we came in late and the staff would come around to make sure we made it in safely. They refilled breakfast because my kids were sure to empty everything quickly. The manager greeted us at breakfast every morning with a huge smile. We felt so at home. The kids didn't even was to leave because they said that the manager wanted them to stay lol. We will definitely be returning to this hotel whenever we are in Houston!!!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>Gilbert M, General Manager at Holiday Inn Express Hotel &amp; Suites Houston Northwest-Brookhollow, responded to this reviewResponded August 11, 2014</t>
+  </si>
+  <si>
+    <t>Responded August 11, 2014</t>
+  </si>
+  <si>
+    <t>WE stayed here. We are a  large family and have to rent two rooms. We normally get weird looks when we go places. But, the staff here were great!!! They treated us as they would anyone else. The manager was awesome and always asked how we were. We came in late one night and they have security cameras. They immediately came to open the back door for us. The next day we came in late and the staff would come around to make sure we made it in safely. They refilled breakfast because my kids were sure to empty everything quickly. The manager greeted us at breakfast every morning with a huge smile. We felt so at home. The kids didn't even was to leave because they said that the manager wanted them to stay lol. We will definitely be returning to this hotel whenever we are in Houston!!!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6419978-r220486236-Holiday_Inn_Express_Hotel_Suites_Houston_Northwest_Brookhollow-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>220486236</t>
+  </si>
+  <si>
+    <t>Business stay</t>
+  </si>
+  <si>
+    <t>I travel a lot for business and as an IHG member, I utilize all the facilities. This hotel is new, clean and the staff is friendly. The fitness center has free weights up to #40, which you normally don't see. I also like the fact you can use the wireless or use the Ethernet connection. Since I download a lot of files for work, this is much faster. I've stayed at 'newly remodeled' IHG facilities and find the wireless very sluggish during peak hours. This is a wonderful feature for me.  Andy at the front desk, was very helpful in locating restaurants. You do have to drive a bit to find dining facilities that aren't fast food. I will stay at this facility again when traveling to Houston in the future.MoreShow less</t>
+  </si>
+  <si>
+    <t>I travel a lot for business and as an IHG member, I utilize all the facilities. This hotel is new, clean and the staff is friendly. The fitness center has free weights up to #40, which you normally don't see. I also like the fact you can use the wireless or use the Ethernet connection. Since I download a lot of files for work, this is much faster. I've stayed at 'newly remodeled' IHG facilities and find the wireless very sluggish during peak hours. This is a wonderful feature for me.  Andy at the front desk, was very helpful in locating restaurants. You do have to drive a bit to find dining facilities that aren't fast food. I will stay at this facility again when traveling to Houston in the future.More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +3193,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +3225,7172 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>63272</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="n">
+        <v>5</v>
+      </c>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>63272</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>54</v>
+      </c>
+      <c r="X3" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>63272</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K4" t="s">
+        <v>66</v>
+      </c>
+      <c r="L4" t="s">
+        <v>67</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>68</v>
+      </c>
+      <c r="O4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>5</v>
+      </c>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>69</v>
+      </c>
+      <c r="X4" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>63272</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>73</v>
+      </c>
+      <c r="J5" t="s">
+        <v>74</v>
+      </c>
+      <c r="K5" t="s">
+        <v>75</v>
+      </c>
+      <c r="L5" t="s">
+        <v>76</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>77</v>
+      </c>
+      <c r="O5" t="s">
+        <v>53</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>78</v>
+      </c>
+      <c r="X5" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>63272</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>81</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>82</v>
+      </c>
+      <c r="J6" t="s">
+        <v>83</v>
+      </c>
+      <c r="K6" t="s">
+        <v>84</v>
+      </c>
+      <c r="L6" t="s">
+        <v>85</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>77</v>
+      </c>
+      <c r="O6" t="s">
+        <v>53</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>86</v>
+      </c>
+      <c r="X6" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>63272</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>90</v>
+      </c>
+      <c r="J7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K7" t="s">
+        <v>92</v>
+      </c>
+      <c r="L7" t="s">
+        <v>93</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>77</v>
+      </c>
+      <c r="O7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>86</v>
+      </c>
+      <c r="X7" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>63272</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>95</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>96</v>
+      </c>
+      <c r="J8" t="s">
+        <v>97</v>
+      </c>
+      <c r="K8" t="s">
+        <v>98</v>
+      </c>
+      <c r="L8" t="s">
+        <v>99</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>100</v>
+      </c>
+      <c r="O8" t="s">
+        <v>101</v>
+      </c>
+      <c r="P8" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>102</v>
+      </c>
+      <c r="X8" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>63272</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>105</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>106</v>
+      </c>
+      <c r="J9" t="s">
+        <v>107</v>
+      </c>
+      <c r="K9" t="s">
+        <v>108</v>
+      </c>
+      <c r="L9" t="s">
+        <v>109</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s"/>
+      <c r="O9" t="s"/>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>110</v>
+      </c>
+      <c r="X9" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>63272</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>113</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>114</v>
+      </c>
+      <c r="J10" t="s">
+        <v>115</v>
+      </c>
+      <c r="K10" t="s">
+        <v>116</v>
+      </c>
+      <c r="L10" t="s">
+        <v>117</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>118</v>
+      </c>
+      <c r="O10" t="s">
+        <v>53</v>
+      </c>
+      <c r="P10" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>119</v>
+      </c>
+      <c r="X10" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>63272</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>122</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>123</v>
+      </c>
+      <c r="J11" t="s">
+        <v>124</v>
+      </c>
+      <c r="K11" t="s">
+        <v>125</v>
+      </c>
+      <c r="L11" t="s">
+        <v>126</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s"/>
+      <c r="O11" t="s"/>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>127</v>
+      </c>
+      <c r="X11" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>63272</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>130</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>131</v>
+      </c>
+      <c r="J12" t="s">
+        <v>132</v>
+      </c>
+      <c r="K12" t="s">
+        <v>133</v>
+      </c>
+      <c r="L12" t="s">
+        <v>134</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>135</v>
+      </c>
+      <c r="O12" t="s">
+        <v>136</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>137</v>
+      </c>
+      <c r="X12" t="s">
+        <v>138</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>63272</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>140</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>141</v>
+      </c>
+      <c r="J13" t="s">
+        <v>142</v>
+      </c>
+      <c r="K13" t="s">
+        <v>143</v>
+      </c>
+      <c r="L13" t="s">
+        <v>144</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>135</v>
+      </c>
+      <c r="O13" t="s">
+        <v>136</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>145</v>
+      </c>
+      <c r="X13" t="s">
+        <v>146</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>63272</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>148</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>149</v>
+      </c>
+      <c r="J14" t="s">
+        <v>150</v>
+      </c>
+      <c r="K14" t="s">
+        <v>151</v>
+      </c>
+      <c r="L14" t="s">
+        <v>152</v>
+      </c>
+      <c r="M14" t="n">
+        <v>3</v>
+      </c>
+      <c r="N14" t="s">
+        <v>153</v>
+      </c>
+      <c r="O14" t="s">
+        <v>53</v>
+      </c>
+      <c r="P14" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="n">
+        <v>4</v>
+      </c>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>3</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>154</v>
+      </c>
+      <c r="X14" t="s">
+        <v>155</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>63272</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>157</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>158</v>
+      </c>
+      <c r="J15" t="s">
+        <v>159</v>
+      </c>
+      <c r="K15" t="s">
+        <v>160</v>
+      </c>
+      <c r="L15" t="s">
+        <v>161</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" t="s">
+        <v>162</v>
+      </c>
+      <c r="O15" t="s">
+        <v>53</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="n">
+        <v>4</v>
+      </c>
+      <c r="S15" t="n">
+        <v>4</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>4</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>163</v>
+      </c>
+      <c r="X15" t="s">
+        <v>164</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>63272</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>166</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>167</v>
+      </c>
+      <c r="J16" t="s">
+        <v>168</v>
+      </c>
+      <c r="K16" t="s">
+        <v>169</v>
+      </c>
+      <c r="L16" t="s">
+        <v>170</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>153</v>
+      </c>
+      <c r="O16" t="s">
+        <v>53</v>
+      </c>
+      <c r="P16" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>5</v>
+      </c>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>171</v>
+      </c>
+      <c r="X16" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>63272</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>174</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>175</v>
+      </c>
+      <c r="J17" t="s">
+        <v>176</v>
+      </c>
+      <c r="K17" t="s">
+        <v>177</v>
+      </c>
+      <c r="L17" t="s">
+        <v>178</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="s"/>
+      <c r="O17" t="s"/>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>179</v>
+      </c>
+      <c r="X17" t="s">
+        <v>180</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>63272</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>182</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>183</v>
+      </c>
+      <c r="J18" t="s">
+        <v>176</v>
+      </c>
+      <c r="K18" t="s">
+        <v>184</v>
+      </c>
+      <c r="L18" t="s">
+        <v>185</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>186</v>
+      </c>
+      <c r="O18" t="s">
+        <v>101</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>179</v>
+      </c>
+      <c r="X18" t="s">
+        <v>180</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>63272</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>188</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>189</v>
+      </c>
+      <c r="J19" t="s">
+        <v>190</v>
+      </c>
+      <c r="K19" t="s">
+        <v>191</v>
+      </c>
+      <c r="L19" t="s">
+        <v>192</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s"/>
+      <c r="O19" t="s"/>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>193</v>
+      </c>
+      <c r="X19" t="s">
+        <v>194</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>63272</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>196</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>197</v>
+      </c>
+      <c r="J20" t="s">
+        <v>198</v>
+      </c>
+      <c r="K20" t="s">
+        <v>199</v>
+      </c>
+      <c r="L20" t="s">
+        <v>200</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>201</v>
+      </c>
+      <c r="O20" t="s">
+        <v>101</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>202</v>
+      </c>
+      <c r="X20" t="s">
+        <v>203</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>63272</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>205</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>206</v>
+      </c>
+      <c r="J21" t="s">
+        <v>207</v>
+      </c>
+      <c r="K21" t="s">
+        <v>208</v>
+      </c>
+      <c r="L21" t="s">
+        <v>209</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>210</v>
+      </c>
+      <c r="O21" t="s">
+        <v>53</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>211</v>
+      </c>
+      <c r="X21" t="s">
+        <v>212</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>63272</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>214</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>215</v>
+      </c>
+      <c r="J22" t="s">
+        <v>216</v>
+      </c>
+      <c r="K22" t="s">
+        <v>217</v>
+      </c>
+      <c r="L22" t="s">
+        <v>218</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>210</v>
+      </c>
+      <c r="O22" t="s">
+        <v>53</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="n">
+        <v>5</v>
+      </c>
+      <c r="R22" t="n">
+        <v>5</v>
+      </c>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>219</v>
+      </c>
+      <c r="X22" t="s">
+        <v>220</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>63272</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>222</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>223</v>
+      </c>
+      <c r="J23" t="s">
+        <v>224</v>
+      </c>
+      <c r="K23" t="s">
+        <v>225</v>
+      </c>
+      <c r="L23" t="s">
+        <v>226</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>227</v>
+      </c>
+      <c r="O23" t="s">
+        <v>53</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="s"/>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>228</v>
+      </c>
+      <c r="X23" t="s">
+        <v>229</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>63272</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>231</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>232</v>
+      </c>
+      <c r="J24" t="s">
+        <v>224</v>
+      </c>
+      <c r="K24" t="s">
+        <v>233</v>
+      </c>
+      <c r="L24" t="s">
+        <v>234</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>227</v>
+      </c>
+      <c r="O24" t="s">
+        <v>53</v>
+      </c>
+      <c r="P24" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="n">
+        <v>5</v>
+      </c>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>235</v>
+      </c>
+      <c r="X24" t="s">
+        <v>236</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>63272</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>238</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>239</v>
+      </c>
+      <c r="J25" t="s">
+        <v>240</v>
+      </c>
+      <c r="K25" t="s">
+        <v>241</v>
+      </c>
+      <c r="L25" t="s">
+        <v>242</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>227</v>
+      </c>
+      <c r="O25" t="s">
+        <v>53</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>243</v>
+      </c>
+      <c r="X25" t="s">
+        <v>244</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>63272</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>246</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>247</v>
+      </c>
+      <c r="J26" t="s">
+        <v>248</v>
+      </c>
+      <c r="K26" t="s">
+        <v>249</v>
+      </c>
+      <c r="L26" t="s">
+        <v>250</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>251</v>
+      </c>
+      <c r="O26" t="s">
+        <v>101</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="n">
+        <v>5</v>
+      </c>
+      <c r="R26" t="s"/>
+      <c r="S26" t="n">
+        <v>5</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>252</v>
+      </c>
+      <c r="X26" t="s">
+        <v>253</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>63272</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>255</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>256</v>
+      </c>
+      <c r="J27" t="s">
+        <v>257</v>
+      </c>
+      <c r="K27" t="s">
+        <v>258</v>
+      </c>
+      <c r="L27" t="s">
+        <v>259</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>251</v>
+      </c>
+      <c r="O27" t="s">
+        <v>53</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="n">
+        <v>5</v>
+      </c>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>260</v>
+      </c>
+      <c r="X27" t="s">
+        <v>261</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>63272</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>263</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>264</v>
+      </c>
+      <c r="J28" t="s">
+        <v>265</v>
+      </c>
+      <c r="K28" t="s">
+        <v>266</v>
+      </c>
+      <c r="L28" t="s">
+        <v>267</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>251</v>
+      </c>
+      <c r="O28" t="s">
+        <v>136</v>
+      </c>
+      <c r="P28" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>268</v>
+      </c>
+      <c r="X28" t="s">
+        <v>269</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>63272</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>271</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>272</v>
+      </c>
+      <c r="J29" t="s">
+        <v>273</v>
+      </c>
+      <c r="K29" t="s">
+        <v>274</v>
+      </c>
+      <c r="L29" t="s">
+        <v>275</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>162</v>
+      </c>
+      <c r="O29" t="s">
+        <v>136</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="n">
+        <v>5</v>
+      </c>
+      <c r="R29" t="s"/>
+      <c r="S29" t="n">
+        <v>5</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>276</v>
+      </c>
+      <c r="X29" t="s">
+        <v>277</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>63272</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>279</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>280</v>
+      </c>
+      <c r="J30" t="s">
+        <v>281</v>
+      </c>
+      <c r="K30" t="s">
+        <v>282</v>
+      </c>
+      <c r="L30" t="s">
+        <v>283</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>162</v>
+      </c>
+      <c r="O30" t="s">
+        <v>284</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="s"/>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>285</v>
+      </c>
+      <c r="X30" t="s">
+        <v>286</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>63272</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>288</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>289</v>
+      </c>
+      <c r="J31" t="s">
+        <v>290</v>
+      </c>
+      <c r="K31" t="s">
+        <v>291</v>
+      </c>
+      <c r="L31" t="s">
+        <v>292</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>162</v>
+      </c>
+      <c r="O31" t="s">
+        <v>53</v>
+      </c>
+      <c r="P31" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="n">
+        <v>4</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>293</v>
+      </c>
+      <c r="X31" t="s">
+        <v>294</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>63272</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>296</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>297</v>
+      </c>
+      <c r="J32" t="s">
+        <v>298</v>
+      </c>
+      <c r="K32" t="s">
+        <v>299</v>
+      </c>
+      <c r="L32" t="s">
+        <v>300</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>301</v>
+      </c>
+      <c r="O32" t="s">
+        <v>284</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="s"/>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>302</v>
+      </c>
+      <c r="X32" t="s">
+        <v>303</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>63272</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>305</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>306</v>
+      </c>
+      <c r="J33" t="s">
+        <v>307</v>
+      </c>
+      <c r="K33" t="s">
+        <v>308</v>
+      </c>
+      <c r="L33" t="s">
+        <v>309</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>301</v>
+      </c>
+      <c r="O33" t="s">
+        <v>284</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="s"/>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>310</v>
+      </c>
+      <c r="X33" t="s">
+        <v>311</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>63272</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>313</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>314</v>
+      </c>
+      <c r="J34" t="s">
+        <v>315</v>
+      </c>
+      <c r="K34" t="s">
+        <v>316</v>
+      </c>
+      <c r="L34" t="s">
+        <v>317</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s"/>
+      <c r="O34" t="s"/>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="s"/>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>318</v>
+      </c>
+      <c r="X34" t="s">
+        <v>319</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>63272</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>321</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>322</v>
+      </c>
+      <c r="J35" t="s">
+        <v>323</v>
+      </c>
+      <c r="K35" t="s">
+        <v>324</v>
+      </c>
+      <c r="L35" t="s">
+        <v>325</v>
+      </c>
+      <c r="M35" t="n">
+        <v>3</v>
+      </c>
+      <c r="N35" t="s">
+        <v>326</v>
+      </c>
+      <c r="O35" t="s">
+        <v>136</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="n">
+        <v>3</v>
+      </c>
+      <c r="S35" t="n">
+        <v>4</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>3</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>327</v>
+      </c>
+      <c r="X35" t="s">
+        <v>328</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>63272</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>330</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>331</v>
+      </c>
+      <c r="J36" t="s">
+        <v>332</v>
+      </c>
+      <c r="K36" t="s">
+        <v>333</v>
+      </c>
+      <c r="L36" t="s">
+        <v>334</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>326</v>
+      </c>
+      <c r="O36" t="s">
+        <v>136</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="n">
+        <v>5</v>
+      </c>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>335</v>
+      </c>
+      <c r="X36" t="s">
+        <v>336</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>63272</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>338</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>339</v>
+      </c>
+      <c r="J37" t="s">
+        <v>340</v>
+      </c>
+      <c r="K37" t="s">
+        <v>341</v>
+      </c>
+      <c r="L37" t="s">
+        <v>342</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>326</v>
+      </c>
+      <c r="O37" t="s">
+        <v>53</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="n">
+        <v>5</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>343</v>
+      </c>
+      <c r="X37" t="s">
+        <v>344</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>63272</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>346</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>347</v>
+      </c>
+      <c r="J38" t="s">
+        <v>348</v>
+      </c>
+      <c r="K38" t="s">
+        <v>349</v>
+      </c>
+      <c r="L38" t="s">
+        <v>350</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>351</v>
+      </c>
+      <c r="O38" t="s">
+        <v>53</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="n">
+        <v>5</v>
+      </c>
+      <c r="S38" t="n">
+        <v>5</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>352</v>
+      </c>
+      <c r="X38" t="s">
+        <v>353</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>63272</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>355</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>356</v>
+      </c>
+      <c r="J39" t="s">
+        <v>357</v>
+      </c>
+      <c r="K39" t="s">
+        <v>358</v>
+      </c>
+      <c r="L39" t="s">
+        <v>359</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>360</v>
+      </c>
+      <c r="O39" t="s">
+        <v>361</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="n">
+        <v>5</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>362</v>
+      </c>
+      <c r="X39" t="s">
+        <v>363</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>63272</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>365</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>366</v>
+      </c>
+      <c r="J40" t="s">
+        <v>367</v>
+      </c>
+      <c r="K40" t="s">
+        <v>368</v>
+      </c>
+      <c r="L40" t="s">
+        <v>369</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>351</v>
+      </c>
+      <c r="O40" t="s">
+        <v>136</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="s"/>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>362</v>
+      </c>
+      <c r="X40" t="s">
+        <v>363</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>63272</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>371</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>372</v>
+      </c>
+      <c r="J41" t="s">
+        <v>373</v>
+      </c>
+      <c r="K41" t="s">
+        <v>374</v>
+      </c>
+      <c r="L41" t="s">
+        <v>375</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>376</v>
+      </c>
+      <c r="O41" t="s">
+        <v>284</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="s"/>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>377</v>
+      </c>
+      <c r="X41" t="s">
+        <v>378</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>63272</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>380</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>381</v>
+      </c>
+      <c r="J42" t="s">
+        <v>382</v>
+      </c>
+      <c r="K42" t="s">
+        <v>383</v>
+      </c>
+      <c r="L42" t="s">
+        <v>384</v>
+      </c>
+      <c r="M42" t="n">
+        <v>4</v>
+      </c>
+      <c r="N42" t="s">
+        <v>376</v>
+      </c>
+      <c r="O42" t="s">
+        <v>53</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="n">
+        <v>4</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>4</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>385</v>
+      </c>
+      <c r="X42" t="s">
+        <v>386</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>63272</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>388</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>389</v>
+      </c>
+      <c r="J43" t="s">
+        <v>382</v>
+      </c>
+      <c r="K43" t="s">
+        <v>390</v>
+      </c>
+      <c r="L43" t="s">
+        <v>391</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>376</v>
+      </c>
+      <c r="O43" t="s">
+        <v>136</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="n">
+        <v>5</v>
+      </c>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>392</v>
+      </c>
+      <c r="X43" t="s">
+        <v>393</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>63272</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>395</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>396</v>
+      </c>
+      <c r="J44" t="s">
+        <v>397</v>
+      </c>
+      <c r="K44" t="s">
+        <v>398</v>
+      </c>
+      <c r="L44" t="s">
+        <v>399</v>
+      </c>
+      <c r="M44" t="n">
+        <v>4</v>
+      </c>
+      <c r="N44" t="s">
+        <v>400</v>
+      </c>
+      <c r="O44" t="s">
+        <v>136</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
+      <c r="T44" t="s"/>
+      <c r="U44" t="s"/>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>401</v>
+      </c>
+      <c r="X44" t="s">
+        <v>402</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>63272</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>404</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>405</v>
+      </c>
+      <c r="J45" t="s">
+        <v>406</v>
+      </c>
+      <c r="K45" t="s">
+        <v>407</v>
+      </c>
+      <c r="L45" t="s">
+        <v>408</v>
+      </c>
+      <c r="M45" t="n">
+        <v>4</v>
+      </c>
+      <c r="N45" t="s">
+        <v>400</v>
+      </c>
+      <c r="O45" t="s">
+        <v>53</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="n">
+        <v>4</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>409</v>
+      </c>
+      <c r="X45" t="s">
+        <v>410</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>63272</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>412</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>413</v>
+      </c>
+      <c r="J46" t="s">
+        <v>414</v>
+      </c>
+      <c r="K46" t="s">
+        <v>415</v>
+      </c>
+      <c r="L46" t="s">
+        <v>416</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s">
+        <v>400</v>
+      </c>
+      <c r="O46" t="s">
+        <v>284</v>
+      </c>
+      <c r="P46" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="n">
+        <v>3</v>
+      </c>
+      <c r="S46" t="s"/>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>417</v>
+      </c>
+      <c r="X46" t="s">
+        <v>418</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>63272</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>420</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>421</v>
+      </c>
+      <c r="J47" t="s">
+        <v>422</v>
+      </c>
+      <c r="K47" t="s">
+        <v>423</v>
+      </c>
+      <c r="L47" t="s">
+        <v>424</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
+        <v>425</v>
+      </c>
+      <c r="O47" t="s">
+        <v>101</v>
+      </c>
+      <c r="P47" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="s"/>
+      <c r="S47" t="n">
+        <v>5</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>426</v>
+      </c>
+      <c r="X47" t="s">
+        <v>427</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>63272</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>429</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>430</v>
+      </c>
+      <c r="J48" t="s">
+        <v>431</v>
+      </c>
+      <c r="K48" t="s">
+        <v>432</v>
+      </c>
+      <c r="L48" t="s">
+        <v>433</v>
+      </c>
+      <c r="M48" t="n">
+        <v>4</v>
+      </c>
+      <c r="N48" t="s">
+        <v>425</v>
+      </c>
+      <c r="O48" t="s">
+        <v>53</v>
+      </c>
+      <c r="P48" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="s"/>
+      <c r="S48" t="s"/>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>434</v>
+      </c>
+      <c r="X48" t="s">
+        <v>435</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>63272</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>437</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>438</v>
+      </c>
+      <c r="J49" t="s">
+        <v>439</v>
+      </c>
+      <c r="K49" t="s">
+        <v>440</v>
+      </c>
+      <c r="L49" t="s">
+        <v>441</v>
+      </c>
+      <c r="M49" t="n">
+        <v>4</v>
+      </c>
+      <c r="N49" t="s">
+        <v>442</v>
+      </c>
+      <c r="O49" t="s">
+        <v>136</v>
+      </c>
+      <c r="P49" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="n">
+        <v>4</v>
+      </c>
+      <c r="S49" t="s"/>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>4</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>443</v>
+      </c>
+      <c r="X49" t="s">
+        <v>444</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>63272</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>446</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>447</v>
+      </c>
+      <c r="J50" t="s">
+        <v>448</v>
+      </c>
+      <c r="K50" t="s">
+        <v>449</v>
+      </c>
+      <c r="L50" t="s">
+        <v>450</v>
+      </c>
+      <c r="M50" t="n">
+        <v>4</v>
+      </c>
+      <c r="N50" t="s">
+        <v>451</v>
+      </c>
+      <c r="O50" t="s">
+        <v>136</v>
+      </c>
+      <c r="P50" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="n">
+        <v>4</v>
+      </c>
+      <c r="S50" t="s"/>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>4</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>452</v>
+      </c>
+      <c r="X50" t="s">
+        <v>453</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>63272</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>455</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>456</v>
+      </c>
+      <c r="J51" t="s">
+        <v>457</v>
+      </c>
+      <c r="K51" t="s">
+        <v>458</v>
+      </c>
+      <c r="L51" t="s">
+        <v>459</v>
+      </c>
+      <c r="M51" t="n">
+        <v>5</v>
+      </c>
+      <c r="N51" t="s">
+        <v>442</v>
+      </c>
+      <c r="O51" t="s">
+        <v>53</v>
+      </c>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="s"/>
+      <c r="S51" t="s"/>
+      <c r="T51" t="s"/>
+      <c r="U51" t="s"/>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>460</v>
+      </c>
+      <c r="X51" t="s">
+        <v>461</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>63272</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>463</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>464</v>
+      </c>
+      <c r="J52" t="s">
+        <v>465</v>
+      </c>
+      <c r="K52" t="s">
+        <v>466</v>
+      </c>
+      <c r="L52" t="s">
+        <v>467</v>
+      </c>
+      <c r="M52" t="n">
+        <v>4</v>
+      </c>
+      <c r="N52" t="s">
+        <v>442</v>
+      </c>
+      <c r="O52" t="s">
+        <v>101</v>
+      </c>
+      <c r="P52" t="s"/>
+      <c r="Q52" t="s"/>
+      <c r="R52" t="s"/>
+      <c r="S52" t="s"/>
+      <c r="T52" t="s"/>
+      <c r="U52" t="s"/>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>468</v>
+      </c>
+      <c r="X52" t="s">
+        <v>469</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>63272</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>471</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>472</v>
+      </c>
+      <c r="J53" t="s">
+        <v>473</v>
+      </c>
+      <c r="K53" t="s">
+        <v>474</v>
+      </c>
+      <c r="L53" t="s">
+        <v>475</v>
+      </c>
+      <c r="M53" t="n">
+        <v>3</v>
+      </c>
+      <c r="N53" t="s">
+        <v>451</v>
+      </c>
+      <c r="O53" t="s">
+        <v>53</v>
+      </c>
+      <c r="P53" t="s"/>
+      <c r="Q53" t="s"/>
+      <c r="R53" t="s"/>
+      <c r="S53" t="s"/>
+      <c r="T53" t="s"/>
+      <c r="U53" t="s"/>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>476</v>
+      </c>
+      <c r="X53" t="s">
+        <v>477</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>63272</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>479</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>480</v>
+      </c>
+      <c r="J54" t="s">
+        <v>473</v>
+      </c>
+      <c r="K54" t="s">
+        <v>481</v>
+      </c>
+      <c r="L54" t="s">
+        <v>482</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s">
+        <v>451</v>
+      </c>
+      <c r="O54" t="s">
+        <v>53</v>
+      </c>
+      <c r="P54" t="s"/>
+      <c r="Q54" t="s"/>
+      <c r="R54" t="s"/>
+      <c r="S54" t="s"/>
+      <c r="T54" t="s"/>
+      <c r="U54" t="s"/>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>483</v>
+      </c>
+      <c r="X54" t="s">
+        <v>484</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>63272</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>486</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>487</v>
+      </c>
+      <c r="J55" t="s">
+        <v>488</v>
+      </c>
+      <c r="K55" t="s">
+        <v>489</v>
+      </c>
+      <c r="L55" t="s">
+        <v>490</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s">
+        <v>491</v>
+      </c>
+      <c r="O55" t="s">
+        <v>136</v>
+      </c>
+      <c r="P55" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>5</v>
+      </c>
+      <c r="R55" t="s"/>
+      <c r="S55" t="s"/>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>483</v>
+      </c>
+      <c r="X55" t="s">
+        <v>484</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>63272</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>493</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>494</v>
+      </c>
+      <c r="J56" t="s">
+        <v>495</v>
+      </c>
+      <c r="K56" t="s">
+        <v>496</v>
+      </c>
+      <c r="L56" t="s">
+        <v>497</v>
+      </c>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s"/>
+      <c r="O56" t="s"/>
+      <c r="P56" t="s"/>
+      <c r="Q56" t="s"/>
+      <c r="R56" t="s"/>
+      <c r="S56" t="s"/>
+      <c r="T56" t="s"/>
+      <c r="U56" t="s"/>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>498</v>
+      </c>
+      <c r="X56" t="s">
+        <v>499</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>63272</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>501</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>502</v>
+      </c>
+      <c r="J57" t="s">
+        <v>503</v>
+      </c>
+      <c r="K57" t="s">
+        <v>504</v>
+      </c>
+      <c r="L57" t="s">
+        <v>505</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s">
+        <v>506</v>
+      </c>
+      <c r="O57" t="s">
+        <v>136</v>
+      </c>
+      <c r="P57" t="s"/>
+      <c r="Q57" t="n">
+        <v>5</v>
+      </c>
+      <c r="R57" t="s"/>
+      <c r="S57" t="n">
+        <v>5</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>507</v>
+      </c>
+      <c r="X57" t="s">
+        <v>508</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>63272</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>510</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>511</v>
+      </c>
+      <c r="J58" t="s">
+        <v>512</v>
+      </c>
+      <c r="K58" t="s">
+        <v>513</v>
+      </c>
+      <c r="L58" t="s">
+        <v>514</v>
+      </c>
+      <c r="M58" t="n">
+        <v>5</v>
+      </c>
+      <c r="N58" t="s">
+        <v>506</v>
+      </c>
+      <c r="O58" t="s">
+        <v>136</v>
+      </c>
+      <c r="P58" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q58" t="s"/>
+      <c r="R58" t="s"/>
+      <c r="S58" t="n">
+        <v>5</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>515</v>
+      </c>
+      <c r="X58" t="s">
+        <v>516</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>63272</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>518</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>519</v>
+      </c>
+      <c r="J59" t="s">
+        <v>520</v>
+      </c>
+      <c r="K59" t="s">
+        <v>521</v>
+      </c>
+      <c r="L59" t="s">
+        <v>522</v>
+      </c>
+      <c r="M59" t="n">
+        <v>5</v>
+      </c>
+      <c r="N59" t="s">
+        <v>506</v>
+      </c>
+      <c r="O59" t="s">
+        <v>136</v>
+      </c>
+      <c r="P59" t="s"/>
+      <c r="Q59" t="n">
+        <v>5</v>
+      </c>
+      <c r="R59" t="n">
+        <v>5</v>
+      </c>
+      <c r="S59" t="s"/>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>523</v>
+      </c>
+      <c r="X59" t="s">
+        <v>524</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>63272</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>526</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>527</v>
+      </c>
+      <c r="J60" t="s">
+        <v>528</v>
+      </c>
+      <c r="K60" t="s">
+        <v>529</v>
+      </c>
+      <c r="L60" t="s">
+        <v>530</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s">
+        <v>506</v>
+      </c>
+      <c r="O60" t="s">
+        <v>136</v>
+      </c>
+      <c r="P60" t="s"/>
+      <c r="Q60" t="n">
+        <v>4</v>
+      </c>
+      <c r="R60" t="s"/>
+      <c r="S60" t="s"/>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>4</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>531</v>
+      </c>
+      <c r="X60" t="s">
+        <v>532</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>63272</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>534</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>535</v>
+      </c>
+      <c r="J61" t="s">
+        <v>536</v>
+      </c>
+      <c r="K61" t="s">
+        <v>537</v>
+      </c>
+      <c r="L61" t="s">
+        <v>538</v>
+      </c>
+      <c r="M61" t="n">
+        <v>4</v>
+      </c>
+      <c r="N61" t="s">
+        <v>539</v>
+      </c>
+      <c r="O61" t="s">
+        <v>136</v>
+      </c>
+      <c r="P61" t="s"/>
+      <c r="Q61" t="n">
+        <v>4</v>
+      </c>
+      <c r="R61" t="s"/>
+      <c r="S61" t="n">
+        <v>4</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>4</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>531</v>
+      </c>
+      <c r="X61" t="s">
+        <v>532</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>63272</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>541</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>542</v>
+      </c>
+      <c r="J62" t="s">
+        <v>543</v>
+      </c>
+      <c r="K62" t="s">
+        <v>544</v>
+      </c>
+      <c r="L62" t="s">
+        <v>545</v>
+      </c>
+      <c r="M62" t="n">
+        <v>5</v>
+      </c>
+      <c r="N62" t="s">
+        <v>539</v>
+      </c>
+      <c r="O62" t="s">
+        <v>53</v>
+      </c>
+      <c r="P62" t="s"/>
+      <c r="Q62" t="s"/>
+      <c r="R62" t="s"/>
+      <c r="S62" t="s"/>
+      <c r="T62" t="s"/>
+      <c r="U62" t="s"/>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>546</v>
+      </c>
+      <c r="X62" t="s">
+        <v>547</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>63272</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>549</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>550</v>
+      </c>
+      <c r="J63" t="s">
+        <v>543</v>
+      </c>
+      <c r="K63" t="s">
+        <v>551</v>
+      </c>
+      <c r="L63" t="s">
+        <v>552</v>
+      </c>
+      <c r="M63" t="n">
+        <v>5</v>
+      </c>
+      <c r="N63" t="s">
+        <v>539</v>
+      </c>
+      <c r="O63" t="s">
+        <v>284</v>
+      </c>
+      <c r="P63" t="s"/>
+      <c r="Q63" t="s"/>
+      <c r="R63" t="s"/>
+      <c r="S63" t="s"/>
+      <c r="T63" t="s"/>
+      <c r="U63" t="s"/>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s">
+        <v>546</v>
+      </c>
+      <c r="X63" t="s">
+        <v>547</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>63272</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>554</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>555</v>
+      </c>
+      <c r="J64" t="s">
+        <v>556</v>
+      </c>
+      <c r="K64" t="s">
+        <v>557</v>
+      </c>
+      <c r="L64" t="s">
+        <v>558</v>
+      </c>
+      <c r="M64" t="n">
+        <v>4</v>
+      </c>
+      <c r="N64" t="s">
+        <v>491</v>
+      </c>
+      <c r="O64" t="s">
+        <v>53</v>
+      </c>
+      <c r="P64" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q64" t="s"/>
+      <c r="R64" t="n">
+        <v>5</v>
+      </c>
+      <c r="S64" t="s"/>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>559</v>
+      </c>
+      <c r="X64" t="s">
+        <v>560</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>63272</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>562</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>563</v>
+      </c>
+      <c r="J65" t="s">
+        <v>564</v>
+      </c>
+      <c r="K65" t="s">
+        <v>565</v>
+      </c>
+      <c r="L65" t="s">
+        <v>566</v>
+      </c>
+      <c r="M65" t="n">
+        <v>5</v>
+      </c>
+      <c r="N65" t="s">
+        <v>491</v>
+      </c>
+      <c r="O65" t="s">
+        <v>136</v>
+      </c>
+      <c r="P65" t="s"/>
+      <c r="Q65" t="s"/>
+      <c r="R65" t="s"/>
+      <c r="S65" t="s"/>
+      <c r="T65" t="s"/>
+      <c r="U65" t="s"/>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>567</v>
+      </c>
+      <c r="X65" t="s">
+        <v>568</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>63272</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>570</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>571</v>
+      </c>
+      <c r="J66" t="s">
+        <v>572</v>
+      </c>
+      <c r="K66" t="s">
+        <v>573</v>
+      </c>
+      <c r="L66" t="s">
+        <v>574</v>
+      </c>
+      <c r="M66" t="n">
+        <v>5</v>
+      </c>
+      <c r="N66" t="s">
+        <v>360</v>
+      </c>
+      <c r="O66" t="s">
+        <v>53</v>
+      </c>
+      <c r="P66" t="s"/>
+      <c r="Q66" t="s"/>
+      <c r="R66" t="s"/>
+      <c r="S66" t="n">
+        <v>5</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>5</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>575</v>
+      </c>
+      <c r="X66" t="s">
+        <v>576</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>63272</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>578</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>579</v>
+      </c>
+      <c r="J67" t="s">
+        <v>580</v>
+      </c>
+      <c r="K67" t="s">
+        <v>581</v>
+      </c>
+      <c r="L67" t="s">
+        <v>582</v>
+      </c>
+      <c r="M67" t="n">
+        <v>5</v>
+      </c>
+      <c r="N67" t="s">
+        <v>583</v>
+      </c>
+      <c r="O67" t="s">
+        <v>136</v>
+      </c>
+      <c r="P67" t="s"/>
+      <c r="Q67" t="s"/>
+      <c r="R67" t="s"/>
+      <c r="S67" t="s"/>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>5</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>584</v>
+      </c>
+      <c r="X67" t="s">
+        <v>585</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>63272</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>587</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>588</v>
+      </c>
+      <c r="J68" t="s">
+        <v>589</v>
+      </c>
+      <c r="K68" t="s">
+        <v>590</v>
+      </c>
+      <c r="L68" t="s">
+        <v>591</v>
+      </c>
+      <c r="M68" t="n">
+        <v>4</v>
+      </c>
+      <c r="N68" t="s">
+        <v>360</v>
+      </c>
+      <c r="O68" t="s">
+        <v>284</v>
+      </c>
+      <c r="P68" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q68" t="s"/>
+      <c r="R68" t="s"/>
+      <c r="S68" t="s"/>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>4</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s">
+        <v>592</v>
+      </c>
+      <c r="X68" t="s">
+        <v>593</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>63272</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>595</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>596</v>
+      </c>
+      <c r="J69" t="s">
+        <v>597</v>
+      </c>
+      <c r="K69" t="s">
+        <v>598</v>
+      </c>
+      <c r="L69" t="s">
+        <v>599</v>
+      </c>
+      <c r="M69" t="n">
+        <v>5</v>
+      </c>
+      <c r="N69" t="s">
+        <v>360</v>
+      </c>
+      <c r="O69" t="s">
+        <v>53</v>
+      </c>
+      <c r="P69" t="s"/>
+      <c r="Q69" t="s"/>
+      <c r="R69" t="s"/>
+      <c r="S69" t="s"/>
+      <c r="T69" t="s"/>
+      <c r="U69" t="s"/>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>600</v>
+      </c>
+      <c r="X69" t="s">
+        <v>601</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>63272</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>603</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>604</v>
+      </c>
+      <c r="J70" t="s">
+        <v>605</v>
+      </c>
+      <c r="K70" t="s">
+        <v>606</v>
+      </c>
+      <c r="L70" t="s">
+        <v>607</v>
+      </c>
+      <c r="M70" t="n">
+        <v>5</v>
+      </c>
+      <c r="N70" t="s"/>
+      <c r="O70" t="s"/>
+      <c r="P70" t="s"/>
+      <c r="Q70" t="s"/>
+      <c r="R70" t="s"/>
+      <c r="S70" t="s"/>
+      <c r="T70" t="s"/>
+      <c r="U70" t="s"/>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s">
+        <v>608</v>
+      </c>
+      <c r="X70" t="s">
+        <v>609</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>63272</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>611</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>612</v>
+      </c>
+      <c r="J71" t="s">
+        <v>613</v>
+      </c>
+      <c r="K71" t="s">
+        <v>614</v>
+      </c>
+      <c r="L71" t="s">
+        <v>615</v>
+      </c>
+      <c r="M71" t="n">
+        <v>5</v>
+      </c>
+      <c r="N71" t="s">
+        <v>360</v>
+      </c>
+      <c r="O71" t="s">
+        <v>136</v>
+      </c>
+      <c r="P71" t="s"/>
+      <c r="Q71" t="s"/>
+      <c r="R71" t="s"/>
+      <c r="S71" t="s"/>
+      <c r="T71" t="s"/>
+      <c r="U71" t="s"/>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s">
+        <v>616</v>
+      </c>
+      <c r="X71" t="s">
+        <v>617</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>63272</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>619</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>620</v>
+      </c>
+      <c r="J72" t="s">
+        <v>621</v>
+      </c>
+      <c r="K72" t="s">
+        <v>622</v>
+      </c>
+      <c r="L72" t="s">
+        <v>623</v>
+      </c>
+      <c r="M72" t="n">
+        <v>5</v>
+      </c>
+      <c r="N72" t="s">
+        <v>360</v>
+      </c>
+      <c r="O72" t="s">
+        <v>136</v>
+      </c>
+      <c r="P72" t="s"/>
+      <c r="Q72" t="s"/>
+      <c r="R72" t="s"/>
+      <c r="S72" t="s"/>
+      <c r="T72" t="s"/>
+      <c r="U72" t="s"/>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s">
+        <v>624</v>
+      </c>
+      <c r="X72" t="s">
+        <v>625</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>63272</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>627</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>628</v>
+      </c>
+      <c r="J73" t="s">
+        <v>629</v>
+      </c>
+      <c r="K73" t="s">
+        <v>630</v>
+      </c>
+      <c r="L73" t="s">
+        <v>631</v>
+      </c>
+      <c r="M73" t="n">
+        <v>4</v>
+      </c>
+      <c r="N73" t="s">
+        <v>360</v>
+      </c>
+      <c r="O73" t="s">
+        <v>361</v>
+      </c>
+      <c r="P73" t="s"/>
+      <c r="Q73" t="s"/>
+      <c r="R73" t="s"/>
+      <c r="S73" t="s"/>
+      <c r="T73" t="s"/>
+      <c r="U73" t="s"/>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s">
+        <v>632</v>
+      </c>
+      <c r="X73" t="s">
+        <v>633</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>63272</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>635</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>636</v>
+      </c>
+      <c r="J74" t="s">
+        <v>637</v>
+      </c>
+      <c r="K74" t="s">
+        <v>638</v>
+      </c>
+      <c r="L74" t="s">
+        <v>639</v>
+      </c>
+      <c r="M74" t="n">
+        <v>5</v>
+      </c>
+      <c r="N74" t="s">
+        <v>640</v>
+      </c>
+      <c r="O74" t="s">
+        <v>101</v>
+      </c>
+      <c r="P74" t="s"/>
+      <c r="Q74" t="s"/>
+      <c r="R74" t="s"/>
+      <c r="S74" t="s"/>
+      <c r="T74" t="s"/>
+      <c r="U74" t="s"/>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s">
+        <v>641</v>
+      </c>
+      <c r="X74" t="s">
+        <v>642</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>63272</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>644</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>645</v>
+      </c>
+      <c r="J75" t="s">
+        <v>646</v>
+      </c>
+      <c r="K75" t="s">
+        <v>647</v>
+      </c>
+      <c r="L75" t="s">
+        <v>648</v>
+      </c>
+      <c r="M75" t="n">
+        <v>5</v>
+      </c>
+      <c r="N75" t="s">
+        <v>640</v>
+      </c>
+      <c r="O75" t="s">
+        <v>136</v>
+      </c>
+      <c r="P75" t="s"/>
+      <c r="Q75" t="s"/>
+      <c r="R75" t="s"/>
+      <c r="S75" t="s"/>
+      <c r="T75" t="s"/>
+      <c r="U75" t="s"/>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s">
+        <v>641</v>
+      </c>
+      <c r="X75" t="s">
+        <v>642</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>63272</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>650</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>651</v>
+      </c>
+      <c r="J76" t="s">
+        <v>652</v>
+      </c>
+      <c r="K76" t="s">
+        <v>653</v>
+      </c>
+      <c r="L76" t="s">
+        <v>654</v>
+      </c>
+      <c r="M76" t="n">
+        <v>5</v>
+      </c>
+      <c r="N76" t="s">
+        <v>655</v>
+      </c>
+      <c r="O76" t="s">
+        <v>53</v>
+      </c>
+      <c r="P76" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q76" t="s"/>
+      <c r="R76" t="n">
+        <v>3</v>
+      </c>
+      <c r="S76" t="s"/>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>5</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s">
+        <v>656</v>
+      </c>
+      <c r="X76" t="s">
+        <v>657</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>63272</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>659</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>660</v>
+      </c>
+      <c r="J77" t="s">
+        <v>661</v>
+      </c>
+      <c r="K77" t="s">
+        <v>662</v>
+      </c>
+      <c r="L77" t="s">
+        <v>663</v>
+      </c>
+      <c r="M77" t="n">
+        <v>5</v>
+      </c>
+      <c r="N77" t="s">
+        <v>655</v>
+      </c>
+      <c r="O77" t="s">
+        <v>284</v>
+      </c>
+      <c r="P77" t="s"/>
+      <c r="Q77" t="s"/>
+      <c r="R77" t="s"/>
+      <c r="S77" t="s"/>
+      <c r="T77" t="s"/>
+      <c r="U77" t="s"/>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s">
+        <v>664</v>
+      </c>
+      <c r="X77" t="s">
+        <v>665</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>63272</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>667</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>668</v>
+      </c>
+      <c r="J78" t="s">
+        <v>669</v>
+      </c>
+      <c r="K78" t="s">
+        <v>670</v>
+      </c>
+      <c r="L78" t="s">
+        <v>671</v>
+      </c>
+      <c r="M78" t="n">
+        <v>5</v>
+      </c>
+      <c r="N78" t="s">
+        <v>655</v>
+      </c>
+      <c r="O78" t="s">
+        <v>53</v>
+      </c>
+      <c r="P78" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q78" t="s"/>
+      <c r="R78" t="s"/>
+      <c r="S78" t="s"/>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>5</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s">
+        <v>672</v>
+      </c>
+      <c r="X78" t="s">
+        <v>673</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>63272</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>675</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>676</v>
+      </c>
+      <c r="J79" t="s">
+        <v>669</v>
+      </c>
+      <c r="K79" t="s">
+        <v>677</v>
+      </c>
+      <c r="L79" t="s">
+        <v>678</v>
+      </c>
+      <c r="M79" t="n">
+        <v>5</v>
+      </c>
+      <c r="N79" t="s">
+        <v>655</v>
+      </c>
+      <c r="O79" t="s">
+        <v>53</v>
+      </c>
+      <c r="P79" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>5</v>
+      </c>
+      <c r="R79" t="n">
+        <v>5</v>
+      </c>
+      <c r="S79" t="n">
+        <v>5</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>5</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s">
+        <v>672</v>
+      </c>
+      <c r="X79" t="s">
+        <v>673</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>63272</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>680</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>681</v>
+      </c>
+      <c r="J80" t="s">
+        <v>682</v>
+      </c>
+      <c r="K80" t="s">
+        <v>683</v>
+      </c>
+      <c r="L80" t="s">
+        <v>684</v>
+      </c>
+      <c r="M80" t="n">
+        <v>4</v>
+      </c>
+      <c r="N80" t="s">
+        <v>655</v>
+      </c>
+      <c r="O80" t="s">
+        <v>53</v>
+      </c>
+      <c r="P80" t="s"/>
+      <c r="Q80" t="s"/>
+      <c r="R80" t="s"/>
+      <c r="S80" t="s"/>
+      <c r="T80" t="s"/>
+      <c r="U80" t="s"/>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s">
+        <v>685</v>
+      </c>
+      <c r="X80" t="s">
+        <v>686</v>
+      </c>
+      <c r="Y80" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>63272</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>688</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>689</v>
+      </c>
+      <c r="J81" t="s">
+        <v>690</v>
+      </c>
+      <c r="K81" t="s">
+        <v>691</v>
+      </c>
+      <c r="L81" t="s">
+        <v>692</v>
+      </c>
+      <c r="M81" t="n">
+        <v>3</v>
+      </c>
+      <c r="N81" t="s">
+        <v>693</v>
+      </c>
+      <c r="O81" t="s">
+        <v>53</v>
+      </c>
+      <c r="P81" t="s"/>
+      <c r="Q81" t="n">
+        <v>4</v>
+      </c>
+      <c r="R81" t="s"/>
+      <c r="S81" t="n">
+        <v>4</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>2</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s">
+        <v>694</v>
+      </c>
+      <c r="X81" t="s">
+        <v>695</v>
+      </c>
+      <c r="Y81" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>63272</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>697</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>698</v>
+      </c>
+      <c r="J82" t="s">
+        <v>699</v>
+      </c>
+      <c r="K82" t="s">
+        <v>700</v>
+      </c>
+      <c r="L82" t="s">
+        <v>701</v>
+      </c>
+      <c r="M82" t="n">
+        <v>5</v>
+      </c>
+      <c r="N82" t="s">
+        <v>702</v>
+      </c>
+      <c r="O82" t="s">
+        <v>53</v>
+      </c>
+      <c r="P82" t="s"/>
+      <c r="Q82" t="n">
+        <v>5</v>
+      </c>
+      <c r="R82" t="s"/>
+      <c r="S82" t="n">
+        <v>5</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>5</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s">
+        <v>703</v>
+      </c>
+      <c r="X82" t="s">
+        <v>704</v>
+      </c>
+      <c r="Y82" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>63272</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>706</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>707</v>
+      </c>
+      <c r="J83" t="s">
+        <v>708</v>
+      </c>
+      <c r="K83" t="s">
+        <v>709</v>
+      </c>
+      <c r="L83" t="s">
+        <v>710</v>
+      </c>
+      <c r="M83" t="n">
+        <v>4</v>
+      </c>
+      <c r="N83" t="s">
+        <v>711</v>
+      </c>
+      <c r="O83" t="s">
+        <v>284</v>
+      </c>
+      <c r="P83" t="s"/>
+      <c r="Q83" t="s"/>
+      <c r="R83" t="s"/>
+      <c r="S83" t="s"/>
+      <c r="T83" t="s"/>
+      <c r="U83" t="s"/>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s">
+        <v>712</v>
+      </c>
+      <c r="X83" t="s">
+        <v>713</v>
+      </c>
+      <c r="Y83" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>63272</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>715</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>716</v>
+      </c>
+      <c r="J84" t="s">
+        <v>717</v>
+      </c>
+      <c r="K84" t="s">
+        <v>718</v>
+      </c>
+      <c r="L84" t="s">
+        <v>719</v>
+      </c>
+      <c r="M84" t="n">
+        <v>5</v>
+      </c>
+      <c r="N84" t="s">
+        <v>711</v>
+      </c>
+      <c r="O84" t="s">
+        <v>101</v>
+      </c>
+      <c r="P84" t="s"/>
+      <c r="Q84" t="n">
+        <v>5</v>
+      </c>
+      <c r="R84" t="n">
+        <v>4</v>
+      </c>
+      <c r="S84" t="s"/>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>5</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s">
+        <v>712</v>
+      </c>
+      <c r="X84" t="s">
+        <v>713</v>
+      </c>
+      <c r="Y84" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>63272</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>721</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>722</v>
+      </c>
+      <c r="J85" t="s">
+        <v>723</v>
+      </c>
+      <c r="K85" t="s">
+        <v>724</v>
+      </c>
+      <c r="L85" t="s">
+        <v>725</v>
+      </c>
+      <c r="M85" t="n">
+        <v>4</v>
+      </c>
+      <c r="N85" t="s">
+        <v>711</v>
+      </c>
+      <c r="O85" t="s">
+        <v>53</v>
+      </c>
+      <c r="P85" t="s"/>
+      <c r="Q85" t="s"/>
+      <c r="R85" t="s"/>
+      <c r="S85" t="s"/>
+      <c r="T85" t="s"/>
+      <c r="U85" t="s"/>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s">
+        <v>726</v>
+      </c>
+      <c r="X85" t="s">
+        <v>727</v>
+      </c>
+      <c r="Y85" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>63272</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>729</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>730</v>
+      </c>
+      <c r="J86" t="s">
+        <v>731</v>
+      </c>
+      <c r="K86" t="s">
+        <v>732</v>
+      </c>
+      <c r="L86" t="s">
+        <v>733</v>
+      </c>
+      <c r="M86" t="n">
+        <v>5</v>
+      </c>
+      <c r="N86" t="s">
+        <v>711</v>
+      </c>
+      <c r="O86" t="s">
+        <v>136</v>
+      </c>
+      <c r="P86" t="s"/>
+      <c r="Q86" t="s"/>
+      <c r="R86" t="s"/>
+      <c r="S86" t="n">
+        <v>5</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>5</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s">
+        <v>734</v>
+      </c>
+      <c r="X86" t="s">
+        <v>735</v>
+      </c>
+      <c r="Y86" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>63272</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>737</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>738</v>
+      </c>
+      <c r="J87" t="s">
+        <v>739</v>
+      </c>
+      <c r="K87" t="s">
+        <v>598</v>
+      </c>
+      <c r="L87" t="s">
+        <v>740</v>
+      </c>
+      <c r="M87" t="n">
+        <v>5</v>
+      </c>
+      <c r="N87" t="s">
+        <v>711</v>
+      </c>
+      <c r="O87" t="s">
+        <v>136</v>
+      </c>
+      <c r="P87" t="s"/>
+      <c r="Q87" t="s"/>
+      <c r="R87" t="s"/>
+      <c r="S87" t="s"/>
+      <c r="T87" t="s"/>
+      <c r="U87" t="s"/>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s">
+        <v>734</v>
+      </c>
+      <c r="X87" t="s">
+        <v>735</v>
+      </c>
+      <c r="Y87" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>63272</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>742</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>743</v>
+      </c>
+      <c r="J88" t="s">
+        <v>744</v>
+      </c>
+      <c r="K88" t="s">
+        <v>745</v>
+      </c>
+      <c r="L88" t="s">
+        <v>746</v>
+      </c>
+      <c r="M88" t="n">
+        <v>5</v>
+      </c>
+      <c r="N88" t="s"/>
+      <c r="O88" t="s"/>
+      <c r="P88" t="s"/>
+      <c r="Q88" t="s"/>
+      <c r="R88" t="s"/>
+      <c r="S88" t="s"/>
+      <c r="T88" t="s"/>
+      <c r="U88" t="s"/>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s">
+        <v>747</v>
+      </c>
+      <c r="X88" t="s">
+        <v>748</v>
+      </c>
+      <c r="Y88" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>63272</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>750</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>751</v>
+      </c>
+      <c r="J89" t="s">
+        <v>752</v>
+      </c>
+      <c r="K89" t="s">
+        <v>753</v>
+      </c>
+      <c r="L89" t="s">
+        <v>754</v>
+      </c>
+      <c r="M89" t="n">
+        <v>5</v>
+      </c>
+      <c r="N89" t="s">
+        <v>711</v>
+      </c>
+      <c r="O89" t="s">
+        <v>53</v>
+      </c>
+      <c r="P89" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>5</v>
+      </c>
+      <c r="R89" t="s"/>
+      <c r="S89" t="s"/>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>5</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s">
+        <v>747</v>
+      </c>
+      <c r="X89" t="s">
+        <v>748</v>
+      </c>
+      <c r="Y89" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>63272</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>756</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>757</v>
+      </c>
+      <c r="J90" t="s">
+        <v>758</v>
+      </c>
+      <c r="K90" t="s">
+        <v>759</v>
+      </c>
+      <c r="L90" t="s">
+        <v>760</v>
+      </c>
+      <c r="M90" t="n">
+        <v>5</v>
+      </c>
+      <c r="N90" t="s">
+        <v>693</v>
+      </c>
+      <c r="O90" t="s">
+        <v>53</v>
+      </c>
+      <c r="P90" t="s"/>
+      <c r="Q90" t="s"/>
+      <c r="R90" t="n">
+        <v>5</v>
+      </c>
+      <c r="S90" t="n">
+        <v>5</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>5</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s">
+        <v>761</v>
+      </c>
+      <c r="X90" t="s">
+        <v>762</v>
+      </c>
+      <c r="Y90" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>63272</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>764</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>765</v>
+      </c>
+      <c r="J91" t="s">
+        <v>766</v>
+      </c>
+      <c r="K91" t="s">
+        <v>767</v>
+      </c>
+      <c r="L91" t="s">
+        <v>768</v>
+      </c>
+      <c r="M91" t="n">
+        <v>5</v>
+      </c>
+      <c r="N91" t="s"/>
+      <c r="O91" t="s"/>
+      <c r="P91" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>5</v>
+      </c>
+      <c r="R91" t="n">
+        <v>4</v>
+      </c>
+      <c r="S91" t="n">
+        <v>5</v>
+      </c>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>4</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s">
+        <v>769</v>
+      </c>
+      <c r="X91" t="s">
+        <v>770</v>
+      </c>
+      <c r="Y91" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>63272</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" t="s">
+        <v>772</v>
+      </c>
+      <c r="G92" t="s">
+        <v>46</v>
+      </c>
+      <c r="H92" t="s">
+        <v>47</v>
+      </c>
+      <c r="I92" t="s">
+        <v>773</v>
+      </c>
+      <c r="J92" t="s">
+        <v>774</v>
+      </c>
+      <c r="K92" t="s">
+        <v>775</v>
+      </c>
+      <c r="L92" t="s">
+        <v>776</v>
+      </c>
+      <c r="M92" t="n">
+        <v>5</v>
+      </c>
+      <c r="N92" t="s"/>
+      <c r="O92" t="s"/>
+      <c r="P92" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>5</v>
+      </c>
+      <c r="R92" t="n">
+        <v>3</v>
+      </c>
+      <c r="S92" t="n">
+        <v>5</v>
+      </c>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>5</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s">
+        <v>777</v>
+      </c>
+      <c r="X92" t="s">
+        <v>778</v>
+      </c>
+      <c r="Y92" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>63272</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>44</v>
+      </c>
+      <c r="F93" t="s">
+        <v>780</v>
+      </c>
+      <c r="G93" t="s">
+        <v>46</v>
+      </c>
+      <c r="H93" t="s">
+        <v>47</v>
+      </c>
+      <c r="I93" t="s">
+        <v>781</v>
+      </c>
+      <c r="J93" t="s">
+        <v>782</v>
+      </c>
+      <c r="K93" t="s">
+        <v>783</v>
+      </c>
+      <c r="L93" t="s">
+        <v>784</v>
+      </c>
+      <c r="M93" t="n">
+        <v>4</v>
+      </c>
+      <c r="N93" t="s"/>
+      <c r="O93" t="s"/>
+      <c r="P93" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>4</v>
+      </c>
+      <c r="R93" t="n">
+        <v>5</v>
+      </c>
+      <c r="S93" t="n">
+        <v>5</v>
+      </c>
+      <c r="T93" t="s"/>
+      <c r="U93" t="n">
+        <v>4</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s">
+        <v>785</v>
+      </c>
+      <c r="X93" t="s">
+        <v>786</v>
+      </c>
+      <c r="Y93" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>63272</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>44</v>
+      </c>
+      <c r="F94" t="s">
+        <v>788</v>
+      </c>
+      <c r="G94" t="s">
+        <v>46</v>
+      </c>
+      <c r="H94" t="s">
+        <v>47</v>
+      </c>
+      <c r="I94" t="s">
+        <v>789</v>
+      </c>
+      <c r="J94" t="s">
+        <v>790</v>
+      </c>
+      <c r="K94" t="s">
+        <v>791</v>
+      </c>
+      <c r="L94" t="s">
+        <v>792</v>
+      </c>
+      <c r="M94" t="n">
+        <v>5</v>
+      </c>
+      <c r="N94" t="s">
+        <v>793</v>
+      </c>
+      <c r="O94" t="s">
+        <v>136</v>
+      </c>
+      <c r="P94" t="s"/>
+      <c r="Q94" t="s"/>
+      <c r="R94" t="s"/>
+      <c r="S94" t="s"/>
+      <c r="T94" t="s"/>
+      <c r="U94" t="s"/>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s">
+        <v>794</v>
+      </c>
+      <c r="X94" t="s">
+        <v>795</v>
+      </c>
+      <c r="Y94" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>63272</v>
+      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
+      <c r="D95" t="n">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>44</v>
+      </c>
+      <c r="F95" t="s">
+        <v>797</v>
+      </c>
+      <c r="G95" t="s">
+        <v>46</v>
+      </c>
+      <c r="H95" t="s">
+        <v>47</v>
+      </c>
+      <c r="I95" t="s">
+        <v>798</v>
+      </c>
+      <c r="J95" t="s">
+        <v>799</v>
+      </c>
+      <c r="K95" t="s">
+        <v>800</v>
+      </c>
+      <c r="L95" t="s">
+        <v>801</v>
+      </c>
+      <c r="M95" t="n">
+        <v>5</v>
+      </c>
+      <c r="N95" t="s">
+        <v>793</v>
+      </c>
+      <c r="O95" t="s">
+        <v>53</v>
+      </c>
+      <c r="P95" t="s"/>
+      <c r="Q95" t="n">
+        <v>5</v>
+      </c>
+      <c r="R95" t="s"/>
+      <c r="S95" t="s"/>
+      <c r="T95" t="s"/>
+      <c r="U95" t="n">
+        <v>5</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="s">
+        <v>802</v>
+      </c>
+      <c r="X95" t="s">
+        <v>803</v>
+      </c>
+      <c r="Y95" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>63272</v>
+      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
+      <c r="D96" t="n">
+        <v>95</v>
+      </c>
+      <c r="E96" t="s">
+        <v>44</v>
+      </c>
+      <c r="F96" t="s">
+        <v>805</v>
+      </c>
+      <c r="G96" t="s">
+        <v>46</v>
+      </c>
+      <c r="H96" t="s">
+        <v>47</v>
+      </c>
+      <c r="I96" t="s">
+        <v>806</v>
+      </c>
+      <c r="J96" t="s">
+        <v>807</v>
+      </c>
+      <c r="K96" t="s">
+        <v>808</v>
+      </c>
+      <c r="L96" t="s">
+        <v>809</v>
+      </c>
+      <c r="M96" t="n">
+        <v>4</v>
+      </c>
+      <c r="N96" t="s">
+        <v>793</v>
+      </c>
+      <c r="O96" t="s">
+        <v>53</v>
+      </c>
+      <c r="P96" t="s"/>
+      <c r="Q96" t="s"/>
+      <c r="R96" t="n">
+        <v>4</v>
+      </c>
+      <c r="S96" t="n">
+        <v>4</v>
+      </c>
+      <c r="T96" t="s"/>
+      <c r="U96" t="n">
+        <v>4</v>
+      </c>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" t="s">
+        <v>802</v>
+      </c>
+      <c r="X96" t="s">
+        <v>803</v>
+      </c>
+      <c r="Y96" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>63272</v>
+      </c>
+      <c r="B97" t="s"/>
+      <c r="C97" t="s"/>
+      <c r="D97" t="n">
+        <v>96</v>
+      </c>
+      <c r="E97" t="s">
+        <v>44</v>
+      </c>
+      <c r="F97" t="s">
+        <v>811</v>
+      </c>
+      <c r="G97" t="s">
+        <v>46</v>
+      </c>
+      <c r="H97" t="s">
+        <v>47</v>
+      </c>
+      <c r="I97" t="s">
+        <v>812</v>
+      </c>
+      <c r="J97" t="s">
+        <v>813</v>
+      </c>
+      <c r="K97" t="s">
+        <v>814</v>
+      </c>
+      <c r="L97" t="s">
+        <v>815</v>
+      </c>
+      <c r="M97" t="n">
+        <v>5</v>
+      </c>
+      <c r="N97" t="s">
+        <v>793</v>
+      </c>
+      <c r="O97" t="s">
+        <v>284</v>
+      </c>
+      <c r="P97" t="s"/>
+      <c r="Q97" t="s"/>
+      <c r="R97" t="n">
+        <v>5</v>
+      </c>
+      <c r="S97" t="n">
+        <v>5</v>
+      </c>
+      <c r="T97" t="s"/>
+      <c r="U97" t="n">
+        <v>3</v>
+      </c>
+      <c r="V97" t="n">
+        <v>0</v>
+      </c>
+      <c r="W97" t="s">
+        <v>802</v>
+      </c>
+      <c r="X97" t="s">
+        <v>803</v>
+      </c>
+      <c r="Y97" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>63272</v>
+      </c>
+      <c r="B98" t="s"/>
+      <c r="C98" t="s"/>
+      <c r="D98" t="n">
+        <v>97</v>
+      </c>
+      <c r="E98" t="s">
+        <v>44</v>
+      </c>
+      <c r="F98" t="s">
+        <v>817</v>
+      </c>
+      <c r="G98" t="s">
+        <v>46</v>
+      </c>
+      <c r="H98" t="s">
+        <v>47</v>
+      </c>
+      <c r="I98" t="s">
+        <v>818</v>
+      </c>
+      <c r="J98" t="s">
+        <v>819</v>
+      </c>
+      <c r="K98" t="s">
+        <v>820</v>
+      </c>
+      <c r="L98" t="s">
+        <v>821</v>
+      </c>
+      <c r="M98" t="n">
+        <v>5</v>
+      </c>
+      <c r="N98" t="s">
+        <v>822</v>
+      </c>
+      <c r="O98" t="s">
+        <v>284</v>
+      </c>
+      <c r="P98" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>5</v>
+      </c>
+      <c r="R98" t="s"/>
+      <c r="S98" t="s"/>
+      <c r="T98" t="s"/>
+      <c r="U98" t="n">
+        <v>5</v>
+      </c>
+      <c r="V98" t="n">
+        <v>0</v>
+      </c>
+      <c r="W98" t="s">
+        <v>802</v>
+      </c>
+      <c r="X98" t="s">
+        <v>803</v>
+      </c>
+      <c r="Y98" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>63272</v>
+      </c>
+      <c r="B99" t="s"/>
+      <c r="C99" t="s"/>
+      <c r="D99" t="n">
+        <v>98</v>
+      </c>
+      <c r="E99" t="s">
+        <v>44</v>
+      </c>
+      <c r="F99" t="s">
+        <v>824</v>
+      </c>
+      <c r="G99" t="s">
+        <v>46</v>
+      </c>
+      <c r="H99" t="s">
+        <v>47</v>
+      </c>
+      <c r="I99" t="s">
+        <v>825</v>
+      </c>
+      <c r="J99" t="s">
+        <v>826</v>
+      </c>
+      <c r="K99" t="s">
+        <v>423</v>
+      </c>
+      <c r="L99" t="s">
+        <v>827</v>
+      </c>
+      <c r="M99" t="n">
+        <v>5</v>
+      </c>
+      <c r="N99" t="s">
+        <v>822</v>
+      </c>
+      <c r="O99" t="s">
+        <v>136</v>
+      </c>
+      <c r="P99" t="s"/>
+      <c r="Q99" t="s"/>
+      <c r="R99" t="n">
+        <v>3</v>
+      </c>
+      <c r="S99" t="s"/>
+      <c r="T99" t="s"/>
+      <c r="U99" t="n">
+        <v>5</v>
+      </c>
+      <c r="V99" t="n">
+        <v>0</v>
+      </c>
+      <c r="W99" t="s">
+        <v>828</v>
+      </c>
+      <c r="X99" t="s">
+        <v>829</v>
+      </c>
+      <c r="Y99" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>63272</v>
+      </c>
+      <c r="B100" t="s"/>
+      <c r="C100" t="s"/>
+      <c r="D100" t="n">
+        <v>99</v>
+      </c>
+      <c r="E100" t="s">
+        <v>44</v>
+      </c>
+      <c r="F100" t="s">
+        <v>831</v>
+      </c>
+      <c r="G100" t="s">
+        <v>46</v>
+      </c>
+      <c r="H100" t="s">
+        <v>47</v>
+      </c>
+      <c r="I100" t="s">
+        <v>832</v>
+      </c>
+      <c r="J100" t="s">
+        <v>826</v>
+      </c>
+      <c r="K100" t="s">
+        <v>833</v>
+      </c>
+      <c r="L100" t="s">
+        <v>834</v>
+      </c>
+      <c r="M100" t="n">
+        <v>5</v>
+      </c>
+      <c r="N100" t="s"/>
+      <c r="O100" t="s"/>
+      <c r="P100" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>5</v>
+      </c>
+      <c r="R100" t="n">
+        <v>4</v>
+      </c>
+      <c r="S100" t="n">
+        <v>5</v>
+      </c>
+      <c r="T100" t="s"/>
+      <c r="U100" t="n">
+        <v>5</v>
+      </c>
+      <c r="V100" t="n">
+        <v>0</v>
+      </c>
+      <c r="W100" t="s">
+        <v>828</v>
+      </c>
+      <c r="X100" t="s">
+        <v>829</v>
+      </c>
+      <c r="Y100" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>63272</v>
+      </c>
+      <c r="B101" t="s"/>
+      <c r="C101" t="s"/>
+      <c r="D101" t="n">
+        <v>100</v>
+      </c>
+      <c r="E101" t="s">
+        <v>44</v>
+      </c>
+      <c r="F101" t="s">
+        <v>836</v>
+      </c>
+      <c r="G101" t="s">
+        <v>46</v>
+      </c>
+      <c r="H101" t="s">
+        <v>47</v>
+      </c>
+      <c r="I101" t="s">
+        <v>837</v>
+      </c>
+      <c r="J101" t="s">
+        <v>838</v>
+      </c>
+      <c r="K101" t="s">
+        <v>839</v>
+      </c>
+      <c r="L101" t="s">
+        <v>840</v>
+      </c>
+      <c r="M101" t="n">
+        <v>5</v>
+      </c>
+      <c r="N101" t="s">
+        <v>822</v>
+      </c>
+      <c r="O101" t="s">
+        <v>53</v>
+      </c>
+      <c r="P101" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q101" t="s"/>
+      <c r="R101" t="n">
+        <v>4</v>
+      </c>
+      <c r="S101" t="s"/>
+      <c r="T101" t="s"/>
+      <c r="U101" t="n">
+        <v>5</v>
+      </c>
+      <c r="V101" t="n">
+        <v>0</v>
+      </c>
+      <c r="W101" t="s">
+        <v>828</v>
+      </c>
+      <c r="X101" t="s">
+        <v>829</v>
+      </c>
+      <c r="Y101" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>63272</v>
+      </c>
+      <c r="B102" t="s"/>
+      <c r="C102" t="s"/>
+      <c r="D102" t="n">
+        <v>101</v>
+      </c>
+      <c r="E102" t="s">
+        <v>44</v>
+      </c>
+      <c r="F102" t="s">
+        <v>842</v>
+      </c>
+      <c r="G102" t="s">
+        <v>46</v>
+      </c>
+      <c r="H102" t="s">
+        <v>47</v>
+      </c>
+      <c r="I102" t="s">
+        <v>843</v>
+      </c>
+      <c r="J102" t="s">
+        <v>844</v>
+      </c>
+      <c r="K102" t="s">
+        <v>845</v>
+      </c>
+      <c r="L102" t="s">
+        <v>846</v>
+      </c>
+      <c r="M102" t="n">
+        <v>4</v>
+      </c>
+      <c r="N102" t="s">
+        <v>822</v>
+      </c>
+      <c r="O102" t="s">
+        <v>53</v>
+      </c>
+      <c r="P102" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q102" t="s"/>
+      <c r="R102" t="s"/>
+      <c r="S102" t="n">
+        <v>5</v>
+      </c>
+      <c r="T102" t="s"/>
+      <c r="U102" t="n">
+        <v>5</v>
+      </c>
+      <c r="V102" t="n">
+        <v>0</v>
+      </c>
+      <c r="W102" t="s">
+        <v>828</v>
+      </c>
+      <c r="X102" t="s">
+        <v>829</v>
+      </c>
+      <c r="Y102" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>63272</v>
+      </c>
+      <c r="B103" t="s"/>
+      <c r="C103" t="s"/>
+      <c r="D103" t="n">
+        <v>102</v>
+      </c>
+      <c r="E103" t="s">
+        <v>44</v>
+      </c>
+      <c r="F103" t="s">
+        <v>848</v>
+      </c>
+      <c r="G103" t="s">
+        <v>46</v>
+      </c>
+      <c r="H103" t="s">
+        <v>47</v>
+      </c>
+      <c r="I103" t="s">
+        <v>849</v>
+      </c>
+      <c r="J103" t="s">
+        <v>844</v>
+      </c>
+      <c r="K103" t="s">
+        <v>850</v>
+      </c>
+      <c r="L103" t="s">
+        <v>851</v>
+      </c>
+      <c r="M103" t="n">
+        <v>5</v>
+      </c>
+      <c r="N103" t="s"/>
+      <c r="O103" t="s"/>
+      <c r="P103" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>5</v>
+      </c>
+      <c r="R103" t="n">
+        <v>5</v>
+      </c>
+      <c r="S103" t="n">
+        <v>5</v>
+      </c>
+      <c r="T103" t="s"/>
+      <c r="U103" t="n">
+        <v>5</v>
+      </c>
+      <c r="V103" t="n">
+        <v>0</v>
+      </c>
+      <c r="W103" t="s">
+        <v>828</v>
+      </c>
+      <c r="X103" t="s">
+        <v>829</v>
+      </c>
+      <c r="Y103" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>63272</v>
+      </c>
+      <c r="B104" t="s"/>
+      <c r="C104" t="s"/>
+      <c r="D104" t="n">
+        <v>103</v>
+      </c>
+      <c r="E104" t="s">
+        <v>44</v>
+      </c>
+      <c r="F104" t="s">
+        <v>853</v>
+      </c>
+      <c r="G104" t="s">
+        <v>46</v>
+      </c>
+      <c r="H104" t="s">
+        <v>47</v>
+      </c>
+      <c r="I104" t="s">
+        <v>854</v>
+      </c>
+      <c r="J104" t="s">
+        <v>855</v>
+      </c>
+      <c r="K104" t="s">
+        <v>856</v>
+      </c>
+      <c r="L104" t="s">
+        <v>857</v>
+      </c>
+      <c r="M104" t="n">
+        <v>4</v>
+      </c>
+      <c r="N104" t="s">
+        <v>858</v>
+      </c>
+      <c r="O104" t="s">
+        <v>53</v>
+      </c>
+      <c r="P104" t="s"/>
+      <c r="Q104" t="s"/>
+      <c r="R104" t="s"/>
+      <c r="S104" t="n">
+        <v>5</v>
+      </c>
+      <c r="T104" t="s"/>
+      <c r="U104" t="n">
+        <v>4</v>
+      </c>
+      <c r="V104" t="n">
+        <v>0</v>
+      </c>
+      <c r="W104" t="s">
+        <v>859</v>
+      </c>
+      <c r="X104" t="s">
+        <v>860</v>
+      </c>
+      <c r="Y104" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>63272</v>
+      </c>
+      <c r="B105" t="s"/>
+      <c r="C105" t="s"/>
+      <c r="D105" t="n">
+        <v>104</v>
+      </c>
+      <c r="E105" t="s">
+        <v>44</v>
+      </c>
+      <c r="F105" t="s">
+        <v>862</v>
+      </c>
+      <c r="G105" t="s">
+        <v>46</v>
+      </c>
+      <c r="H105" t="s">
+        <v>47</v>
+      </c>
+      <c r="I105" t="s">
+        <v>863</v>
+      </c>
+      <c r="J105" t="s">
+        <v>864</v>
+      </c>
+      <c r="K105" t="s">
+        <v>865</v>
+      </c>
+      <c r="L105" t="s">
+        <v>866</v>
+      </c>
+      <c r="M105" t="n">
+        <v>5</v>
+      </c>
+      <c r="N105" t="s">
+        <v>858</v>
+      </c>
+      <c r="O105" t="s">
+        <v>136</v>
+      </c>
+      <c r="P105" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q105" t="s"/>
+      <c r="R105" t="s"/>
+      <c r="S105" t="n">
+        <v>5</v>
+      </c>
+      <c r="T105" t="s"/>
+      <c r="U105" t="n">
+        <v>5</v>
+      </c>
+      <c r="V105" t="n">
+        <v>0</v>
+      </c>
+      <c r="W105" t="s">
+        <v>867</v>
+      </c>
+      <c r="X105" t="s">
+        <v>868</v>
+      </c>
+      <c r="Y105" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>63272</v>
+      </c>
+      <c r="B106" t="s"/>
+      <c r="C106" t="s"/>
+      <c r="D106" t="n">
+        <v>105</v>
+      </c>
+      <c r="E106" t="s">
+        <v>44</v>
+      </c>
+      <c r="F106" t="s">
+        <v>870</v>
+      </c>
+      <c r="G106" t="s">
+        <v>46</v>
+      </c>
+      <c r="H106" t="s">
+        <v>47</v>
+      </c>
+      <c r="I106" t="s">
+        <v>871</v>
+      </c>
+      <c r="J106" t="s">
+        <v>872</v>
+      </c>
+      <c r="K106" t="s">
+        <v>677</v>
+      </c>
+      <c r="L106" t="s">
+        <v>873</v>
+      </c>
+      <c r="M106" t="n">
+        <v>5</v>
+      </c>
+      <c r="N106" t="s">
+        <v>874</v>
+      </c>
+      <c r="O106" t="s">
+        <v>361</v>
+      </c>
+      <c r="P106" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q106" t="s"/>
+      <c r="R106" t="s"/>
+      <c r="S106" t="s"/>
+      <c r="T106" t="s"/>
+      <c r="U106" t="n">
+        <v>5</v>
+      </c>
+      <c r="V106" t="n">
+        <v>0</v>
+      </c>
+      <c r="W106" t="s">
+        <v>867</v>
+      </c>
+      <c r="X106" t="s">
+        <v>868</v>
+      </c>
+      <c r="Y106" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>63272</v>
+      </c>
+      <c r="B107" t="s"/>
+      <c r="C107" t="s"/>
+      <c r="D107" t="n">
+        <v>106</v>
+      </c>
+      <c r="E107" t="s">
+        <v>44</v>
+      </c>
+      <c r="F107" t="s">
+        <v>876</v>
+      </c>
+      <c r="G107" t="s">
+        <v>46</v>
+      </c>
+      <c r="H107" t="s">
+        <v>47</v>
+      </c>
+      <c r="I107" t="s">
+        <v>877</v>
+      </c>
+      <c r="J107" t="s">
+        <v>878</v>
+      </c>
+      <c r="K107" t="s">
+        <v>879</v>
+      </c>
+      <c r="L107" t="s">
+        <v>880</v>
+      </c>
+      <c r="M107" t="n">
+        <v>5</v>
+      </c>
+      <c r="N107" t="s">
+        <v>881</v>
+      </c>
+      <c r="O107" t="s">
+        <v>53</v>
+      </c>
+      <c r="P107" t="s"/>
+      <c r="Q107" t="s"/>
+      <c r="R107" t="n">
+        <v>5</v>
+      </c>
+      <c r="S107" t="n">
+        <v>5</v>
+      </c>
+      <c r="T107" t="s"/>
+      <c r="U107" t="n">
+        <v>5</v>
+      </c>
+      <c r="V107" t="n">
+        <v>0</v>
+      </c>
+      <c r="W107" t="s">
+        <v>882</v>
+      </c>
+      <c r="X107" t="s">
+        <v>883</v>
+      </c>
+      <c r="Y107" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>63272</v>
+      </c>
+      <c r="B108" t="s"/>
+      <c r="C108" t="s"/>
+      <c r="D108" t="n">
+        <v>107</v>
+      </c>
+      <c r="E108" t="s">
+        <v>44</v>
+      </c>
+      <c r="F108" t="s">
+        <v>885</v>
+      </c>
+      <c r="G108" t="s">
+        <v>46</v>
+      </c>
+      <c r="H108" t="s">
+        <v>47</v>
+      </c>
+      <c r="I108" t="s">
+        <v>886</v>
+      </c>
+      <c r="J108" t="s">
+        <v>887</v>
+      </c>
+      <c r="K108" t="s">
+        <v>888</v>
+      </c>
+      <c r="L108" t="s">
+        <v>889</v>
+      </c>
+      <c r="M108" t="n">
+        <v>5</v>
+      </c>
+      <c r="N108" t="s">
+        <v>881</v>
+      </c>
+      <c r="O108" t="s">
+        <v>53</v>
+      </c>
+      <c r="P108" t="s"/>
+      <c r="Q108" t="s"/>
+      <c r="R108" t="n">
+        <v>4</v>
+      </c>
+      <c r="S108" t="s"/>
+      <c r="T108" t="s"/>
+      <c r="U108" t="n">
+        <v>5</v>
+      </c>
+      <c r="V108" t="n">
+        <v>0</v>
+      </c>
+      <c r="W108" t="s">
+        <v>890</v>
+      </c>
+      <c r="X108" t="s">
+        <v>891</v>
+      </c>
+      <c r="Y108" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>63272</v>
+      </c>
+      <c r="B109" t="s"/>
+      <c r="C109" t="s"/>
+      <c r="D109" t="n">
+        <v>108</v>
+      </c>
+      <c r="E109" t="s">
+        <v>44</v>
+      </c>
+      <c r="F109" t="s">
+        <v>893</v>
+      </c>
+      <c r="G109" t="s">
+        <v>46</v>
+      </c>
+      <c r="H109" t="s">
+        <v>47</v>
+      </c>
+      <c r="I109" t="s">
+        <v>894</v>
+      </c>
+      <c r="J109" t="s">
+        <v>895</v>
+      </c>
+      <c r="K109" t="s">
+        <v>896</v>
+      </c>
+      <c r="L109" t="s">
+        <v>897</v>
+      </c>
+      <c r="M109" t="n">
+        <v>4</v>
+      </c>
+      <c r="N109" t="s"/>
+      <c r="O109" t="s"/>
+      <c r="P109" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q109" t="n">
+        <v>4</v>
+      </c>
+      <c r="R109" t="n">
+        <v>4</v>
+      </c>
+      <c r="S109" t="n">
+        <v>4</v>
+      </c>
+      <c r="T109" t="s"/>
+      <c r="U109" t="n">
+        <v>4</v>
+      </c>
+      <c r="V109" t="n">
+        <v>0</v>
+      </c>
+      <c r="W109" t="s">
+        <v>890</v>
+      </c>
+      <c r="X109" t="s">
+        <v>891</v>
+      </c>
+      <c r="Y109" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>63272</v>
+      </c>
+      <c r="B110" t="s"/>
+      <c r="C110" t="s"/>
+      <c r="D110" t="n">
+        <v>109</v>
+      </c>
+      <c r="E110" t="s">
+        <v>44</v>
+      </c>
+      <c r="F110" t="s">
+        <v>899</v>
+      </c>
+      <c r="G110" t="s">
+        <v>46</v>
+      </c>
+      <c r="H110" t="s">
+        <v>47</v>
+      </c>
+      <c r="I110" t="s">
+        <v>900</v>
+      </c>
+      <c r="J110" t="s">
+        <v>901</v>
+      </c>
+      <c r="K110" t="s">
+        <v>902</v>
+      </c>
+      <c r="L110" t="s">
+        <v>903</v>
+      </c>
+      <c r="M110" t="n">
+        <v>5</v>
+      </c>
+      <c r="N110" t="s">
+        <v>904</v>
+      </c>
+      <c r="O110" t="s">
+        <v>53</v>
+      </c>
+      <c r="P110" t="s"/>
+      <c r="Q110" t="s"/>
+      <c r="R110" t="s"/>
+      <c r="S110" t="n">
+        <v>5</v>
+      </c>
+      <c r="T110" t="s"/>
+      <c r="U110" t="n">
+        <v>5</v>
+      </c>
+      <c r="V110" t="n">
+        <v>0</v>
+      </c>
+      <c r="W110" t="s">
+        <v>905</v>
+      </c>
+      <c r="X110" t="s">
+        <v>906</v>
+      </c>
+      <c r="Y110" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>63272</v>
+      </c>
+      <c r="B111" t="s"/>
+      <c r="C111" t="s"/>
+      <c r="D111" t="n">
+        <v>110</v>
+      </c>
+      <c r="E111" t="s">
+        <v>44</v>
+      </c>
+      <c r="F111" t="s">
+        <v>908</v>
+      </c>
+      <c r="G111" t="s">
+        <v>46</v>
+      </c>
+      <c r="H111" t="s">
+        <v>47</v>
+      </c>
+      <c r="I111" t="s">
+        <v>909</v>
+      </c>
+      <c r="J111" t="s">
+        <v>910</v>
+      </c>
+      <c r="K111" t="s">
+        <v>911</v>
+      </c>
+      <c r="L111" t="s">
+        <v>912</v>
+      </c>
+      <c r="M111" t="n">
+        <v>5</v>
+      </c>
+      <c r="N111" t="s">
+        <v>913</v>
+      </c>
+      <c r="O111" t="s">
+        <v>136</v>
+      </c>
+      <c r="P111" t="s"/>
+      <c r="Q111" t="s"/>
+      <c r="R111" t="n">
+        <v>5</v>
+      </c>
+      <c r="S111" t="n">
+        <v>5</v>
+      </c>
+      <c r="T111" t="s"/>
+      <c r="U111" t="n">
+        <v>5</v>
+      </c>
+      <c r="V111" t="n">
+        <v>0</v>
+      </c>
+      <c r="W111" t="s">
+        <v>914</v>
+      </c>
+      <c r="X111" t="s">
+        <v>915</v>
+      </c>
+      <c r="Y111" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>63272</v>
+      </c>
+      <c r="B112" t="s"/>
+      <c r="C112" t="s"/>
+      <c r="D112" t="n">
+        <v>111</v>
+      </c>
+      <c r="E112" t="s">
+        <v>44</v>
+      </c>
+      <c r="F112" t="s">
+        <v>917</v>
+      </c>
+      <c r="G112" t="s">
+        <v>46</v>
+      </c>
+      <c r="H112" t="s">
+        <v>47</v>
+      </c>
+      <c r="I112" t="s">
+        <v>918</v>
+      </c>
+      <c r="J112" t="s">
+        <v>910</v>
+      </c>
+      <c r="K112" t="s">
+        <v>919</v>
+      </c>
+      <c r="L112" t="s">
+        <v>920</v>
+      </c>
+      <c r="M112" t="n">
+        <v>5</v>
+      </c>
+      <c r="N112" t="s">
+        <v>904</v>
+      </c>
+      <c r="O112" t="s">
+        <v>53</v>
+      </c>
+      <c r="P112" t="s"/>
+      <c r="Q112" t="s"/>
+      <c r="R112" t="s"/>
+      <c r="S112" t="n">
+        <v>5</v>
+      </c>
+      <c r="T112" t="s"/>
+      <c r="U112" t="n">
+        <v>5</v>
+      </c>
+      <c r="V112" t="n">
+        <v>0</v>
+      </c>
+      <c r="W112" t="s">
+        <v>914</v>
+      </c>
+      <c r="X112" t="s">
+        <v>915</v>
+      </c>
+      <c r="Y112" t="s">
+        <v>921</v>
       </c>
     </row>
   </sheetData>
